--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1667922.120191026</v>
+        <v>1523140.811580848</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1669871.103836284</v>
+        <v>1524920.616821908</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1671847.502864757</v>
+        <v>1526725.457697746</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1673851.697671387</v>
+        <v>1528555.681583731</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1675884.073634159</v>
+        <v>1530411.64040573</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1677945.021161592</v>
+        <v>1532293.690683473</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1680034.935739745</v>
+        <v>1534202.193573487</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1682154.217978703</v>
+        <v>1536137.514911539</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1684303.273658517</v>
+        <v>1538100.025254594</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1686482.513774551</v>
+        <v>1540090.099922221</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1688692.354582191</v>
+        <v>1542108.119037422</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1690933.217640908</v>
+        <v>1544154.467566875</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1693205.529857613</v>
+        <v>1546229.53536052</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1695509.723529305</v>
+        <v>1548333.717190508</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1697846.236384956</v>
+        <v>1550467.412789448</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1700215.511626634</v>
+        <v>1552631.02688796</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1702617.997969816</v>
+        <v>1554824.969251497</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1705054.149682913</v>
+        <v>1557049.654716425</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1707524.426625952</v>
+        <v>1559305.503225358</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1710029.294288436</v>
+        <v>1561592.939861729</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1712569.223826369</v>
+        <v>1563912.3948836</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1715144.692098451</v>
+        <v>1566264.303756712</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1717756.181701438</v>
+        <v>1568649.107186788</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1720404.181004719</v>
+        <v>1571067.251151089</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1723089.18418407</v>
+        <v>1573519.186929257</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1725811.691254688</v>
+        <v>1576005.37113347</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1728572.208103474</v>
+        <v>1578526.265737926</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1731371.246520655</v>
+        <v>1581082.338107721</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1734209.324230775</v>
+        <v>1583674.06102715</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1737086.964923129</v>
+        <v>1586301.912727497</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1740004.698281706</v>
+        <v>1588966.376914382</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1742963.060014729</v>
+        <v>1591667.942794729</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1745962.591883873</v>
+        <v>1594407.105103463</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1749003.84173328</v>
+        <v>1597184.36412999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1752087.363518471</v>
+        <v>1600000.225744611</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1755213.717335299</v>
+        <v>1602855.201424955</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1758383.469449051</v>
+        <v>1605749.808282555</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1761597.192323882</v>
+        <v>1608684.569089737</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1764855.464652737</v>
+        <v>1611660.012306927</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1768158.871387905</v>
+        <v>1614676.672110568</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1771508.003772437</v>
+        <v>1617735.088421807</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1774903.45937261</v>
+        <v>1620835.806936136</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1778345.842111644</v>
+        <v>1623979.379154186</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1781835.762304911</v>
+        <v>1627166.362413881</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1785373.836696886</v>
+        <v>1630397.31992418</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1788960.688500057</v>
+        <v>1633672.82080061</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1792596.947436121</v>
+        <v>1636993.440102884</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1796283.249779693</v>
+        <v>1640359.758874817</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1800020.238404845</v>
+        <v>1643772.364186827</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1803808.562834777</v>
+        <v>1647231.849181294</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1807648.879294949</v>
+        <v>1650738.813121074</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1811541.850769979</v>
+        <v>1654293.86144147</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1815488.14706466</v>
+        <v>1657897.605805944</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1819488.444869473</v>
+        <v>1661550.664165941</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1823543.427830887</v>
+        <v>1665253.660825094</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1827653.786626892</v>
+        <v>1669007.226508197</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1831820.219048104</v>
+        <v>1672811.998435263</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1836043.430084804</v>
+        <v>1676668.620401032</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1840324.132020372</v>
+        <v>1680577.742860256</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1844663.044531416</v>
+        <v>1684540.023019174</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1849060.894795095</v>
+        <v>1688556.12493349</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1853518.417603936</v>
+        <v>1692626.719613248</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1858036.355488648</v>
+        <v>1696752.485134963</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>1862615.458849253</v>
+        <v>1700934.106761389</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>1867256.486094977</v>
+        <v>1705172.277069251</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>1871960.203793289</v>
+        <v>1709467.696085359</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>1876727.386828488</v>
+        <v>1713821.071431419</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>1881558.818570191</v>
+        <v>1718233.118477904</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>1886455.291052156</v>
+        <v>1722704.560507348</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>1891417.605161743</v>
+        <v>1727236.128887369</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>1896446.570840425</v>
+        <v>1731828.563253767</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1901543.007295654</v>
+        <v>1736482.611704002</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>1906707.743224407</v>
+        <v>1741199.031001337</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>1911941.617048761</v>
+        <v>1745978.586789964</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>1917245.477163733</v>
+        <v>1750822.05382133</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>1922620.182197687</v>
+        <v>1755730.216191936</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1928066.601285538</v>
+        <v>1760703.867592835</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1933585.614354978</v>
+        <v>1765743.811571004</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1939178.112425921</v>
+        <v>1770850.8618028</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1944844.99792331</v>
+        <v>1776025.842379616</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1950587.185003448</v>
+        <v>1781269.588105879</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1956405.599893929</v>
+        <v>1786582.944809481</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1962301.181247248</v>
+        <v>1791966.769664689</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1968274.880508124</v>
+        <v>1797421.931527586</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1974327.662294523</v>
+        <v>1802949.311284024</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1980460.50479234</v>
+        <v>1808549.802210034</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1986674.400163653</v>
+        <v>1814224.310344655</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1992970.354968448</v>
+        <v>1819973.754875047</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1999349.390599615</v>
+        <v>1825799.068533723</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>2005812.543731022</v>
+        <v>1831701.19800774</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>2012360.866778451</v>
+        <v>1837681.104359611</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>2018995.428373027</v>
+        <v>1843739.763459647</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>2025717.313846878</v>
+        <v>1849878.166429458</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>2032527.625730605</v>
+        <v>1856097.320096243</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>2039427.484262134</v>
+        <v>1862398.247457469</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>2046418.027906505</v>
+        <v>1868781.988155541</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>2053500.413886057</v>
+        <v>1875249.598961966</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>2060675.818720472</v>
+        <v>1881802.154270521</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>2067945.438776084</v>
+        <v>1888440.746598874</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>2075310.490823786</v>
+        <v>1895166.487098069</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>2082772.21260489</v>
+        <v>1901980.506069266</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>2090331.863404216</v>
+        <v>1908883.953487082</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>2097990.724629636</v>
+        <v>1915877.999528834</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>2105750.100397318</v>
+        <v>1922963.835108973</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>2113611.318121836</v>
+        <v>1930142.672417974</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>2121575.729110287</v>
+        <v>1937415.745464887</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>2129644.709159554</v>
+        <v>1944784.31062275</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>2137819.659155825</v>
+        <v>1952249.647176072</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>2146102.005675408</v>
+        <v>1959813.057869485</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>2154493.201585943</v>
+        <v>1967475.869456779</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>2162994.726647032</v>
+        <v>1975239.433249397</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>2171608.088109312</v>
+        <v>1983105.125663497</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>2180334.821311036</v>
+        <v>1991074.348764756</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>2189176.490271137</v>
+        <v>1999148.530809942</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>2198134.688277807</v>
+        <v>2007329.126784421</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>2207211.038471642</v>
+        <v>2015617.61893467</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>2216407.194422354</v>
+        <v>2024015.517294928</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>2225724.840698109</v>
+        <v>2032524.36020712</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>2235165.693426532</v>
+        <v>2041145.714833165</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2244731.500846514</v>
+        <v>2049881.177658867</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2254424.043849839</v>
+        <v>2058732.374988557</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2264245.13651186</v>
+        <v>2067700.963429682</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2274196.626610337</v>
+        <v>2076788.630366613</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2284280.396131644</v>
+        <v>2085997.094422906</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2294498.361763635</v>
+        <v>2095328.105911397</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2304852.475374415</v>
+        <v>2104783.447271411</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2315344.724476418</v>
+        <v>2114364.933492548</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2325977.13267515</v>
+        <v>2124074.412524468</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2336751.760102056</v>
+        <v>2133913.765672218</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2347670.703831094</v>
+        <v>2143884.9079766</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2358736.098278515</v>
+        <v>2153989.788579286</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2369950.115585609</v>
+        <v>2164230.391072315</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2381314.96598403</v>
+        <v>2174608.733831725</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2392832.898143637</v>
+        <v>2185126.870335187</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2404506.199502609</v>
+        <v>2195786.889463479</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2416337.196579908</v>
+        <v>2206590.915785803</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2428328.255270062</v>
+        <v>2217541.109828999</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2440481.781120417</v>
+        <v>2228639.668330736</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2452800.219591131</v>
+        <v>2239888.824476913</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2465286.056298119</v>
+        <v>2251290.848123539</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2477941.817239443</v>
+        <v>2262848.046003457</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2490770.069005556</v>
+        <v>2274562.761918347</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2503773.418974021</v>
+        <v>2286437.37691654</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2516954.515489366</v>
+        <v>2298474.309457256</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2530316.048028788</v>
+        <v>2310676.015561934</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2543860.747354608</v>
+        <v>2323044.98895344</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2557591.385654371</v>
+        <v>2335583.76118402</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2571510.77666962</v>
+        <v>2348294.901752891</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2585621.775814462</v>
+        <v>2361181.018214512</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2599927.280285079</v>
+        <v>2374244.756278585</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2614430.229161513</v>
+        <v>2387488.799903019</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2629133.603503018</v>
+        <v>2400915.871380991</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2644040.426438429</v>
+        <v>2414528.731423482</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2659153.763253074</v>
+        <v>2428330.17923863</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2674476.721473735</v>
+        <v>2442323.05260934</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2690012.450953397</v>
+        <v>2456510.227970646</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2705764.143957364</v>
+        <v>2470894.620488378</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2721735.035252617</v>
+        <v>2485479.184140748</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2737928.402202171</v>
+        <v>2500266.911804522</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2754347.564866301</v>
+        <v>2515260.835347461</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2770995.886112592</v>
+        <v>2530464.025728815</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2787876.771736731</v>
+        <v>2545879.593109628</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2804993.670596081</v>
+        <v>2561510.686974726</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>2822350.074758018</v>
+        <v>2577360.496268167</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>2839949.519665162</v>
+        <v>2593432.249544135</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>2857795.584319523</v>
+        <v>2609729.215135102</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>2875891.891487722</v>
+        <v>2626254.701339238</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>2894242.10792938</v>
+        <v>2643012.056628959</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>2912849.944650813</v>
+        <v>2660004.669882628</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>2931719.157186204</v>
+        <v>2677235.970641297</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>2950853.545908354</v>
+        <v>2694709.429392488</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>2970256.956371175</v>
+        <v>2712428.557882971</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>2989933.279686085</v>
+        <v>2730396.909462459</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>3009886.452934373</v>
+        <v>2748618.07946021</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>3030120.459617718</v>
+        <v>2767095.705596419</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>3050639.33014889</v>
+        <v>2785833.468430331</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>3071447.142384776</v>
+        <v>2804835.091846989</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>3092548.022203702</v>
+        <v>2824104.343584465</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>3113946.144129168</v>
+        <v>2843645.035803436</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>3135645.73200192</v>
+        <v>2863461.025700907</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>3157651.05970234</v>
+        <v>2883556.21616992</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>3179966.451925117</v>
+        <v>2903934.556506969</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>3202596.285008049</v>
+        <v>2924600.043168859</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>3225544.987816867</v>
+        <v>2945556.720580719</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>3248817.042687878</v>
+        <v>2966808.681996835</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>3272416.986430218</v>
+        <v>2988360.070415889</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3296349.411389465</v>
+        <v>3010215.079552257</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3320618.966574278</v>
+        <v>3032377.954864846</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3345230.35884777</v>
+        <v>3054852.994645055</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3370188.354185194</v>
+        <v>3077644.551165283</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3395497.778999516</v>
+        <v>3100757.031889453</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3421163.521536487</v>
+        <v>3124194.900746968</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3447190.533340616</v>
+        <v>3147962.679471449</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3473583.830793567</v>
+        <v>3172064.949005579</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3500348.496726425</v>
+        <v>3196506.350973432</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3527489.682107175</v>
+        <v>3221291.589221467</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3555012.607804803</v>
+        <v>3246425.431429497</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3582922.566431339</v>
+        <v>3271912.710792841</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3611224.92426314</v>
+        <v>3297758.32777683</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3639925.123242702</v>
+        <v>3323967.25194486</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3669028.683062294</v>
+        <v>3350544.523861144</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3698541.203330567</v>
+        <v>3377495.257069278</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3728468.365823268</v>
+        <v>3404824.640147563</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3758815.936819762</v>
+        <v>3432537.938842716</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>3789589.769526003</v>
+        <v>3460640.498282523</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>3820795.806585391</v>
+        <v>3489137.745268741</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>3852440.082678603</v>
+        <v>3518035.190651252</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>3884528.727213634</v>
+        <v>3547338.431784607</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>3917067.967107168</v>
+        <v>3577053.155067962</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>3950064.129658507</v>
+        <v>3607185.138569532</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>3983523.645517162</v>
+        <v>3637740.2547366</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>4017453.051745357</v>
+        <v>3668724.473192161</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>4051858.994976515</v>
+        <v>3700143.863619284</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>4086748.234671094</v>
+        <v>3732004.598734273</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>4122127.646470756</v>
+        <v>3764312.957349734</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>4158004.22565224</v>
+        <v>3797075.327528607</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>4194385.090682087</v>
+        <v>3830298.209830346</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>4231277.486873411</v>
+        <v>3863988.220650262</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>4268688.79014602</v>
+        <v>3898152.095653261</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>4306626.510891123</v>
+        <v>3932796.693303062</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4345098.297941728</v>
+        <v>3967928.998487979</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4384111.942650233</v>
+        <v>4003556.126244542</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4423675.383074241</v>
+        <v>4039685.325579969</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4463796.708271983</v>
+        <v>4076323.983394753</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4504484.16270854</v>
+        <v>4113479.628506384</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4545746.150774171</v>
+        <v>4151159.935775481</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4587591.241415899</v>
+        <v>4189372.73033535</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4630028.172883659</v>
+        <v>4228125.991926123</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4673065.857592099</v>
+        <v>4267427.859334578</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4716713.387099337</v>
+        <v>4307286.634940684</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>4760980.03720363</v>
+        <v>4347710.789371883</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>4805875.273159161</v>
+        <v>4388708.966266135</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>4851408.755011932</v>
+        <v>4430289.987144609</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>4897590.343056678</v>
+        <v>4472462.856394948</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>4944430.103415734</v>
+        <v>4515236.766365861</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>4991938.313740645</v>
+        <v>4558621.102573805</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>5040125.469037157</v>
+        <v>4602625.449022363</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>5089002.287614239</v>
+        <v>4647259.593634862</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>5138579.717157576</v>
+        <v>4692533.533800654</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>5188868.940927724</v>
+        <v>4738457.48203528</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>5239881.384083308</v>
+        <v>4785041.871754756</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>5291628.720128973</v>
+        <v>4832297.363163855</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>5344122.877488037</v>
+        <v>4880234.849258218</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5397376.046199377</v>
+        <v>4928865.46193991</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5451400.684737767</v>
+        <v>4978200.578245765</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5506209.526956898</v>
+        <v>5028251.826687687</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5561815.589153741</v>
+        <v>5079031.093703834</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5618232.177252775</v>
+        <v>5130550.53021922</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5675472.894108274</v>
+        <v>5182822.558314128</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5733551.646922393</v>
+        <v>5235859.877998318</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5792482.654776549</v>
+        <v>5289675.474088607</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5852280.456273031</v>
+        <v>5344282.623187194</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5912959.91728353</v>
+        <v>5399694.900757582</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5974536.238800554</v>
+        <v>5455926.188294474</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>6037024.964887482</v>
+        <v>5512990.680583716</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>6100441.990722306</v>
+        <v>5570902.893047829</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>6164803.570729496</v>
+        <v>5629677.669171998</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>6230126.326794033</v>
+        <v>5689330.188005095</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>6296427.256550856</v>
+        <v>5749875.97172958</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>6363723.741742307</v>
+        <v>5811330.893293491</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>6432033.556635594</v>
+        <v>5873711.184097228</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>6501374.876491353</v>
+        <v>5937033.441727032</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6571766.286073721</v>
+        <v>6001314.637726353</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>6643226.788191631</v>
+        <v>6066572.125395734</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>6715775.812259807</v>
+        <v>6132823.647610665</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>6789433.222867505</v>
+        <v>6200087.344646528</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>6864219.328341767</v>
+        <v>6268381.761998575</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>6940154.889291103</v>
+        <v>6337725.858183937</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>7017261.127114481</v>
+        <v>6408139.012512025</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>7095559.73245944</v>
+        <v>6479641.032808461</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>7175072.873612062</v>
+        <v>6552252.163076745</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>7255823.204800273</v>
+        <v>6625993.091080837</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>7337833.874391009</v>
+        <v>6700884.955830737</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>7421128.532960234</v>
+        <v>6776949.354952052</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>7505731.341213797</v>
+        <v>6854208.351919247</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>7591666.977735709</v>
+        <v>6932684.483131363</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>7678960.646539046</v>
+        <v>7012400.764807487</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>7767638.084393392</v>
+        <v>7093380.69967813</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>7857725.567901256</v>
+        <v>7175648.283447413</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>7949249.920294553</v>
+        <v>7259228.01099954</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>8042238.517920624</v>
+        <v>7344144.882321876</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>8136719.296385966</v>
+        <v>7430424.408115328</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>8232720.756324127</v>
+        <v>7518092.615061592</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>8330271.968752941</v>
+        <v>7607176.05071535</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>8429402.579984402</v>
+        <v>7697701.787987962</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>8530142.816049222</v>
+        <v>7789697.429187952</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>8632523.486596407</v>
+        <v>7883191.109582071</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>8736575.988226611</v>
+        <v>7978211.500439351</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>8842332.307216534</v>
+        <v>8074787.811518949</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>8949825.021590043</v>
+        <v>8172949.792961544</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>9059087.302490134</v>
+        <v>8272727.736542203</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>9170152.914804492</v>
+        <v>8374152.47624158</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>9283056.216995709</v>
+        <v>8477255.388090959</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>9397832.160085989</v>
+        <v>8582068.389245037</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>9514516.285744742</v>
+        <v>8688623.936235517</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>9633144.72342612</v>
+        <v>8796955.022357142</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>9753754.18650225</v>
+        <v>8907095.174136572</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>9876381.967336951</v>
+        <v>9019078.446833706</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>10001065.9312435</v>
+        <v>9132939.418923927</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>10127844.50926899</v>
+        <v>9248713.18550884</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>10256756.68974718</v>
+        <v>9366435.350602318</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>10387842.00856084</v>
+        <v>9486142.01823817</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>10521140.5380543</v>
+        <v>9607869.782345012</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>10656692.87453584</v>
+        <v>9731655.715333616</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>10794540.12431036</v>
+        <v>9857537.355341908</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>10934723.88818172</v>
+        <v>9985552.692082576</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>11077286.24436481</v>
+        <v>10115740.15123848</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>11222269.72974785</v>
+        <v>10248138.57735136</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>11369717.3194457</v>
+        <v>10382787.21515004</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>11519672.40458583</v>
+        <v>10519725.68926469</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>11672178.76827037</v>
+        <v>10658993.98227533</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>11827280.55965797</v>
+        <v>10800632.41104365</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>11985022.26611199</v>
+        <v>10944681.60127862</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>12145448.68336269</v>
+        <v>11091182.4602889</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>12308604.88363421</v>
+        <v>11240176.14787639</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>12474536.18168901</v>
+        <v>11391704.04532817</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>12643288.09874637</v>
+        <v>11545807.72246697</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>12814906.32423416</v>
+        <v>11702528.90272303</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>12989436.6753374</v>
+        <v>11861909.42619401</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>13166925.05431135</v>
+        <v>12023991.21066342</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>13347417.40353115</v>
+        <v>12188816.21055208</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>13530959.65825526</v>
+        <v>12356426.37378191</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>13717597.69708551</v>
+        <v>12526863.59653617</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>13907377.29011227</v>
+        <v>12700169.67590585</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>14100344.04473962</v>
+        <v>12876386.26041734</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>14296543.34919212</v>
+        <v>13055554.79844305</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>14496020.31371204</v>
+        <v>13237716.48450292</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>14698819.70946341</v>
+        <v>13422912.20347179</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>14904985.90516733</v>
+        <v>13611182.47271496</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>15114562.80150124</v>
+        <v>13802567.38218188</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>15327593.7633042</v>
+        <v>13997106.53249619</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>15544121.54963846</v>
+        <v>14194838.97108822</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>15764188.24176832</v>
+        <v>14395803.12642552</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>15987835.16912627</v>
+        <v>14600036.74040538</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>16215102.83334697</v>
+        <v>14807576.7989829</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>16446030.83046025</v>
+        <v>15018459.46111798</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>16680657.77134475</v>
+        <v>15232719.98613375</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>16919021.20055465</v>
+        <v>15450392.6595895</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>17161157.51364379</v>
+        <v>15671510.7177813</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>17407101.87312151</v>
+        <v>15896106.27099317</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>17656888.12318669</v>
+        <v>16124210.22563251</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>17910548.70339745</v>
+        <v>16355852.20539356</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>18168114.56144502</v>
+        <v>16591060.47160277</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>18429615.06521169</v>
+        <v>16829861.84291041</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>18695077.91430306</v>
+        <v>17072281.61450218</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>18964529.05125643</v>
+        <v>17318343.47701501</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>19237992.5726365</v>
+        <v>17568069.43534984</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>19515490.64023993</v>
+        <v>17821479.72758413</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>19797043.39264006</v>
+        <v>18078592.74419454</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>20082668.85731104</v>
+        <v>18339424.94780921</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>20372382.86358029</v>
+        <v>18603990.7937162</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>20666198.95666444</v>
+        <v>18872302.65136123</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>20964128.31305128</v>
+        <v>19144370.72707501</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>21266179.65749666</v>
+        <v>19420202.9882749</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>21572359.18190896</v>
+        <v>19699805.08939062</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>21882670.4663993</v>
+        <v>19983180.29976748</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>21826159.53069435</v>
+        <v>19931574.705339</v>
       </c>
       <c r="C358" t="n">
-        <v>370954.8720829778</v>
+        <v>384697.6341417268</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>21768978.17302145</v>
+        <v>19879356.88384789</v>
       </c>
       <c r="C359" t="n">
-        <v>746710.9477531102</v>
+        <v>774374.3420199431</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>21711113.27810037</v>
+        <v>19826514.85846483</v>
       </c>
       <c r="C360" t="n">
-        <v>1127276.639178101</v>
+        <v>1169038.847447859</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>21652551.33891938</v>
+        <v>19773036.29463255</v>
       </c>
       <c r="C361" t="n">
-        <v>1512657.849939068</v>
+        <v>1568697.272716514</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>21593278.44563284</v>
+        <v>19718908.48992734</v>
       </c>
       <c r="C362" t="n">
-        <v>1902857.922231195</v>
+        <v>1973353.083839369</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>21533280.27421957</v>
+        <v>19664118.36370171</v>
       </c>
       <c r="C363" t="n">
-        <v>2297877.588152125</v>
+        <v>2383007.040036081</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>21472542.07491579</v>
+        <v>19608652.44652152</v>
       </c>
       <c r="C364" t="n">
-        <v>2697714.925336145</v>
+        <v>2797657.147723071</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>21411048.66044062</v>
+        <v>19552496.86941348</v>
       </c>
       <c r="C365" t="n">
-        <v>3102365.317181568</v>
+        <v>3217298.619267447</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>21348784.39403576</v>
+        <v>19495637.35294307</v>
       </c>
       <c r="C366" t="n">
-        <v>3511821.417907591</v>
+        <v>3641923.836749327</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>21285733.1773452</v>
+        <v>19438059.19614627</v>
       </c>
       <c r="C367" t="n">
-        <v>3926073.122663904</v>
+        <v>4071522.320964096</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>21221878.4381654</v>
+        <v>19379747.26534311</v>
       </c>
       <c r="C368" t="n">
-        <v>4345107.542900164</v>
+        <v>4506080.705879393</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>21157203.11810204</v>
+        <v>19320685.98286594</v>
       </c>
       <c r="C369" t="n">
-        <v>4768908.987186493</v>
+        <v>4945582.718745069</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>21091689.66017434</v>
+        <v>19260859.31573951</v>
       </c>
       <c r="C370" t="n">
-        <v>5197458.947656223</v>
+        <v>5390009.16603367</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>21025319.99641435</v>
+        <v>19200250.76435693</v>
       </c>
       <c r="C371" t="n">
-        <v>5630736.092221934</v>
+        <v>5839337.925368115</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>20958075.53551486</v>
+        <v>19138843.35119963</v>
       </c>
       <c r="C372" t="n">
-        <v>6068716.262693294</v>
+        <v>6293543.943569795</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>20889937.15058679</v>
+        <v>19076619.60965751</v>
       </c>
       <c r="C373" t="n">
-        <v>6068681.345367693</v>
+        <v>6293507.732662322</v>
       </c>
       <c r="D373" t="n">
-        <v>442691.1335327061</v>
+        <v>388327.7191289405</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>20820885.16709394</v>
+        <v>19013561.57301098</v>
       </c>
       <c r="C374" t="n">
-        <v>6068640.941825262</v>
+        <v>6293465.832290192</v>
       </c>
       <c r="D374" t="n">
-        <v>890034.0070755152</v>
+        <v>780735.9346836598</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>20750899.35104119</v>
+        <v>18949650.76364446</v>
       </c>
       <c r="C375" t="n">
-        <v>6068594.25050656</v>
+        <v>6293417.411198594</v>
       </c>
       <c r="D375" t="n">
-        <v>1341996.834813984</v>
+        <v>1177196.764215451</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>20679958.89750033</v>
+        <v>18884868.18256823</v>
       </c>
       <c r="C376" t="n">
-        <v>6068540.36270727</v>
+        <v>6293361.527018451</v>
       </c>
       <c r="D376" t="n">
-        <v>1798545.165143393</v>
+        <v>1577679.986850059</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>20608042.41956656</v>
+        <v>18819194.29933347</v>
       </c>
       <c r="C377" t="n">
-        <v>6068478.249816861</v>
+        <v>6293297.113032308</v>
       </c>
       <c r="D377" t="n">
-        <v>2259641.922072328</v>
+        <v>1982153.079606808</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>20535127.93784804</v>
+        <v>18752609.04243428</v>
       </c>
       <c r="C378" t="n">
-        <v>6068406.74926901</v>
+        <v>6293222.963604253</v>
       </c>
       <c r="D378" t="n">
-        <v>2725247.454019257</v>
+        <v>2390581.260202863</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>20461192.8706001</v>
+        <v>18685091.7902982</v>
       </c>
       <c r="C379" t="n">
-        <v>6068324.549106457</v>
+        <v>6293137.718172965</v>
       </c>
       <c r="D379" t="n">
-        <v>3195319.590025234</v>
+        <v>2802927.536362884</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>20386214.02462637</v>
+        <v>18616621.36297708</v>
       </c>
       <c r="C380" t="n">
-        <v>6068230.171060208</v>
+        <v>6293039.843704023</v>
       </c>
       <c r="D380" t="n">
-        <v>3669813.703374614</v>
+        <v>3219152.761626992</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>20310167.58707847</v>
+        <v>18547176.01465873</v>
       </c>
       <c r="C381" t="n">
-        <v>6068121.952040688</v>
+        <v>6292927.615495387</v>
       </c>
       <c r="D381" t="n">
-        <v>4148682.782583197</v>
+        <v>3639215.697621408</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>20233029.11829758</v>
+        <v>18476733.42712977</v>
       </c>
       <c r="C382" t="n">
-        <v>6067998.023937101</v>
+        <v>6292799.096228378</v>
       </c>
       <c r="D382" t="n">
-        <v>4631877.509678981</v>
+        <v>4063073.082726174</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>20154773.54585116</v>
+        <v>18405270.70433003</v>
       </c>
       <c r="C383" t="n">
-        <v>6067856.291620587</v>
+        <v>6292652.113155913</v>
       </c>
       <c r="D383" t="n">
-        <v>4631868.829656366</v>
+        <v>4063065.468628829</v>
       </c>
       <c r="E383" t="n">
-        <v>487477.5160094707</v>
+        <v>312277.9627980873</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>20075375.15992964</v>
+        <v>18332764.36814879</v>
       </c>
       <c r="C384" t="n">
-        <v>6067694.409047185</v>
+        <v>6292484.23332016</v>
       </c>
       <c r="D384" t="n">
-        <v>4631858.481459864</v>
+        <v>4063056.391212906</v>
       </c>
       <c r="E384" t="n">
-        <v>979177.1415632346</v>
+        <v>627260.6078100241</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>19994807.61027867</v>
+        <v>18259190.35562333</v>
       </c>
       <c r="C385" t="n">
-        <v>6067509.753358258</v>
+        <v>6292292.736693465</v>
       </c>
       <c r="D385" t="n">
-        <v>4631846.165122597</v>
+        <v>4063045.587348096</v>
       </c>
       <c r="E385" t="n">
-        <v>1475043.479934688</v>
+        <v>944912.4479079705</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>19913043.90485379</v>
+        <v>18184524.01771033</v>
       </c>
       <c r="C386" t="n">
-        <v>6067299.396878898</v>
+        <v>6292074.587139362</v>
       </c>
       <c r="D386" t="n">
-        <v>4631831.530851146</v>
+        <v>4063032.750196359</v>
       </c>
       <c r="E386" t="n">
-        <v>1975019.261031373</v>
+        <v>1265196.795886436</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>19830056.41039515</v>
+        <v>18108740.11981089</v>
       </c>
       <c r="C387" t="n">
-        <v>6067060.076919249</v>
+        <v>6291826.401095161</v>
       </c>
       <c r="D387" t="n">
-        <v>4631814.171527747</v>
+        <v>4063017.522634859</v>
       </c>
       <c r="E387" t="n">
-        <v>2479045.461239162</v>
+        <v>1588075.84123443</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>19745816.85513098</v>
+        <v>18031812.84423906</v>
       </c>
       <c r="C388" t="n">
-        <v>6066788.163289826</v>
+        <v>6291544.413883775</v>
       </c>
       <c r="D388" t="n">
-        <v>4631793.61422383</v>
+        <v>4062999.489811664</v>
       </c>
       <c r="E388" t="n">
-        <v>2987061.430317386</v>
+        <v>1913510.731424445</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>19660296.33382855</v>
+        <v>17953715.79483457</v>
       </c>
       <c r="C389" t="n">
-        <v>6066479.623449707</v>
+        <v>6291224.443570763</v>
       </c>
       <c r="D389" t="n">
-        <v>4631769.310618167</v>
+        <v>4062978.170740558</v>
       </c>
       <c r="E389" t="n">
-        <v>3499005.025106404</v>
+        <v>2241461.657565495</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>19573465.31542148</v>
+        <v>17874422.00392796</v>
       </c>
       <c r="C390" t="n">
-        <v>6066129.985216482</v>
+        <v>6290861.852292823</v>
       </c>
       <c r="D390" t="n">
-        <v>4631740.62620526</v>
+        <v>4062953.00883467</v>
       </c>
       <c r="E390" t="n">
-        <v>4014812.749774678</v>
+        <v>2571887.944245342</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>19485293.65345168</v>
+        <v>17793903.94187616</v>
       </c>
       <c r="C391" t="n">
-        <v>6065734.296978933</v>
+        <v>6290451.504996429</v>
       </c>
       <c r="D391" t="n">
-        <v>4631706.828171978</v>
+        <v>4062923.361271887</v>
       </c>
       <c r="E391" t="n">
-        <v>4534419.902296885</v>
+        <v>2904748.143364347</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>19395750.59957257</v>
+        <v>17712133.52939356</v>
       </c>
       <c r="C392" t="n">
-        <v>6065287.085367812</v>
+        <v>6289987.725540474</v>
       </c>
       <c r="D392" t="n">
-        <v>4631667.071813033</v>
+        <v>4062888.487078526</v>
       </c>
       <c r="E392" t="n">
-        <v>5057760.726819023</v>
+        <v>3240000.131740503</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>19304804.820368</v>
+        <v>17629082.15291104</v>
       </c>
       <c r="C393" t="n">
-        <v>6064782.310357115</v>
+        <v>6289464.250134156</v>
       </c>
       <c r="D393" t="n">
-        <v>4631620.38534883</v>
+        <v>4062847.533811599</v>
       </c>
       <c r="E393" t="n">
-        <v>5057754.479824224</v>
+        <v>3239996.129917351</v>
       </c>
       <c r="F393" t="n">
-        <v>527014.0917051135</v>
+        <v>547933.0601303293</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>19212424.41774777</v>
+        <v>17544720.68320105</v>
       </c>
       <c r="C394" t="n">
-        <v>6064213.317787771</v>
+        <v>6288874.178101831</v>
       </c>
       <c r="D394" t="n">
-        <v>4631565.653002695</v>
+        <v>4062799.522714181</v>
       </c>
       <c r="E394" t="n">
-        <v>5057746.913750501</v>
+        <v>3239991.283092604</v>
       </c>
       <c r="F394" t="n">
-        <v>1057629.137866863</v>
+        <v>1099610.008755994</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>19118576.95318586</v>
+        <v>17459019.49751184</v>
       </c>
       <c r="C395" t="n">
-        <v>6063572.78932815</v>
+        <v>6288209.919989699</v>
       </c>
       <c r="D395" t="n">
-        <v>4631501.596188641</v>
+        <v>4062743.332213376</v>
       </c>
       <c r="E395" t="n">
-        <v>5057737.767474005</v>
+        <v>3239985.423990393</v>
       </c>
       <c r="F395" t="n">
-        <v>1591777.449390314</v>
+        <v>1654960.469973373</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>19023229.47607118</v>
+        <v>17371948.50545736</v>
       </c>
       <c r="C396" t="n">
-        <v>6062852.689910971</v>
+        <v>6287463.143055403</v>
       </c>
       <c r="D396" t="n">
-        <v>4631426.752655974</v>
+        <v>4062677.679625983</v>
       </c>
       <c r="E396" t="n">
-        <v>5057726.731973737</v>
+        <v>3239978.354651953</v>
       </c>
       <c r="F396" t="n">
-        <v>2129390.991396263</v>
+        <v>2213913.708369231</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>18926348.55644304</v>
+        <v>17283477.17891113</v>
       </c>
       <c r="C397" t="n">
-        <v>6062044.212714495</v>
+        <v>6286624.714210958</v>
       </c>
       <c r="D397" t="n">
-        <v>4631339.453433251</v>
+        <v>4062601.100933811</v>
       </c>
       <c r="E397" t="n">
-        <v>5057713.442332116</v>
+        <v>3239969.841311184</v>
       </c>
       <c r="F397" t="n">
-        <v>2670401.566549094</v>
+        <v>2776398.819625478</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>18827900.32238346</v>
+        <v>17193574.58615277</v>
       </c>
       <c r="C398" t="n">
-        <v>6061137.721787245</v>
+        <v>6285684.640521871</v>
       </c>
       <c r="D398" t="n">
-        <v>4631237.79741189</v>
+        <v>4062511.928488463</v>
       </c>
       <c r="E398" t="n">
-        <v>5057697.468553706</v>
+        <v>3239959.608513124</v>
       </c>
       <c r="F398" t="n">
-        <v>3214741.00259235</v>
+        <v>3342344.925498655</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>18727850.50233661</v>
+        <v>17102209.43051395</v>
       </c>
       <c r="C399" t="n">
-        <v>6060122.692449675</v>
+        <v>6284632.007400881</v>
       </c>
       <c r="D399" t="n">
-        <v>4631119.623409089</v>
+        <v>4062408.266504989</v>
       </c>
       <c r="E399" t="n">
-        <v>5057678.305056138</v>
+        <v>3239947.332381848</v>
       </c>
       <c r="F399" t="n">
-        <v>3762341.343621397</v>
+        <v>3911681.372684868</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>18626164.4726219</v>
+        <v>17009350.09376724</v>
       </c>
       <c r="C400" t="n">
-        <v>6058987.649643794</v>
+        <v>6283454.914673615</v>
       </c>
       <c r="D400" t="n">
-        <v>4630982.479551165</v>
+        <v>4062287.964205022</v>
       </c>
       <c r="E400" t="n">
-        <v>5057655.358674195</v>
+        <v>3239932.632935881</v>
       </c>
       <c r="F400" t="n">
-        <v>4313135.044592142</v>
+        <v>4484337.935049198</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>18522807.31040037</v>
+        <v>16914964.68449479</v>
       </c>
       <c r="C401" t="n">
-        <v>6057720.10444196</v>
+        <v>6282140.410735238</v>
       </c>
       <c r="D401" t="n">
-        <v>4630823.589822235</v>
+        <v>4062148.586473336</v>
       </c>
       <c r="E401" t="n">
-        <v>5057627.935004801</v>
+        <v>3239915.065340803</v>
       </c>
       <c r="F401" t="n">
-        <v>4867055.16853589</v>
+        <v>5060245.018668693</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>18417743.85234495</v>
+        <v>16819021.09166583</v>
       </c>
       <c r="C402" t="n">
-        <v>6056306.488969423</v>
+        <v>6280674.425062056</v>
       </c>
       <c r="D402" t="n">
-        <v>4630639.817629534</v>
+        <v>4061987.381897448</v>
       </c>
       <c r="E402" t="n">
-        <v>5057595.222907216</v>
+        <v>3239894.109980078</v>
       </c>
       <c r="F402" t="n">
-        <v>5424035.585917864</v>
+        <v>5639333.869104097</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>18310938.75925323</v>
+        <v>16721487.04364081</v>
       </c>
       <c r="C403" t="n">
-        <v>6054732.090041012</v>
+        <v>6279041.699389647</v>
       </c>
       <c r="D403" t="n">
-        <v>4630427.626246231</v>
+        <v>4061801.248068112</v>
       </c>
       <c r="E403" t="n">
-        <v>5057556.276959486</v>
+        <v>3239869.161216666</v>
       </c>
       <c r="F403" t="n">
-        <v>5424030.834373971</v>
+        <v>5639328.928955385</v>
       </c>
       <c r="G403" t="n">
-        <v>559980.3411720397</v>
+        <v>892258.6477640469</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>18202356.58682602</v>
+        <v>16622330.1728062</v>
       </c>
       <c r="C404" t="n">
-        <v>6052980.981860919</v>
+        <v>6277225.717919379</v>
       </c>
       <c r="D404" t="n">
-        <v>4630183.036005345</v>
+        <v>4061586.694029937</v>
       </c>
       <c r="E404" t="n">
-        <v>5057509.997659232</v>
+        <v>3239839.514709642</v>
       </c>
       <c r="F404" t="n">
-        <v>5424025.001363175</v>
+        <v>5639322.8644127</v>
       </c>
       <c r="G404" t="n">
-        <v>1122893.025039771</v>
+        <v>1789189.616922381</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>18091961.86281739</v>
+        <v>16521518.08602753</v>
       </c>
       <c r="C405" t="n">
-        <v>6051035.958185052</v>
+        <v>6275208.63696758</v>
       </c>
       <c r="D405" t="n">
-        <v>4629901.578134996</v>
+        <v>4061339.799785746</v>
       </c>
       <c r="E405" t="n">
-        <v>5057455.109144548</v>
+        <v>3239804.353142216</v>
       </c>
       <c r="F405" t="n">
-        <v>5424017.855801071</v>
+        <v>5639315.435219114</v>
       </c>
       <c r="G405" t="n">
-        <v>1688675.783937289</v>
+        <v>2690693.691735995</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>17979719.17073953</v>
+        <v>16419018.44108854</v>
       </c>
       <c r="C406" t="n">
-        <v>6048878.464397973</v>
+        <v>6272971.214526127</v>
       </c>
       <c r="D406" t="n">
-        <v>4629578.245145789</v>
+        <v>4061056.172776513</v>
       </c>
       <c r="E406" t="n">
-        <v>5057390.134199428</v>
+        <v>3239762.730210228</v>
       </c>
       <c r="F406" t="n">
-        <v>5424009.120752796</v>
+        <v>5639306.353447286</v>
       </c>
       <c r="G406" t="n">
-        <v>2257268.009970719</v>
+        <v>3596674.301105052</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>17865593.2402818</v>
+        <v>16314799.02926138</v>
       </c>
       <c r="C407" t="n">
-        <v>6046488.530010313</v>
+        <v>6270492.740259099</v>
       </c>
       <c r="D407" t="n">
-        <v>4629207.437706221</v>
+        <v>4060730.901280573</v>
       </c>
       <c r="E407" t="n">
-        <v>5057313.36629818</v>
+        <v>3239713.552713784</v>
       </c>
       <c r="F407" t="n">
-        <v>5423998.465120656</v>
+        <v>5639295.274857135</v>
       </c>
       <c r="G407" t="n">
-        <v>2828610.963809879</v>
+        <v>4507037.851252299</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>17749549.044574</v>
+        <v>16208827.86412724</v>
       </c>
       <c r="C408" t="n">
-        <v>6043844.702137413</v>
+        <v>6267750.966516995</v>
       </c>
       <c r="D408" t="n">
-        <v>4628782.907971664</v>
+        <v>4060358.504701931</v>
       </c>
       <c r="E408" t="n">
-        <v>5057222.838435003</v>
+        <v>3239655.560589509</v>
       </c>
       <c r="F408" t="n">
-        <v>5423985.493990192</v>
+        <v>5639281.788858715</v>
       </c>
       <c r="G408" t="n">
-        <v>3402647.98286769</v>
+        <v>5421694.05743092</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>17631551.90439249</v>
+        <v>16101073.27673699</v>
       </c>
       <c r="C409" t="n">
-        <v>6040923.980575187</v>
+        <v>6264722.04100736</v>
       </c>
       <c r="D409" t="n">
-        <v>4628297.699367256</v>
+        <v>4059932.880747937</v>
       </c>
       <c r="E409" t="n">
-        <v>5057116.28847899</v>
+        <v>3239587.304716968</v>
       </c>
       <c r="F409" t="n">
-        <v>5423969.737451128</v>
+        <v>5639265.40688942</v>
       </c>
       <c r="G409" t="n">
-        <v>3979324.688230877</v>
+        <v>6340556.273642725</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>17511567.59937197</v>
+        <v>15991504.01716928</v>
       </c>
       <c r="C410" t="n">
-        <v>6037701.755144158</v>
+        <v>6261380.441817606</v>
       </c>
       <c r="D410" t="n">
-        <v>4627744.082864902</v>
+        <v>4059447.249531619</v>
       </c>
       <c r="E410" t="n">
-        <v>5056991.12079163</v>
+        <v>3239507.122330841</v>
       </c>
       <c r="F410" t="n">
-        <v>5423950.637690708</v>
+        <v>5639245.548995031</v>
       </c>
       <c r="G410" t="n">
-        <v>4558589.189676651</v>
+        <v>7263541.819306605</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>17389562.48624595</v>
+        <v>15880089.36250753</v>
       </c>
       <c r="C411" t="n">
-        <v>6034151.746026682</v>
+        <v>6257698.915541899</v>
       </c>
       <c r="D411" t="n">
-        <v>4627113.489840019</v>
+        <v>4058894.094673744</v>
       </c>
       <c r="E411" t="n">
-        <v>5056844.363843981</v>
+        <v>3239413.109870505</v>
       </c>
       <c r="F411" t="n">
-        <v>5423927.534137267</v>
+        <v>5639221.52838356</v>
       </c>
       <c r="G411" t="n">
-        <v>5140392.288084278</v>
+        <v>8190572.301776053</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>17265503.624097</v>
+        <v>15766799.23121788</v>
       </c>
       <c r="C412" t="n">
-        <v>6030245.94787464</v>
+        <v>6253648.419318225</v>
       </c>
       <c r="D412" t="n">
-        <v>4626396.441644403</v>
+        <v>4058265.101524307</v>
       </c>
       <c r="E412" t="n">
-        <v>5056672.623574841</v>
+        <v>3239303.093101287</v>
       </c>
       <c r="F412" t="n">
-        <v>5423899.646411499</v>
+        <v>5639192.533699811</v>
       </c>
       <c r="G412" t="n">
-        <v>5724687.67451751</v>
+        <v>9121573.933552118</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>17139358.90655039</v>
+        <v>15651604.30386806</v>
       </c>
       <c r="C413" t="n">
-        <v>6025954.578514697</v>
+        <v>6249198.06763332</v>
       </c>
       <c r="D413" t="n">
-        <v>4625582.476088169</v>
+        <v>4057551.092672628</v>
       </c>
       <c r="E413" t="n">
-        <v>5056472.032239889</v>
+        <v>3239174.594347239</v>
       </c>
       <c r="F413" t="n">
-        <v>5423866.054822305</v>
+        <v>5639157.608747042</v>
       </c>
       <c r="G413" t="n">
-        <v>5724683.836661218</v>
+        <v>9121567.818408044</v>
       </c>
       <c r="H413" t="n">
-        <v>586748.2885618629</v>
+        <v>890520.5755720711</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>17011097.20079577</v>
+        <v>15534476.15008144</v>
       </c>
       <c r="C414" t="n">
-        <v>6021246.033124436</v>
+        <v>6244315.084801174</v>
       </c>
       <c r="D414" t="n">
-        <v>4624660.071085511</v>
+        <v>4056741.960969589</v>
       </c>
       <c r="E414" t="n">
-        <v>5056238.192515697</v>
+        <v>3239024.79668418</v>
       </c>
       <c r="F414" t="n">
-        <v>5423825.678123366</v>
+        <v>5639115.629360616</v>
       </c>
       <c r="G414" t="n">
-        <v>5724679.074044294</v>
+        <v>9121560.22977354</v>
       </c>
       <c r="H414" t="n">
-        <v>1175906.617709188</v>
+        <v>1784698.921897217</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>16880688.49326763</v>
+        <v>15415387.36157201</v>
       </c>
       <c r="C415" t="n">
-        <v>6016086.844794697</v>
+        <v>6238964.764064321</v>
       </c>
       <c r="D415" t="n">
-        <v>4623616.565786503</v>
+        <v>4055826.600344611</v>
       </c>
       <c r="E415" t="n">
-        <v>5055966.116642369</v>
+        <v>3238850.504954492</v>
       </c>
       <c r="F415" t="n">
-        <v>5423777.248226236</v>
+        <v>5639065.277117373</v>
       </c>
       <c r="G415" t="n">
-        <v>5724673.177273349</v>
+        <v>9121550.834006436</v>
       </c>
       <c r="H415" t="n">
-        <v>1767438.708111446</v>
+        <v>2682479.977050357</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>16748104.0417601</v>
+        <v>15294311.69105506</v>
       </c>
       <c r="C416" t="n">
-        <v>6010441.6524299</v>
+        <v>6233110.434304967</v>
       </c>
       <c r="D416" t="n">
-        <v>4622438.079589517</v>
+        <v>4054792.83476352</v>
       </c>
       <c r="E416" t="n">
-        <v>5055650.160415052</v>
+        <v>3238648.103482097</v>
       </c>
       <c r="F416" t="n">
-        <v>5423719.281546222</v>
+        <v>5639005.009544143</v>
       </c>
       <c r="G416" t="n">
-        <v>5724665.892864021</v>
+        <v>9121539.227211094</v>
       </c>
       <c r="H416" t="n">
-        <v>2361311.962094604</v>
+        <v>3583814.266836158</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>16613316.53369169</v>
+        <v>15171224.19677399</v>
       </c>
       <c r="C417" t="n">
-        <v>6004273.176968343</v>
+        <v>6226713.435384322</v>
       </c>
       <c r="D417" t="n">
-        <v>4621109.429506067</v>
+        <v>4053627.345741164</v>
       </c>
       <c r="E417" t="n">
-        <v>5055283.951868302</v>
+        <v>3238413.510387682</v>
       </c>
       <c r="F417" t="n">
-        <v>5423650.046639133</v>
+        <v>5638933.026469867</v>
       </c>
       <c r="G417" t="n">
-        <v>5724656.914737748</v>
+        <v>9121524.921689596</v>
       </c>
       <c r="H417" t="n">
-        <v>2957497.642494842</v>
+        <v>4488658.176239178</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>16476300.25017506</v>
+        <v>15046101.3923283</v>
       </c>
       <c r="C418" t="n">
-        <v>5997542.20692715</v>
+        <v>6219733.103152033</v>
       </c>
       <c r="D418" t="n">
-        <v>4619614.046431335</v>
+        <v>4052315.5988941</v>
       </c>
       <c r="E418" t="n">
-        <v>5054860.314539016</v>
+        <v>3238142.128430956</v>
       </c>
       <c r="F418" t="n">
-        <v>5423567.527770681</v>
+        <v>5638847.232148952</v>
       </c>
       <c r="G418" t="n">
-        <v>5724645.874252431</v>
+        <v>9121507.330056865</v>
       </c>
       <c r="H418" t="n">
-        <v>3555971.044522709</v>
+        <v>5396974.21026582</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>16337031.23548283</v>
+        <v>14918921.40142916</v>
       </c>
       <c r="C419" t="n">
-        <v>5990207.59429086</v>
+        <v>6212126.765182451</v>
       </c>
       <c r="D419" t="n">
-        <v>4617933.890958637</v>
+        <v>4050841.77009322</v>
       </c>
       <c r="E419" t="n">
-        <v>5054371.185243938</v>
+        <v>3237828.792338941</v>
       </c>
       <c r="F419" t="n">
-        <v>5423469.384046759</v>
+        <v>5638745.19276931</v>
       </c>
       <c r="G419" t="n">
-        <v>5724632.328550739</v>
+        <v>9121485.746675117</v>
       </c>
       <c r="H419" t="n">
-        <v>4156711.659838479</v>
+        <v>6308731.242965056</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>16195487.47143561</v>
+        <v>14789664.11714995</v>
       </c>
       <c r="C420" t="n">
-        <v>5982226.261767338</v>
+        <v>6203849.748299356</v>
       </c>
       <c r="D420" t="n">
-        <v>4616049.369463929</v>
+        <v>4049188.671853259</v>
       </c>
       <c r="E420" t="n">
-        <v>5053807.526367094</v>
+        <v>3237467.712617326</v>
       </c>
       <c r="F420" t="n">
-        <v>5423352.903722704</v>
+        <v>5638624.088947972</v>
       </c>
       <c r="G420" t="n">
-        <v>5724615.746985125</v>
+        <v>9121459.326023847</v>
       </c>
       <c r="H420" t="n">
-        <v>4759703.332008299</v>
+        <v>7223904.753367582</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>16051649.0561714</v>
+        <v>14658311.36517798</v>
       </c>
       <c r="C421" t="n">
-        <v>5973553.222429063</v>
+        <v>6194855.398944898</v>
       </c>
       <c r="D421" t="n">
-        <v>4613939.251276085</v>
+        <v>4047337.680674738</v>
       </c>
       <c r="E421" t="n">
-        <v>5053159.232721499</v>
+        <v>3237052.415886107</v>
       </c>
       <c r="F421" t="n">
-        <v>5423214.953303713</v>
+        <v>5638480.662811152</v>
       </c>
       <c r="G421" t="n">
-        <v>5724595.495352676</v>
+        <v>9121427.057580017</v>
       </c>
       <c r="H421" t="n">
-        <v>5364934.402478078</v>
+        <v>8142477.047033545</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>15905498.3866892</v>
+        <v>14524847.07051252</v>
       </c>
       <c r="C422" t="n">
-        <v>5964141.612740585</v>
+        <v>6185095.117430619</v>
       </c>
       <c r="D422" t="n">
-        <v>4611580.587839128</v>
+        <v>4045268.666133251</v>
       </c>
       <c r="E422" t="n">
-        <v>5052415.033128397</v>
+        <v>3236575.68183127</v>
       </c>
       <c r="F422" t="n">
-        <v>5423051.921048048</v>
+        <v>5638311.159254882</v>
       </c>
       <c r="G422" t="n">
-        <v>5724570.817645604</v>
+        <v>9121387.736739758</v>
       </c>
       <c r="H422" t="n">
-        <v>5972397.846165989</v>
+        <v>9064437.461844223</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>15757020.34449123</v>
+        <v>14389257.4269928</v>
       </c>
       <c r="C423" t="n">
-        <v>5953942.739943491</v>
+        <v>6174518.407077895</v>
       </c>
       <c r="D423" t="n">
-        <v>4608948.634862434</v>
+        <v>4042959.922589784</v>
       </c>
       <c r="E423" t="n">
-        <v>5051562.386946302</v>
+        <v>3236029.476921326</v>
       </c>
       <c r="F423" t="n">
-        <v>5422859.654490311</v>
+        <v>5638111.260988405</v>
       </c>
       <c r="G423" t="n">
-        <v>5724540.814995086</v>
+        <v>9121339.931268012</v>
       </c>
       <c r="H423" t="n">
-        <v>6582091.395738181</v>
+        <v>9989782.556617962</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>15606202.48358189</v>
+        <v>14251531.06897794</v>
       </c>
       <c r="C424" t="n">
-        <v>5942906.144727549</v>
+        <v>6163072.939210838</v>
       </c>
       <c r="D424" t="n">
-        <v>4606016.778542967</v>
+        <v>4040388.104473016</v>
       </c>
       <c r="E424" t="n">
-        <v>5050587.375881449</v>
+        <v>3235404.885101112</v>
       </c>
       <c r="F424" t="n">
-        <v>5422633.391615065</v>
+        <v>5637876.01697581</v>
       </c>
       <c r="G424" t="n">
-        <v>5724504.421457429</v>
+        <v>9121281.94271679</v>
       </c>
       <c r="H424" t="n">
-        <v>7194017.653590579</v>
+        <v>10918516.28106738</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>15453035.22001534</v>
+        <v>14111659.24444115</v>
       </c>
       <c r="C425" t="n">
-        <v>5930979.680060136</v>
+        <v>6150704.634906152</v>
       </c>
       <c r="D425" t="n">
-        <v>4602756.467028043</v>
+        <v>4037528.166158604</v>
       </c>
       <c r="E425" t="n">
-        <v>5049474.591520623</v>
+        <v>3234692.035745357</v>
       </c>
       <c r="F425" t="n">
-        <v>5422367.685332501</v>
+        <v>5637599.763913903</v>
       </c>
       <c r="G425" t="n">
-        <v>5724460.376262765</v>
+        <v>9121211.762206974</v>
       </c>
       <c r="H425" t="n">
-        <v>7808184.190519403</v>
+        <v>11850650.12555374</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>15297512.0221193</v>
+        <v>13969635.98868154</v>
       </c>
       <c r="C426" t="n">
-        <v>5918109.606975264</v>
+        <v>6137357.764330816</v>
       </c>
       <c r="D426" t="n">
-        <v>4599137.148366566</v>
+        <v>4034353.307540144</v>
       </c>
       <c r="E426" t="n">
-        <v>5048207.019146543</v>
+        <v>3233880.029230846</v>
       </c>
       <c r="F426" t="n">
-        <v>5422056.320938967</v>
+        <v>5637276.040416468</v>
       </c>
       <c r="G426" t="n">
-        <v>5724407.19211819</v>
+        <v>9121127.019923301</v>
       </c>
       <c r="H426" t="n">
-        <v>8424603.630016338</v>
+        <v>12786203.24902357</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>15139629.60046089</v>
+        <v>13825458.29780013</v>
       </c>
       <c r="C427" t="n">
-        <v>5904240.708037569</v>
+        <v>6122975.064409602</v>
       </c>
       <c r="D427" t="n">
-        <v>4595126.216269055</v>
+        <v>4030834.926449975</v>
       </c>
       <c r="E427" t="n">
-        <v>5046765.918524358</v>
+        <v>3232956.860568285</v>
       </c>
       <c r="F427" t="n">
-        <v>5421692.226286976</v>
+        <v>5636897.493618607</v>
       </c>
       <c r="G427" t="n">
-        <v>5724343.119130059</v>
+        <v>9121024.927629083</v>
       </c>
       <c r="H427" t="n">
-        <v>9043293.717079274</v>
+        <v>13725202.58344417</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>14979388.09656141</v>
+        <v>13679126.30103376</v>
       </c>
       <c r="C428" t="n">
-        <v>5889316.41909593</v>
+        <v>6107497.875459751</v>
       </c>
       <c r="D428" t="n">
-        <v>4590688.965060449</v>
+        <v>4026942.579143875</v>
       </c>
       <c r="E428" t="n">
-        <v>5045130.702484664</v>
+        <v>3231909.341622611</v>
       </c>
       <c r="F428" t="n">
-        <v>5421267.37444308</v>
+        <v>5636455.777970786</v>
       </c>
       <c r="G428" t="n">
-        <v>5724266.103885051</v>
+        <v>9120902.213466968</v>
       </c>
       <c r="H428" t="n">
-        <v>9664277.370380402</v>
+        <v>14667682.91298034</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>14816791.26931251</v>
+        <v>13530643.43098944</v>
       </c>
       <c r="C429" t="n">
-        <v>5873278.979825214</v>
+        <v>6090866.297309844</v>
       </c>
       <c r="D429" t="n">
-        <v>4585788.555262448</v>
+        <v>4022643.950109972</v>
       </c>
       <c r="E429" t="n">
-        <v>5043278.814272499</v>
+        <v>3230723.022542791</v>
       </c>
       <c r="F429" t="n">
-        <v>5420772.678678723</v>
+        <v>5635941.446061518</v>
       </c>
       <c r="G429" t="n">
-        <v>5724173.743207217</v>
+        <v>9120755.048276601</v>
       </c>
       <c r="H429" t="n">
-        <v>10287582.71658259</v>
+        <v>15613686.92607701</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>14651846.67799517</v>
+        <v>13380016.59077691</v>
       </c>
       <c r="C430" t="n">
-        <v>5856069.603423595</v>
+        <v>6073019.365283904</v>
       </c>
       <c r="D430" t="n">
-        <v>4580385.991282295</v>
+        <v>4017904.832497385</v>
       </c>
       <c r="E430" t="n">
-        <v>5041185.604781877</v>
+        <v>3229382.11311831</v>
       </c>
       <c r="F430" t="n">
-        <v>5420197.879720017</v>
+        <v>5635343.831391701</v>
       </c>
       <c r="G430" t="n">
-        <v>5724063.232089933</v>
+        <v>9120578.962630693</v>
       </c>
       <c r="H430" t="n">
-        <v>10913243.10554446</v>
+        <v>16563265.23853634</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>14484565.86075899</v>
+        <v>13227256.31699515</v>
       </c>
       <c r="C431" t="n">
-        <v>5837628.665687129</v>
+        <v>6053895.24628059</v>
       </c>
       <c r="D431" t="n">
-        <v>4574440.112710068</v>
+        <v>4012689.120482227</v>
       </c>
       <c r="E431" t="n">
-        <v>5038824.210949625</v>
+        <v>3227869.404878273</v>
       </c>
       <c r="F431" t="n">
-        <v>5419531.425278021</v>
+        <v>5634650.923123046</v>
       </c>
       <c r="G431" t="n">
-        <v>5723931.305288377</v>
+        <v>9120368.753769942</v>
       </c>
       <c r="H431" t="n">
-        <v>11541297.10510137</v>
+        <v>17516476.38559669</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>14314964.50737932</v>
+        <v>13072376.9374937</v>
       </c>
       <c r="C432" t="n">
-        <v>5817895.913523286</v>
+        <v>6033431.455011561</v>
       </c>
       <c r="D432" t="n">
-        <v>4567907.600735078</v>
+        <v>4006958.814896057</v>
       </c>
       <c r="E432" t="n">
-        <v>5036165.436738705</v>
+        <v>3226166.194849382</v>
       </c>
       <c r="F432" t="n">
-        <v>5418760.341992486</v>
+        <v>5633849.232938838</v>
       </c>
       <c r="G432" t="n">
-        <v>5723774.172051379</v>
+        <v>9120118.381606396</v>
       </c>
       <c r="H432" t="n">
-        <v>12171788.47405672</v>
+        <v>18473386.78094102</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>14143062.62507883</v>
+        <v>12915396.72280032</v>
       </c>
       <c r="C433" t="n">
-        <v>5796810.692792088</v>
+        <v>6011565.090283418</v>
       </c>
       <c r="D433" t="n">
-        <v>4560743.001181731</v>
+        <v>4000674.04343289</v>
       </c>
       <c r="E433" t="n">
-        <v>5033177.63829758</v>
+        <v>3224252.211989036</v>
       </c>
       <c r="F433" t="n">
-        <v>5417870.100049546</v>
+        <v>5632923.654287852</v>
       </c>
       <c r="G433" t="n">
-        <v>5723587.443472475</v>
+        <v>9119820.852966439</v>
       </c>
       <c r="H433" t="n">
-        <v>12804766.11196652</v>
+        <v>19434070.64048373</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>13968884.69617481</v>
+        <v>12756338.03008392</v>
       </c>
       <c r="C434" t="n">
-        <v>5774312.195177963</v>
+        <v>5988233.091015428</v>
       </c>
       <c r="D434" t="n">
-        <v>4552898.765634449</v>
+        <v>3993793.096723889</v>
       </c>
       <c r="E434" t="n">
-        <v>5029826.615035616</v>
+        <v>3222105.547408275</v>
       </c>
       <c r="F434" t="n">
-        <v>5416844.470877808</v>
+        <v>5631857.314431908</v>
       </c>
       <c r="G434" t="n">
-        <v>5723366.051950439</v>
+        <v>9119468.093261223</v>
       </c>
       <c r="H434" t="n">
-        <v>13440283.98424749</v>
+        <v>20398609.86870565</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>13792459.82629747</v>
+        <v>12595227.43850712</v>
       </c>
       <c r="C435" t="n">
-        <v>5750339.72359929</v>
+        <v>5963372.511481693</v>
       </c>
       <c r="D435" t="n">
-        <v>4544325.312068282</v>
+        <v>3986272.481522406</v>
       </c>
       <c r="E435" t="n">
-        <v>5026075.508502384</v>
+        <v>3219702.589593881</v>
       </c>
       <c r="F435" t="n">
-        <v>5415665.378487709</v>
+        <v>5630631.419884397</v>
       </c>
       <c r="G435" t="n">
-        <v>5723104.162270986</v>
+        <v>9119050.80480648</v>
       </c>
       <c r="H435" t="n">
-        <v>14078401.02109155</v>
+        <v>21367093.90523436</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>13613821.88191698</v>
+        <v>12432095.87481536</v>
       </c>
       <c r="C436" t="n">
-        <v>5724832.975457</v>
+        <v>5936920.815053261</v>
       </c>
       <c r="D436" t="n">
-        <v>4534971.1063253</v>
+        <v>3978066.992174907</v>
       </c>
       <c r="E436" t="n">
-        <v>5021884.711097558</v>
+        <v>3217017.96592797</v>
       </c>
       <c r="F436" t="n">
-        <v>5414312.745195544</v>
+        <v>5629225.096010565</v>
       </c>
       <c r="G436" t="n">
-        <v>5722795.073855421</v>
+        <v>9118558.311067984</v>
       </c>
       <c r="H436" t="n">
-        <v>14719180.98862168</v>
+        <v>22339619.52929476</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>13433009.61591865</v>
+        <v>12266978.72801181</v>
       </c>
       <c r="C437" t="n">
-        <v>5697732.342810578</v>
+        <v>5908816.185494731</v>
       </c>
       <c r="D437" t="n">
-        <v>4524782.765675372</v>
+        <v>3969129.801464257</v>
       </c>
       <c r="E437" t="n">
-        <v>5017211.78676461</v>
+        <v>3214024.491884392</v>
       </c>
       <c r="F437" t="n">
-        <v>5412764.332665285</v>
+        <v>5627615.221759757</v>
       </c>
       <c r="G437" t="n">
-        <v>5722431.113770558</v>
+        <v>9117978.38618619</v>
       </c>
       <c r="H437" t="n">
-        <v>15362692.33068491</v>
+        <v>23316290.61959462</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>13250066.77997718</v>
+        <v>12099915.9519771</v>
       </c>
       <c r="C438" t="n">
-        <v>5668979.228351465</v>
+        <v>5878997.854643555</v>
       </c>
       <c r="D438" t="n">
-        <v>4513705.185572682</v>
+        <v>3959412.571800275</v>
       </c>
       <c r="E438" t="n">
-        <v>5012011.405931956</v>
+        <v>3210693.129352044</v>
       </c>
       <c r="F438" t="n">
-        <v>5410995.579407319</v>
+        <v>5625776.260713921</v>
       </c>
       <c r="G438" t="n">
-        <v>5722003.520158799</v>
+        <v>9117297.069236699</v>
       </c>
       <c r="H438" t="n">
-        <v>16009007.97964018</v>
+        <v>24297217.86715353</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>13065042.22250294</v>
+        <v>11930952.1549136</v>
       </c>
       <c r="C439" t="n">
-        <v>5638516.375822392</v>
+        <v>5847406.445070366</v>
       </c>
       <c r="D439" t="n">
-        <v>4501681.69056579</v>
+        <v>3948865.587597711</v>
       </c>
       <c r="E439" t="n">
-        <v>5006235.297055773</v>
+        <v>3206992.955593222</v>
       </c>
       <c r="F439" t="n">
-        <v>5408979.436091529</v>
+        <v>5623680.089863709</v>
       </c>
       <c r="G439" t="n">
-        <v>5721502.315829776</v>
+        <v>9116498.46281432</v>
       </c>
       <c r="H439" t="n">
-        <v>16658205.13447337</v>
+        <v>25282518.43854301</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>12877989.97096553</v>
+        <v>11760136.67452288</v>
       </c>
       <c r="C440" t="n">
-        <v>5606288.213309021</v>
+        <v>5813984.326088584</v>
       </c>
       <c r="D440" t="n">
-        <v>4488654.210138788</v>
+        <v>3937437.909523737</v>
       </c>
       <c r="E440" t="n">
-        <v>4999832.217185644</v>
+        <v>3202891.144387967</v>
       </c>
       <c r="F440" t="n">
-        <v>5406686.200260757</v>
+        <v>5621295.827761173</v>
       </c>
       <c r="G440" t="n">
-        <v>5720916.171856658</v>
+        <v>9115564.515690828</v>
       </c>
       <c r="H440" t="n">
-        <v>17310365.00455073</v>
+        <v>26272315.58697572</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>12688969.29744287</v>
+        <v>11587523.63786511</v>
       </c>
       <c r="C441" t="n">
-        <v>5572241.207610483</v>
+        <v>5778675.981253292</v>
       </c>
       <c r="D441" t="n">
-        <v>4474563.480054704</v>
+        <v>3925077.55111595</v>
       </c>
       <c r="E441" t="n">
-        <v>4992747.944013383</v>
+        <v>3198352.960940557</v>
       </c>
       <c r="F441" t="n">
-        <v>5404083.352266835</v>
+        <v>5618589.663943524</v>
       </c>
       <c r="G441" t="n">
-        <v>5720232.261142859</v>
+        <v>9114474.789491855</v>
       </c>
       <c r="H441" t="n">
-        <v>17965572.51731635</v>
+        <v>27266738.20867147</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>12498044.76629898</v>
+        <v>11413172.00489804</v>
       </c>
       <c r="C442" t="n">
-        <v>5536324.227680239</v>
+        <v>5741428.385266496</v>
       </c>
       <c r="D442" t="n">
-        <v>4459349.269540035</v>
+        <v>3911731.678068162</v>
       </c>
       <c r="E442" t="n">
-        <v>4984925.291873222</v>
+        <v>3193341.772129214</v>
       </c>
       <c r="F442" t="n">
-        <v>5401135.394491762</v>
+        <v>5615524.691772467</v>
       </c>
       <c r="G442" t="n">
-        <v>5719436.102069445</v>
+        <v>9113206.209568564</v>
       </c>
       <c r="H442" t="n">
-        <v>18623915.98824501</v>
+        <v>28265920.34193761</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>12305286.26295769</v>
+        <v>11237145.59475322</v>
       </c>
       <c r="C443" t="n">
-        <v>5498488.914921664</v>
+        <v>5702191.387991041</v>
       </c>
       <c r="D443" t="n">
-        <v>4442950.634392749</v>
+        <v>3897346.830256198</v>
       </c>
       <c r="E443" t="n">
-        <v>4976304.15413409</v>
+        <v>3187819.073662595</v>
       </c>
       <c r="F443" t="n">
-        <v>5397803.696157395</v>
+        <v>5612060.747083863</v>
       </c>
       <c r="G443" t="n">
-        <v>5718511.392501009</v>
+        <v>9111732.800506772</v>
       </c>
       <c r="H443" t="n">
-        <v>19285486.75138343</v>
+        <v>29270000.60643347</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>12110769.00281671</v>
+        <v>11059513.09387621</v>
       </c>
       <c r="C444" t="n">
-        <v>5458690.057926521</v>
+        <v>5660918.103072029</v>
       </c>
       <c r="D444" t="n">
-        <v>4425306.195816608</v>
+        <v>3881869.166330776</v>
       </c>
       <c r="E444" t="n">
-        <v>4966821.574358868</v>
+        <v>3181744.535664375</v>
       </c>
       <c r="F444" t="n">
-        <v>5394046.346263907</v>
+        <v>5608154.255288819</v>
       </c>
       <c r="G444" t="n">
-        <v>5717439.834618757</v>
+        <v>9110025.40702039</v>
       </c>
       <c r="H444" t="n">
-        <v>19950378.74885496</v>
+        <v>30279121.58015265</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>11914573.51943261</v>
+        <v>10880348.04523716</v>
       </c>
       <c r="C445" t="n">
-        <v>5416885.969062378</v>
+        <v>5617565.298475656</v>
       </c>
       <c r="D445" t="n">
-        <v>4406354.44448465</v>
+        <v>3865244.730441336</v>
       </c>
       <c r="E445" t="n">
-        <v>4956411.848497692</v>
+        <v>3175076.068138271</v>
       </c>
       <c r="F445" t="n">
-        <v>5389818.017425222</v>
+        <v>5603758.089804284</v>
       </c>
       <c r="G445" t="n">
-        <v>5716200.951264172</v>
+        <v>9108051.401318001</v>
       </c>
       <c r="H445" t="n">
-        <v>20618688.07776404</v>
+        <v>31293429.11175024</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>11716785.63120472</v>
+        <v>10699728.8179067</v>
       </c>
       <c r="C446" t="n">
-        <v>5373038.860149909</v>
+        <v>5572093.786084227</v>
       </c>
       <c r="D446" t="n">
-        <v>4386034.069016759</v>
+        <v>3847419.740375872</v>
       </c>
       <c r="E446" t="n">
-        <v>4945006.660230528</v>
+        <v>3167769.907668443</v>
       </c>
       <c r="F446" t="n">
-        <v>5385069.843583417</v>
+        <v>5598821.444913531</v>
       </c>
       <c r="G446" t="n">
-        <v>5714771.894714389</v>
+        <v>9105774.378410341</v>
       </c>
       <c r="H446" t="n">
-        <v>21290512.49302357</v>
+        <v>32313071.56597312</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>11517496.3858934</v>
+        <v>10517738.55639015</v>
       </c>
       <c r="C447" t="n">
-        <v>5327115.214326002</v>
+        <v>5524468.807335687</v>
       </c>
       <c r="D447" t="n">
-        <v>4364284.307723765</v>
+        <v>3828340.896110103</v>
       </c>
       <c r="E447" t="n">
-        <v>4932535.251375739</v>
+        <v>3159780.726583177</v>
       </c>
       <c r="F447" t="n">
-        <v>5379749.314777699</v>
+        <v>5593289.726358158</v>
       </c>
       <c r="G447" t="n">
-        <v>5713127.24907059</v>
+        <v>9103153.84124092</v>
       </c>
       <c r="H447" t="n">
-        <v>21965950.86474212</v>
+        <v>33338199.00012471</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>11316801.98242439</v>
+        <v>10334465.10921954</v>
       </c>
       <c r="C448" t="n">
-        <v>5279086.151066788</v>
+        <v>5474660.411769636</v>
       </c>
       <c r="D448" t="n">
-        <v>4341045.3221271</v>
+        <v>3807955.707458122</v>
       </c>
       <c r="E448" t="n">
-        <v>4918924.629035085</v>
+        <v>3151061.765651918</v>
       </c>
       <c r="F448" t="n">
-        <v>5373800.1923111</v>
+        <v>5587104.463137457</v>
       </c>
       <c r="G448" t="n">
-        <v>5711238.827721502</v>
+        <v>9100144.877969425</v>
       </c>
       <c r="H448" t="n">
-        <v>22645102.58895161</v>
+        <v>34368962.26971375</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>11114803.66955681</v>
+        <v>10150000.9364176</v>
       </c>
       <c r="C449" t="n">
-        <v>5228927.781248381</v>
+        <v>5422643.825242015</v>
       </c>
       <c r="D449" t="n">
-        <v>4316258.590413008</v>
+        <v>3786212.839209591</v>
       </c>
       <c r="E449" t="n">
-        <v>4904099.810850739</v>
+        <v>3141564.991196848</v>
       </c>
       <c r="F449" t="n">
-        <v>5367162.447792776</v>
+        <v>5580203.24413111</v>
       </c>
       <c r="G449" t="n">
-        <v>5709075.467643238</v>
+        <v>9096697.834214248</v>
       </c>
       <c r="H449" t="n">
-        <v>23328066.9506353</v>
+        <v>35405512.06170798</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>10911607.62112555</v>
+        <v>9964442.995569522</v>
       </c>
       <c r="C450" t="n">
-        <v>5176621.549055436</v>
+        <v>5368399.804500341</v>
       </c>
       <c r="D450" t="n">
-        <v>4289867.318628281</v>
+        <v>3763062.471829763</v>
       </c>
       <c r="E450" t="n">
-        <v>4887984.109406653</v>
+        <v>3131241.27728032</v>
       </c>
       <c r="F450" t="n">
-        <v>5359772.229629551</v>
+        <v>5572519.683260649</v>
       </c>
       <c r="G450" t="n">
-        <v>5706602.822611129</v>
+        <v>9092757.983561397</v>
       </c>
       <c r="H450" t="n">
-        <v>24014942.43822745</v>
+        <v>36447997.85413553</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>10707324.7877094</v>
+        <v>9777892.606366774</v>
       </c>
       <c r="C451" t="n">
-        <v>5122154.557510449</v>
+        <v>5311914.974772895</v>
       </c>
       <c r="D451" t="n">
-        <v>4261816.867075478</v>
+        <v>3738456.675492457</v>
       </c>
       <c r="E451" t="n">
-        <v>4870499.456415907</v>
+        <v>3120040.613379186</v>
       </c>
       <c r="F451" t="n">
-        <v>5351561.860590188</v>
+        <v>5563983.416957063</v>
       </c>
       <c r="G451" t="n">
-        <v>5703783.15772496</v>
+        <v>9088265.200166151</v>
       </c>
       <c r="H451" t="n">
-        <v>24705826.00901313</v>
+        <v>37496566.80116616</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>10502070.72472292</v>
+        <v>9590455.293621195</v>
       </c>
       <c r="C452" t="n">
-        <v>5065519.874392234</v>
+        <v>5253182.147020548</v>
       </c>
       <c r="D452" t="n">
-        <v>4232055.189024885</v>
+        <v>3712349.794917261</v>
       </c>
       <c r="E452" t="n">
-        <v>4851566.766899775</v>
+        <v>3107912.337677807</v>
       </c>
       <c r="F452" t="n">
-        <v>5342459.870063791</v>
+        <v>5554520.137699633</v>
       </c>
       <c r="G452" t="n">
-        <v>5700575.147981304</v>
+        <v>9083153.637803271</v>
       </c>
       <c r="H452" t="n">
-        <v>25400812.30515086</v>
+        <v>38551362.54325211</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1523140.811580848</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1524920.616821908</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1526725.457697746</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1528555.681583731</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1530411.64040573</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1532293.690683473</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1534202.193573487</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1536137.514911539</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1538100.025254594</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1540090.099922221</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1542108.119037422</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1544154.467566875</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1546229.53536052</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1548333.717190508</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1550467.412789448</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1552631.02688796</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1554824.969251497</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1557049.654716425</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1559305.503225358</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1561592.939861729</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1563912.3948836</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1566264.303756712</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1568649.107186788</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1571067.251151089</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1573519.186929257</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1576005.37113347</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1578526.265737926</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1581082.338107721</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1583674.06102715</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1586301.912727497</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1588966.376914382</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1591667.942794729</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1594407.105103463</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1597184.36412999</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1600000.225744611</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1602855.201424955</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1605749.808282555</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1608684.569089737</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1611660.012306927</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1614676.672110568</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1617735.088421807</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1620835.806936136</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1623979.379154186</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1627166.362413881</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1630397.31992418</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1633672.82080061</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1636993.440102884</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1640359.758874817</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1643772.364186827</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1647231.849181294</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1650738.813121074</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1654293.86144147</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1657897.605805944</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1661550.664165941</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1665253.660825094</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1669007.226508197</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1672811.998435263</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1676668.620401032</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1680577.742860256</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1684540.023019174</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1688556.12493349</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1692626.719613248</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1696752.485134963</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>1700934.106761389</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>1705172.277069251</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>1709467.696085359</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>1713821.071431419</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>1718233.118477904</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>1722704.560507348</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>1727236.128887369</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>1731828.563253767</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1736482.611704002</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>1741199.031001337</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>1745978.586789964</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>1750822.05382133</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>1755730.216191936</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1760703.867592835</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1765743.811571004</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1770850.8618028</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1776025.842379616</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1781269.588105879</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1786582.944809481</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1791966.769664689</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1797421.931527586</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1802949.311284024</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1808549.802210034</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1814224.310344655</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1819973.754875047</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1825799.068533723</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1831701.19800774</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1837681.104359611</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1843739.763459647</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1849878.166429458</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1856097.320096243</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1862398.247457469</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1868781.988155541</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1875249.598961966</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1881802.154270521</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1888440.746598874</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1895166.487098069</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1901980.506069266</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1908883.953487082</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1915877.999528834</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1922963.835108973</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1930142.672417974</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1937415.745464887</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1944784.31062275</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1952249.647176072</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1959813.057869485</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>1967475.869456779</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>1975239.433249397</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>1983105.125663497</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>1991074.348764756</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>1999148.530809942</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>2007329.126784421</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>2015617.61893467</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>2024015.517294928</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>2032524.36020712</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>2041145.714833165</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2049881.177658867</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2058732.374988557</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2067700.963429682</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2076788.630366613</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2085997.094422906</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2095328.105911397</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2104783.447271411</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2114364.933492548</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2124074.412524468</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2133913.765672218</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2143884.9079766</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2153989.788579286</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2164230.391072315</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2174608.733831725</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2185126.870335187</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2195786.889463479</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2206590.915785803</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2217541.109828999</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2228639.668330736</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2239888.824476913</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2251290.848123539</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2262848.046003457</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2274562.761918347</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2286437.37691654</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2298474.309457256</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2310676.015561934</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2323044.98895344</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2335583.76118402</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2348294.901752891</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2361181.018214512</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2374244.756278585</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2387488.799903019</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2400915.871380991</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2414528.731423482</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2428330.17923863</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2442323.05260934</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2456510.227970646</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2470894.620488378</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2485479.184140748</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2500266.911804522</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2515260.835347461</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2530464.025728815</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2545879.593109628</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2561510.686974726</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>2577360.496268167</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>2593432.249544135</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>2609729.215135102</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>2626254.701339238</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>2643012.056628959</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>2660004.669882628</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>2677235.970641297</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>2694709.429392488</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>2712428.557882971</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>2730396.909462459</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>2748618.07946021</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>2767095.705596419</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>2785833.468430331</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>2804835.091846989</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>2824104.343584465</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>2843645.035803436</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>2863461.025700907</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>2883556.21616992</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>2903934.556506969</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>2924600.043168859</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>2945556.720580719</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>2966808.681996835</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>2988360.070415889</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3010215.079552257</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3032377.954864846</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3054852.994645055</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3077644.551165283</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3100757.031889453</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3124194.900746968</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3147962.679471449</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3172064.949005579</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3196506.350973432</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3221291.589221467</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3246425.431429497</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3271912.710792841</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3297758.32777683</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3323967.25194486</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3350544.523861144</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3377495.257069278</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3404824.640147563</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3432537.938842716</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>3460640.498282523</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>3489137.745268741</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>3518035.190651252</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>3547338.431784607</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>3577053.155067962</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>3607185.138569532</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>3637740.2547366</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>3668724.473192161</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>3700143.863619284</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>3732004.598734273</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>3764312.957349734</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>3797075.327528607</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>3830298.209830346</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>3863988.220650262</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>3898152.095653261</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>3932796.693303062</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>3967928.998487979</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4003556.126244542</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4039685.325579969</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4076323.983394753</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4113479.628506384</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4151159.935775481</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4189372.73033535</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4228125.991926123</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4267427.859334578</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4307286.634940684</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>4347710.789371883</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>4388708.966266135</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>4430289.987144609</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>4472462.856394948</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>4515236.766365861</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>4558621.102573805</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>4602625.449022363</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>4647259.593634862</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>4692533.533800654</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>4738457.48203528</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>4785041.871754756</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>4832297.363163855</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>4880234.849258218</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>4928865.46193991</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>4978200.578245765</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5028251.826687687</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5079031.093703834</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5130550.53021922</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5182822.558314128</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5235859.877998318</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5289675.474088607</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5344282.623187194</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5399694.900757582</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5455926.188294474</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5512990.680583716</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5570902.893047829</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5629677.669171998</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5689330.188005095</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5749875.97172958</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5811330.893293491</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>5873711.184097228</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>5937033.441727032</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6001314.637726353</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>6066572.125395734</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>6132823.647610665</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>6200087.344646528</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>6268381.761998575</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>6337725.858183937</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>6408139.012512025</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>6479641.032808461</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>6552252.163076745</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>6625993.091080837</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>6700884.955830737</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>6776949.354952052</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>6854208.351919247</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>6932684.483131363</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>7012400.764807487</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>7093380.69967813</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>7175648.283447413</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>7259228.01099954</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>7344144.882321876</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>7430424.408115328</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>7518092.615061592</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>7607176.05071535</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>7697701.787987962</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>7789697.429187952</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>7883191.109582071</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>7978211.500439351</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>8074787.811518949</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>8172949.792961544</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>8272727.736542203</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>8374152.47624158</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>8477255.388090959</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>8582068.389245037</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>8688623.936235517</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>8796955.022357142</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>8907095.174136572</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>9019078.446833706</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>9132939.418923927</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>9248713.18550884</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>9366435.350602318</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>9486142.01823817</v>
+        <v>148821.280951146</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>9607869.782345012</v>
+        <v>299955.2009834384</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>9731655.715333616</v>
+        <v>453440.9515181568</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>9857537.355341908</v>
+        <v>609318.2193980068</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>9985552.692082576</v>
+        <v>767627.1745164256</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>10115740.15123848</v>
+        <v>928408.4558839672</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>10248138.57735136</v>
+        <v>1091703.156070428</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>10382787.21515004</v>
+        <v>1257552.803961648</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>10519725.68926469</v>
+        <v>1425999.34577052</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>10658993.98227533</v>
+        <v>1597085.124242926</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>10800632.41104365</v>
+        <v>1770852.856000254</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>10944681.60127862</v>
+        <v>1947345.60696158</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>11091182.4602889</v>
+        <v>2126606.765790498</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>11240176.14787639</v>
+        <v>2308680.015313555</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>11391704.04532817</v>
+        <v>2493609.301859512</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>11545807.72246697</v>
+        <v>2681438.802471632</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>11702528.90272303</v>
+        <v>2872212.889947923</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>11861909.42619401</v>
+        <v>3065976.09566791</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>12023991.21066342</v>
+        <v>3262773.070168414</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>12188816.21055208</v>
+        <v>3462648.541434649</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>12356426.37378191</v>
+        <v>3665647.270877997</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>12526863.59653617</v>
+        <v>3871814.00697635</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>12700169.67590585</v>
+        <v>4081193.43655888</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>12876386.26041734</v>
+        <v>4293830.133722389</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>13055554.79844305</v>
+        <v>4509768.506372998</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>13237716.48450292</v>
+        <v>4729052.740393559</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>13422912.20347179</v>
+        <v>4951726.741444175</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>13611182.47271496</v>
+        <v>5177834.074410799</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>13802567.38218188</v>
+        <v>5407417.900524851</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>13997106.53249619</v>
+        <v>5640520.912185107</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>14194838.97108822</v>
+        <v>5877185.265521674</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>14395803.12642552</v>
+        <v>6117452.510751228</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>14600036.74040538</v>
+        <v>6361363.520381849</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>14807576.7989829</v>
+        <v>6608958.41533574</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>15018459.46111798</v>
+        <v>6860276.489068064</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>15232719.98613375</v>
+        <v>7115356.129770517</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>15450392.6595895</v>
+        <v>7374234.740758609</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>15671510.7177813</v>
+        <v>7636948.65915283</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>15896106.27099317</v>
+        <v>7903533.072974239</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>16124210.22563251</v>
+        <v>8174021.936786264</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>16355852.20539356</v>
+        <v>8448447.886025677</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>16591060.47160277</v>
+        <v>8726842.150176479</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>16829861.84291041</v>
+        <v>9009234.464951754</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>17072281.61450218</v>
+        <v>9295652.983658932</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>17318343.47701501</v>
+        <v>9586124.18793539</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>17568069.43534984</v>
+        <v>9880672.798050757</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>17821479.72758413</v>
+        <v>10179321.68298355</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>18078592.74419454</v>
+        <v>10482091.77048836</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>18339424.94780921</v>
+        <v>10789001.95738027</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>18603990.7937162</v>
+        <v>11100069.02027082</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>18872302.65136123</v>
+        <v>11415307.52699907</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>19144370.72707501</v>
+        <v>11734729.74900785</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>19420202.9882749</v>
+        <v>12058345.57492265</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>19699805.08939062</v>
+        <v>12386162.42559634</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>19983180.29976748</v>
+        <v>12718185.17088768</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>19931574.705339</v>
+        <v>12715661.31998215</v>
       </c>
       <c r="C358" t="n">
         <v>384697.6341417268</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>19879356.88384789</v>
+        <v>12712960.68505145</v>
       </c>
       <c r="C359" t="n">
         <v>774374.3420199431</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>19826514.85846483</v>
+        <v>12710072.32312029</v>
       </c>
       <c r="C360" t="n">
         <v>1169038.847447859</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>19773036.29463255</v>
+        <v>12706984.72098878</v>
       </c>
       <c r="C361" t="n">
         <v>1568697.272716514</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>19718908.48992734</v>
+        <v>12703685.773024</v>
       </c>
       <c r="C362" t="n">
         <v>1973353.083839369</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>19664118.36370171</v>
+        <v>12700162.75860848</v>
       </c>
       <c r="C363" t="n">
         <v>2383007.040036081</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>19608652.44652152</v>
+        <v>12696402.31928344</v>
       </c>
       <c r="C364" t="n">
         <v>2797657.147723071</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>19552496.86941348</v>
+        <v>12692390.43562913</v>
       </c>
       <c r="C365" t="n">
         <v>3217298.619267447</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>19495637.35294307</v>
+        <v>12688112.40392988</v>
       </c>
       <c r="C366" t="n">
         <v>3641923.836749327</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>19438059.19614627</v>
+        <v>12683552.81267641</v>
       </c>
       <c r="C367" t="n">
         <v>4071522.320964096</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>19379747.26534311</v>
+        <v>12678695.51896385</v>
       </c>
       <c r="C368" t="n">
         <v>4506080.705879393</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>19320685.98286594</v>
+        <v>12673523.62484977</v>
       </c>
       <c r="C369" t="n">
         <v>4945582.718745069</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>19260859.31573951</v>
+        <v>12668019.45374267</v>
       </c>
       <c r="C370" t="n">
         <v>5390009.16603367</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>19200250.76435693</v>
+        <v>12662164.52689846</v>
       </c>
       <c r="C371" t="n">
         <v>5839337.925368115</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>19138843.35119963</v>
+        <v>12655939.54010892</v>
       </c>
       <c r="C372" t="n">
         <v>6293543.943569795</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>19076619.60965751</v>
+        <v>12649324.34067396</v>
       </c>
       <c r="C373" t="n">
         <v>6293507.732662322</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>19013561.57301098</v>
+        <v>12642297.90475696</v>
       </c>
       <c r="C374" t="n">
         <v>6293465.832290192</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>18949650.76364446</v>
+        <v>12634838.31523054</v>
       </c>
       <c r="C375" t="n">
         <v>6293417.411198594</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>18884868.18256823</v>
+        <v>12626922.74012859</v>
       </c>
       <c r="C376" t="n">
         <v>6293361.527018451</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>18819194.29933347</v>
+        <v>12618527.41182882</v>
       </c>
       <c r="C377" t="n">
         <v>6293297.113032308</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>18752609.04243428</v>
+        <v>12609627.60709943</v>
       </c>
       <c r="C378" t="n">
         <v>6293222.963604253</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>18685091.7902982</v>
+        <v>12600197.62815229</v>
       </c>
       <c r="C379" t="n">
         <v>6293137.718172965</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>18616621.36297708</v>
+        <v>12590210.78485458</v>
       </c>
       <c r="C380" t="n">
         <v>6293039.843704023</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>18547176.01465873</v>
+        <v>12579639.37826073</v>
       </c>
       <c r="C381" t="n">
         <v>6292927.615495387</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>18476733.42712977</v>
+        <v>12568454.6856357</v>
       </c>
       <c r="C382" t="n">
         <v>6292799.096228378</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>18405270.70433003</v>
+        <v>12556626.94715073</v>
       </c>
       <c r="C383" t="n">
         <v>6292652.113155913</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>18332764.36814879</v>
+        <v>12544125.35444245</v>
       </c>
       <c r="C384" t="n">
         <v>6292484.23332016</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>18259190.35562333</v>
+        <v>12530918.04123586</v>
       </c>
       <c r="C385" t="n">
         <v>6292292.736693465</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>18184524.01771033</v>
+        <v>12516972.07624109</v>
       </c>
       <c r="C386" t="n">
         <v>6292074.587139362</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>18108740.11981089</v>
+        <v>12502253.45854344</v>
       </c>
       <c r="C387" t="n">
         <v>6291826.401095161</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>18031812.84423906</v>
+        <v>12486727.11571476</v>
       </c>
       <c r="C388" t="n">
         <v>6291544.413883775</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>17953715.79483457</v>
+        <v>12470356.90488277</v>
       </c>
       <c r="C389" t="n">
         <v>6291224.443570763</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>17874422.00392796</v>
+        <v>12453105.61700279</v>
       </c>
       <c r="C390" t="n">
         <v>6290861.852292823</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>17793903.94187616</v>
+        <v>12434934.98458341</v>
       </c>
       <c r="C391" t="n">
         <v>6290451.504996429</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>17712133.52939356</v>
+        <v>12415805.69312375</v>
       </c>
       <c r="C392" t="n">
         <v>6289987.725540474</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>17629082.15291104</v>
+        <v>12395677.39652522</v>
       </c>
       <c r="C393" t="n">
         <v>6289464.250134156</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>17544720.68320105</v>
+        <v>12374508.73674475</v>
       </c>
       <c r="C394" t="n">
         <v>6288874.178101831</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>17459019.49751184</v>
+        <v>12352257.367959</v>
       </c>
       <c r="C395" t="n">
         <v>6288209.919989699</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>17371948.50545736</v>
+        <v>12328879.98551037</v>
       </c>
       <c r="C396" t="n">
         <v>6287463.143055403</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>17283477.17891113</v>
+        <v>12304332.35990492</v>
       </c>
       <c r="C397" t="n">
         <v>6286624.714210958</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>17193574.58615277</v>
+        <v>12278569.37613016</v>
       </c>
       <c r="C398" t="n">
         <v>6285684.640521871</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>17102209.43051395</v>
+        <v>12251545.0785561</v>
       </c>
       <c r="C399" t="n">
         <v>6284632.007400881</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>17009350.09376724</v>
+        <v>12223212.72167637</v>
       </c>
       <c r="C400" t="n">
         <v>6283454.914673615</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>16914964.68449479</v>
+        <v>12193524.82693726</v>
       </c>
       <c r="C401" t="n">
         <v>6282140.410735238</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>16819021.09166583</v>
+        <v>12162433.24589104</v>
       </c>
       <c r="C402" t="n">
         <v>6280674.425062056</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>16721487.04364081</v>
+        <v>12129889.22989558</v>
       </c>
       <c r="C403" t="n">
         <v>6279041.699389647</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>16622330.1728062</v>
+        <v>12095843.50656524</v>
       </c>
       <c r="C404" t="n">
         <v>6277225.717919379</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>16521518.08602753</v>
+        <v>12060246.36315813</v>
       </c>
       <c r="C405" t="n">
         <v>6275208.63696758</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>16419018.44108854</v>
+        <v>12023047.73706135</v>
       </c>
       <c r="C406" t="n">
         <v>6272971.214526127</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>16314799.02926138</v>
+        <v>11984197.31350982</v>
       </c>
       <c r="C407" t="n">
         <v>6270492.740259099</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>16208827.86412724</v>
+        <v>11943644.63064441</v>
       </c>
       <c r="C408" t="n">
         <v>6267750.966516995</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>16101073.27673699</v>
+        <v>11901339.19198233</v>
       </c>
       <c r="C409" t="n">
         <v>6264722.04100736</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>15991504.01716928</v>
+        <v>11857230.58633651</v>
       </c>
       <c r="C410" t="n">
         <v>6261380.441817606</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>15880089.36250753</v>
+        <v>11811268.61518084</v>
       </c>
       <c r="C411" t="n">
         <v>6257698.915541899</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>15766799.23121788</v>
+        <v>11763403.42741553</v>
       </c>
       <c r="C412" t="n">
         <v>6253648.419318225</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>15651604.30386806</v>
+        <v>11713585.66144077</v>
       </c>
       <c r="C413" t="n">
         <v>6249198.06763332</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>15534476.15008144</v>
+        <v>11661766.59439742</v>
       </c>
       <c r="C414" t="n">
         <v>6244315.084801174</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>15415387.36157201</v>
+        <v>11607898.29838188</v>
       </c>
       <c r="C415" t="n">
         <v>6238964.764064321</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>15294311.69105506</v>
+        <v>11551933.80338699</v>
       </c>
       <c r="C416" t="n">
         <v>6233110.434304967</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>15171224.19677399</v>
+        <v>11493827.26666412</v>
       </c>
       <c r="C417" t="n">
         <v>6226713.435384322</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>15046101.3923283</v>
+        <v>11433534.14814179</v>
       </c>
       <c r="C418" t="n">
         <v>6219733.103152033</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>14918921.40142916</v>
+        <v>11371011.39147518</v>
       </c>
       <c r="C419" t="n">
         <v>6212126.765182451</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>14789664.11714995</v>
+        <v>11306217.61023838</v>
       </c>
       <c r="C420" t="n">
         <v>6203849.748299356</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>14658311.36517798</v>
+        <v>11239113.27870739</v>
       </c>
       <c r="C421" t="n">
         <v>6194855.398944898</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>14524847.07051252</v>
+        <v>11169660.92661786</v>
       </c>
       <c r="C422" t="n">
         <v>6185095.117430619</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>14389257.4269928</v>
+        <v>11097825.33721763</v>
       </c>
       <c r="C423" t="n">
         <v>6174518.407077895</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>14251531.06897794</v>
+        <v>11023573.74787029</v>
       </c>
       <c r="C424" t="n">
         <v>6163072.939210838</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>14111659.24444115</v>
+        <v>10946876.05240372</v>
       </c>
       <c r="C425" t="n">
         <v>6150704.634906152</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>13969635.98868154</v>
+        <v>10867705.00433721</v>
       </c>
       <c r="C426" t="n">
         <v>6137357.764330816</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>13825458.29780013</v>
+        <v>10786036.42006192</v>
       </c>
       <c r="C427" t="n">
         <v>6122975.064409602</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>13679126.30103376</v>
+        <v>10701849.38099528</v>
       </c>
       <c r="C428" t="n">
         <v>6107497.875459751</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>13530643.43098944</v>
+        <v>10615126.43367766</v>
       </c>
       <c r="C429" t="n">
         <v>6090866.297309844</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>13380016.59077691</v>
+        <v>10525853.78673356</v>
       </c>
       <c r="C430" t="n">
         <v>6073019.365283904</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>13227256.31699515</v>
+        <v>10434021.50357744</v>
       </c>
       <c r="C431" t="n">
         <v>6053895.24628059</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>13072376.9374937</v>
+        <v>10339623.6897086</v>
       </c>
       <c r="C432" t="n">
         <v>6033431.455011561</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>12915396.72280032</v>
+        <v>10242658.67341016</v>
       </c>
       <c r="C433" t="n">
         <v>6011565.090283418</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>12756338.03008392</v>
+        <v>10143129.17864506</v>
       </c>
       <c r="C434" t="n">
         <v>5988233.091015428</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>12595227.43850712</v>
+        <v>10041042.48892728</v>
       </c>
       <c r="C435" t="n">
         <v>5963372.511481693</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>12432095.87481536</v>
+        <v>9936410.600940641</v>
       </c>
       <c r="C436" t="n">
         <v>5936920.815053261</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>12266978.72801181</v>
+        <v>9829250.366679834</v>
       </c>
       <c r="C437" t="n">
         <v>5908816.185494731</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>12099915.9519771</v>
+        <v>9719583.622900531</v>
       </c>
       <c r="C438" t="n">
         <v>5878997.854643555</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11930952.1549136</v>
+        <v>9607437.306686671</v>
       </c>
       <c r="C439" t="n">
         <v>5847406.445070366</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11760136.67452288</v>
+        <v>9492843.555974679</v>
       </c>
       <c r="C440" t="n">
         <v>5813984.326088584</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>11587523.63786511</v>
+        <v>9375839.793915791</v>
       </c>
       <c r="C441" t="n">
         <v>5778675.981253292</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>11413172.00489804</v>
+        <v>9256468.796009673</v>
       </c>
       <c r="C442" t="n">
         <v>5741428.385266496</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>11237145.59475322</v>
+        <v>9134778.739004539</v>
       </c>
       <c r="C443" t="n">
         <v>5702191.387991041</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>11059513.09387621</v>
+        <v>9010823.230631426</v>
       </c>
       <c r="C444" t="n">
         <v>5660918.103072029</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>10880348.04523716</v>
+        <v>8884661.31932251</v>
       </c>
       <c r="C445" t="n">
         <v>5617565.298475656</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>10699728.8179067</v>
+        <v>8756357.483155785</v>
       </c>
       <c r="C446" t="n">
         <v>5572093.786084227</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>10517738.55639015</v>
+        <v>8625981.597369405</v>
       </c>
       <c r="C447" t="n">
         <v>5524468.807335687</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>10334465.10921954</v>
+        <v>8493608.879899669</v>
       </c>
       <c r="C448" t="n">
         <v>5474660.411769636</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>10150000.9364176</v>
+        <v>8359319.814514743</v>
       </c>
       <c r="C449" t="n">
         <v>5422643.825242015</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>9964442.995569522</v>
+        <v>8223200.051242239</v>
       </c>
       <c r="C450" t="n">
         <v>5368399.804500341</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>9777892.606366774</v>
+        <v>8085340.28392117</v>
       </c>
       <c r="C451" t="n">
         <v>5311914.974772895</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>9590455.293621195</v>
+        <v>7945836.104846989</v>
       </c>
       <c r="C452" t="n">
         <v>5253182.147020548</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -10921,7 +10921,7 @@
         <v>5639328.928955385</v>
       </c>
       <c r="G403" t="n">
-        <v>892258.6477640469</v>
+        <v>999329.6854957336</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>5639322.8644127</v>
       </c>
       <c r="G404" t="n">
-        <v>1789189.616922381</v>
+        <v>2003892.370953069</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>5639315.435219114</v>
       </c>
       <c r="G405" t="n">
-        <v>2690693.691735995</v>
+        <v>3013576.934744317</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>5639306.353447286</v>
       </c>
       <c r="G406" t="n">
-        <v>3596674.301105052</v>
+        <v>4028275.217237662</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>5639295.274857135</v>
       </c>
       <c r="G407" t="n">
-        <v>4507037.851252299</v>
+        <v>5047882.39340258</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>5639281.788858715</v>
       </c>
       <c r="G408" t="n">
-        <v>5421694.05743092</v>
+        <v>6072297.344322637</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>5639265.40688942</v>
       </c>
       <c r="G409" t="n">
-        <v>6340556.273642725</v>
+        <v>7101423.026479859</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>5639245.548995031</v>
       </c>
       <c r="G410" t="n">
-        <v>7263541.819306605</v>
+        <v>8135166.837623404</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11129,7 +11129,7 @@
         <v>5639221.52838356</v>
       </c>
       <c r="G411" t="n">
-        <v>8190572.301776053</v>
+        <v>9173440.977989187</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>5639192.533699811</v>
       </c>
       <c r="G412" t="n">
-        <v>9121573.933552118</v>
+        <v>10216162.80557838</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11181,10 +11181,10 @@
         <v>5639157.608747042</v>
       </c>
       <c r="G413" t="n">
-        <v>9121567.818408044</v>
+        <v>10216155.95661702</v>
       </c>
       <c r="H413" t="n">
-        <v>890520.5755720711</v>
+        <v>997383.0446407206</v>
       </c>
     </row>
     <row r="414">
@@ -11207,10 +11207,10 @@
         <v>5639115.629360616</v>
       </c>
       <c r="G414" t="n">
-        <v>9121560.22977354</v>
+        <v>10216147.45734638</v>
       </c>
       <c r="H414" t="n">
-        <v>1784698.921897217</v>
+        <v>1998862.792524885</v>
       </c>
     </row>
     <row r="415">
@@ -11233,10 +11233,10 @@
         <v>5639065.277117373</v>
       </c>
       <c r="G415" t="n">
-        <v>9121550.834006436</v>
+        <v>10216136.93408722</v>
       </c>
       <c r="H415" t="n">
-        <v>2682479.977050357</v>
+        <v>3004377.574296403</v>
       </c>
     </row>
     <row r="416">
@@ -11259,10 +11259,10 @@
         <v>5639005.009544143</v>
       </c>
       <c r="G416" t="n">
-        <v>9121539.227211094</v>
+        <v>10216123.93447644</v>
       </c>
       <c r="H416" t="n">
-        <v>3583814.266836158</v>
+        <v>4013871.978856502</v>
       </c>
     </row>
     <row r="417">
@@ -11285,10 +11285,10 @@
         <v>5638933.026469867</v>
       </c>
       <c r="G417" t="n">
-        <v>9121524.921689596</v>
+        <v>10216107.91229236</v>
       </c>
       <c r="H417" t="n">
-        <v>4488658.176239178</v>
+        <v>5027297.157387884</v>
       </c>
     </row>
     <row r="418">
@@ -11311,10 +11311,10 @@
         <v>5638847.232148952</v>
       </c>
       <c r="G418" t="n">
-        <v>9121507.330056865</v>
+        <v>10216088.2096637</v>
       </c>
       <c r="H418" t="n">
-        <v>5396974.21026582</v>
+        <v>6044611.115497725</v>
       </c>
     </row>
     <row r="419">
@@ -11337,10 +11337,10 @@
         <v>5638745.19276931</v>
       </c>
       <c r="G419" t="n">
-        <v>9121485.746675117</v>
+        <v>10216064.03627614</v>
       </c>
       <c r="H419" t="n">
-        <v>6308731.242965056</v>
+        <v>7065778.99212087</v>
       </c>
     </row>
     <row r="420">
@@ -11363,10 +11363,10 @@
         <v>5638624.088947972</v>
       </c>
       <c r="G420" t="n">
-        <v>9121459.326023847</v>
+        <v>10216034.44514672</v>
       </c>
       <c r="H420" t="n">
-        <v>7223904.753367582</v>
+        <v>8090773.3237717</v>
       </c>
     </row>
     <row r="421">
@@ -11389,10 +11389,10 @@
         <v>5638480.662811152</v>
       </c>
       <c r="G421" t="n">
-        <v>9121427.057580017</v>
+        <v>10215998.30448963</v>
       </c>
       <c r="H421" t="n">
-        <v>8142477.047033545</v>
+        <v>9119574.292677579</v>
       </c>
     </row>
     <row r="422">
@@ -11415,10 +11415,10 @@
         <v>5638311.159254882</v>
       </c>
       <c r="G422" t="n">
-        <v>9121387.736739758</v>
+        <v>10215954.26514854</v>
       </c>
       <c r="H422" t="n">
-        <v>9064437.461844223</v>
+        <v>10152169.95726554</v>
       </c>
     </row>
     <row r="423">
@@ -11441,10 +11441,10 @@
         <v>5638111.260988405</v>
       </c>
       <c r="G423" t="n">
-        <v>9121339.931268012</v>
+        <v>10215900.72302018</v>
       </c>
       <c r="H423" t="n">
-        <v>9989782.556617962</v>
+        <v>11188556.46341213</v>
       </c>
     </row>
     <row r="424">
@@ -11467,10 +11467,10 @@
         <v>5637876.01697581</v>
       </c>
       <c r="G424" t="n">
-        <v>9121281.94271679</v>
+        <v>10215835.77584281</v>
       </c>
       <c r="H424" t="n">
-        <v>10918516.28106738</v>
+        <v>12228738.23479548</v>
       </c>
     </row>
     <row r="425">
@@ -11493,10 +11493,10 @@
         <v>5637599.763913903</v>
       </c>
       <c r="G425" t="n">
-        <v>9121211.762206974</v>
+        <v>10215757.17367182</v>
       </c>
       <c r="H425" t="n">
-        <v>11850650.12555374</v>
+        <v>13272728.1406202</v>
       </c>
     </row>
     <row r="426">
@@ -11519,10 +11519,10 @@
         <v>5637276.040416468</v>
       </c>
       <c r="G426" t="n">
-        <v>9121127.019923301</v>
+        <v>10215662.26231411</v>
       </c>
       <c r="H426" t="n">
-        <v>12786203.24902357</v>
+        <v>14320547.63890641</v>
       </c>
     </row>
     <row r="427">
@@ -11545,10 +11545,10 @@
         <v>5636897.493618607</v>
       </c>
       <c r="G427" t="n">
-        <v>9121024.927629083</v>
+        <v>10215547.91894458</v>
       </c>
       <c r="H427" t="n">
-        <v>13725202.58344417</v>
+        <v>15372226.89345749</v>
       </c>
     </row>
     <row r="428">
@@ -11571,10 +11571,10 @@
         <v>5636455.777970786</v>
       </c>
       <c r="G428" t="n">
-        <v>9120902.213466968</v>
+        <v>10215410.47908301</v>
       </c>
       <c r="H428" t="n">
-        <v>14667682.91298034</v>
+        <v>16427804.862538</v>
       </c>
     </row>
     <row r="429">
@@ -11597,10 +11597,10 @@
         <v>5635941.446061518</v>
       </c>
       <c r="G429" t="n">
-        <v>9120755.048276601</v>
+        <v>10215245.6540698</v>
       </c>
       <c r="H429" t="n">
-        <v>15613686.92607701</v>
+        <v>17487329.35720627</v>
       </c>
     </row>
     <row r="430">
@@ -11623,10 +11623,10 @@
         <v>5635343.831391701</v>
       </c>
       <c r="G430" t="n">
-        <v>9120578.962630693</v>
+        <v>10215048.43814639</v>
       </c>
       <c r="H430" t="n">
-        <v>16563265.23853634</v>
+        <v>18550857.06716072</v>
       </c>
     </row>
     <row r="431">
@@ -11649,10 +11649,10 @@
         <v>5634650.923123046</v>
       </c>
       <c r="G431" t="n">
-        <v>9120368.753769942</v>
+        <v>10214813.00422235</v>
       </c>
       <c r="H431" t="n">
-        <v>17516476.38559669</v>
+        <v>19618453.55186832</v>
       </c>
     </row>
     <row r="432">
@@ -11675,10 +11675,10 @@
         <v>5633849.232938838</v>
       </c>
       <c r="G432" t="n">
-        <v>9120118.381606396</v>
+        <v>10214532.58739918</v>
       </c>
       <c r="H432" t="n">
-        <v>18473386.78094102</v>
+        <v>20690193.19465396</v>
       </c>
     </row>
     <row r="433">
@@ -11701,10 +11701,10 @@
         <v>5632923.654287852</v>
       </c>
       <c r="G433" t="n">
-        <v>9119820.852966439</v>
+        <v>10214199.35532242</v>
       </c>
       <c r="H433" t="n">
-        <v>19434070.64048373</v>
+        <v>21766159.1173418</v>
       </c>
     </row>
     <row r="434">
@@ -11727,10 +11727,10 @@
         <v>5631857.314431908</v>
       </c>
       <c r="G434" t="n">
-        <v>9119468.093261223</v>
+        <v>10213804.26445258</v>
       </c>
       <c r="H434" t="n">
-        <v>20398609.86870565</v>
+        <v>22846443.05295034</v>
       </c>
     </row>
     <row r="435">
@@ -11753,10 +11753,10 @@
         <v>5630631.419884397</v>
       </c>
       <c r="G435" t="n">
-        <v>9119050.80480648</v>
+        <v>10213336.90138327</v>
       </c>
       <c r="H435" t="n">
-        <v>21367093.90523436</v>
+        <v>23931145.17386251</v>
       </c>
     </row>
     <row r="436">
@@ -11779,10 +11779,10 @@
         <v>5629225.096010565</v>
       </c>
       <c r="G436" t="n">
-        <v>9118558.311067984</v>
+        <v>10212785.30839615</v>
       </c>
       <c r="H436" t="n">
-        <v>22339619.52929476</v>
+        <v>25020373.87281014</v>
       </c>
     </row>
     <row r="437">
@@ -11805,10 +11805,10 @@
         <v>5627615.221759757</v>
       </c>
       <c r="G437" t="n">
-        <v>9117978.38618619</v>
+        <v>10212135.79252854</v>
       </c>
       <c r="H437" t="n">
-        <v>23316290.61959462</v>
+        <v>26114245.49394601</v>
       </c>
     </row>
     <row r="438">
@@ -11831,10 +11831,10 @@
         <v>5625776.260713921</v>
       </c>
       <c r="G438" t="n">
-        <v>9117297.069236699</v>
+        <v>10211372.71754512</v>
       </c>
       <c r="H438" t="n">
-        <v>24297217.86715353</v>
+        <v>27212884.01121197</v>
       </c>
     </row>
     <row r="439">
@@ -11857,10 +11857,10 @@
         <v>5623680.089863709</v>
       </c>
       <c r="G439" t="n">
-        <v>9116498.46281432</v>
+        <v>10210478.27835205</v>
       </c>
       <c r="H439" t="n">
-        <v>25282518.43854301</v>
+        <v>28316420.6511682</v>
       </c>
     </row>
     <row r="440">
@@ -11883,10 +11883,10 @@
         <v>5621295.827761173</v>
       </c>
       <c r="G440" t="n">
-        <v>9115564.515690828</v>
+        <v>10209432.25757374</v>
       </c>
       <c r="H440" t="n">
-        <v>26272315.58697572</v>
+        <v>29424993.45741284</v>
       </c>
     </row>
     <row r="441">
@@ -11909,10 +11909,10 @@
         <v>5618589.663943524</v>
       </c>
       <c r="G441" t="n">
-        <v>9114474.789491855</v>
+        <v>10208211.76423088</v>
       </c>
       <c r="H441" t="n">
-        <v>27266738.20867147</v>
+        <v>30538746.79371208</v>
       </c>
     </row>
     <row r="442">
@@ -11935,10 +11935,10 @@
         <v>5615524.691772467</v>
       </c>
       <c r="G442" t="n">
-        <v>9113206.209568564</v>
+        <v>10206790.9547168</v>
       </c>
       <c r="H442" t="n">
-        <v>28265920.34193761</v>
+        <v>31657830.78297016</v>
       </c>
     </row>
     <row r="443">
@@ -11961,10 +11961,10 @@
         <v>5612060.747083863</v>
       </c>
       <c r="G443" t="n">
-        <v>9111732.800506772</v>
+        <v>10205140.73656759</v>
       </c>
       <c r="H443" t="n">
-        <v>29270000.60643347</v>
+        <v>32782400.67920551</v>
       </c>
     </row>
     <row r="444">
@@ -11987,10 +11987,10 @@
         <v>5608154.255288819</v>
       </c>
       <c r="G444" t="n">
-        <v>9110025.40702039</v>
+        <v>10203228.45586285</v>
       </c>
       <c r="H444" t="n">
-        <v>30279121.58015265</v>
+        <v>33912616.16977102</v>
       </c>
     </row>
     <row r="445">
@@ -12013,10 +12013,10 @@
         <v>5603758.089804284</v>
       </c>
       <c r="G445" t="n">
-        <v>9108051.401318001</v>
+        <v>10201017.56947617</v>
       </c>
       <c r="H445" t="n">
-        <v>31293429.11175024</v>
+        <v>35048640.60516031</v>
       </c>
     </row>
     <row r="446">
@@ -12039,10 +12039,10 @@
         <v>5598821.444913531</v>
       </c>
       <c r="G446" t="n">
-        <v>9105774.378410341</v>
+        <v>10198467.30381959</v>
       </c>
       <c r="H446" t="n">
-        <v>32313071.56597312</v>
+        <v>36190640.15388992</v>
       </c>
     </row>
     <row r="447">
@@ -12065,10 +12065,10 @@
         <v>5593289.726358158</v>
       </c>
       <c r="G447" t="n">
-        <v>9103153.84124092</v>
+        <v>10195532.30218984</v>
       </c>
       <c r="H447" t="n">
-        <v>33338199.00012471</v>
+        <v>37338782.88013972</v>
       </c>
     </row>
     <row r="448">
@@ -12091,10 +12091,10 @@
         <v>5587104.463137457</v>
       </c>
       <c r="G448" t="n">
-        <v>9100144.877969425</v>
+        <v>10192162.26332577</v>
       </c>
       <c r="H448" t="n">
-        <v>34368962.26971375</v>
+        <v>38493237.74207944</v>
       </c>
     </row>
     <row r="449">
@@ -12117,10 +12117,10 @@
         <v>5580203.24413111</v>
       </c>
       <c r="G449" t="n">
-        <v>9096697.834214248</v>
+        <v>10188301.57431997</v>
       </c>
       <c r="H449" t="n">
-        <v>35405512.06170798</v>
+        <v>39654173.50911298</v>
       </c>
     </row>
     <row r="450">
@@ -12143,10 +12143,10 @@
         <v>5572519.683260649</v>
       </c>
       <c r="G450" t="n">
-        <v>9092757.983561397</v>
+        <v>10183888.94158877</v>
       </c>
       <c r="H450" t="n">
-        <v>36447997.85413553</v>
+        <v>40821757.59663185</v>
       </c>
     </row>
     <row r="451">
@@ -12169,10 +12169,10 @@
         <v>5563983.416957063</v>
       </c>
       <c r="G451" t="n">
-        <v>9088265.200166151</v>
+        <v>10178857.0241861</v>
       </c>
       <c r="H451" t="n">
-        <v>37496566.80116616</v>
+        <v>41996154.81730614</v>
       </c>
     </row>
     <row r="452">
@@ -12195,10 +12195,10 @@
         <v>5554520.137699633</v>
       </c>
       <c r="G452" t="n">
-        <v>9083153.637803271</v>
+        <v>10173132.07433967</v>
       </c>
       <c r="H452" t="n">
-        <v>38551362.54325211</v>
+        <v>43177526.04844242</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>148821.280951146</v>
+        <v>119057.0247609167</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>299955.2009834384</v>
+        <v>239964.1607867506</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>453440.9515181568</v>
+        <v>362752.7612145251</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>609318.2193980068</v>
+        <v>487454.5755184051</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>767627.1745164256</v>
+        <v>614101.73961314</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>928408.4558839672</v>
+        <v>742726.7647071733</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1091703.156070428</v>
+        <v>873362.524856342</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1257552.803961648</v>
+        <v>1006042.243169317</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1425999.34577052</v>
+        <v>1140799.476616415</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1597085.124242926</v>
+        <v>1277668.099394339</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1770852.856000254</v>
+        <v>1416682.284800202</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1947345.60696158</v>
+        <v>1557876.485569263</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2126606.765790498</v>
+        <v>1701285.412632397</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2308680.015313555</v>
+        <v>1846944.012250843</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2493609.301859512</v>
+        <v>1994887.441487608</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2681438.802471632</v>
+        <v>2145151.041977304</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2872212.889947923</v>
+        <v>2297770.311958337</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>3065976.09566791</v>
+        <v>2452780.876534326</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>3262773.070168414</v>
+        <v>2610218.45613473</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>3462648.541434649</v>
+        <v>2770118.833147718</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>3665647.270877997</v>
+        <v>2932517.816702396</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>3871814.00697635</v>
+        <v>3097451.205581078</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>4081193.43655888</v>
+        <v>3264954.749247102</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>4293830.133722389</v>
+        <v>3435064.106977909</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>4509768.506372998</v>
+        <v>3607814.805098396</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>4729052.740393559</v>
+        <v>3783242.192314845</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>4951726.741444175</v>
+        <v>3961381.393155337</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>5177834.074410799</v>
+        <v>4142267.259528635</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>5407417.900524851</v>
+        <v>4325934.320419876</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>5640520.912185107</v>
+        <v>4512416.729748082</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>5877185.265521674</v>
+        <v>4701748.212417338</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>6117452.510751228</v>
+        <v>4893962.00860098</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>6361363.520381849</v>
+        <v>5089090.816305477</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>6608958.41533574</v>
+        <v>5287166.732268589</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>6860276.489068064</v>
+        <v>5488221.191254448</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>7115356.129770517</v>
+        <v>5692284.903816411</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>7374234.740758609</v>
+        <v>5899387.792606882</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>7636948.65915283</v>
+        <v>6109558.927322261</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>7903533.072974239</v>
+        <v>6322826.458379387</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>8174021.936786264</v>
+        <v>6539217.549429007</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>8448447.886025677</v>
+        <v>6758758.308820537</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>8726842.150176479</v>
+        <v>6981473.720141179</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>9009234.464951754</v>
+        <v>7207387.571961397</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>9295652.983658932</v>
+        <v>7436522.386927142</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>9586124.18793539</v>
+        <v>7668899.350348308</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>9880672.798050757</v>
+        <v>7904538.238440602</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>10179321.68298355</v>
+        <v>8143457.346386834</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>10482091.77048836</v>
+        <v>8385673.416390686</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>10789001.95738027</v>
+        <v>8631201.565904206</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>11100069.02027082</v>
+        <v>8880055.216216648</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>11415307.52699907</v>
+        <v>9132246.021599254</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>11734729.74900785</v>
+        <v>9387783.799206275</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>12058345.57492265</v>
+        <v>9646676.45993812</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>12386162.42559634</v>
+        <v>9908929.940477069</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>12718185.17088768</v>
+        <v>10174548.13671014</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>12715661.31998215</v>
+        <v>10172529.05598572</v>
       </c>
       <c r="C358" t="n">
-        <v>384697.6341417268</v>
+        <v>307758.1073133817</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>12712960.68505145</v>
+        <v>10170368.54804115</v>
       </c>
       <c r="C359" t="n">
-        <v>774374.3420199431</v>
+        <v>619499.4736159549</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>12710072.32312029</v>
+        <v>10168057.85849623</v>
       </c>
       <c r="C360" t="n">
-        <v>1169038.847447859</v>
+        <v>935231.0779582879</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>12706984.72098878</v>
+        <v>10165587.77679102</v>
       </c>
       <c r="C361" t="n">
-        <v>1568697.272716514</v>
+        <v>1254957.818173212</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>12703685.773024</v>
+        <v>10162948.61841919</v>
       </c>
       <c r="C362" t="n">
-        <v>1973353.083839369</v>
+        <v>1578682.467071496</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>12700162.75860848</v>
+        <v>10160130.20688677</v>
       </c>
       <c r="C363" t="n">
-        <v>2383007.040036081</v>
+        <v>1906405.632028866</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>12696402.31928344</v>
+        <v>10157121.85542674</v>
       </c>
       <c r="C364" t="n">
-        <v>2797657.147723071</v>
+        <v>2238125.718178459</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>12692390.43562913</v>
+        <v>10153912.3485033</v>
       </c>
       <c r="C365" t="n">
-        <v>3217298.619267447</v>
+        <v>2573838.895413959</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>12688112.40392988</v>
+        <v>10150489.9231439</v>
       </c>
       <c r="C366" t="n">
-        <v>3641923.836749327</v>
+        <v>2913539.069399464</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>12683552.81267641</v>
+        <v>10146842.25014112</v>
       </c>
       <c r="C367" t="n">
-        <v>4071522.320964096</v>
+        <v>3257217.856771281</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>12678695.51896385</v>
+        <v>10142956.41517108</v>
       </c>
       <c r="C368" t="n">
-        <v>4506080.705879393</v>
+        <v>3604864.564703518</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>12673523.62484977</v>
+        <v>10138818.89987981</v>
       </c>
       <c r="C369" t="n">
-        <v>4945582.718745069</v>
+        <v>3956466.174996059</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>12668019.45374267</v>
+        <v>10134415.56299413</v>
       </c>
       <c r="C370" t="n">
-        <v>5390009.16603367</v>
+        <v>4312007.332826939</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>12662164.52689846</v>
+        <v>10129731.62151877</v>
       </c>
       <c r="C371" t="n">
-        <v>5839337.925368115</v>
+        <v>4671470.340294496</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>12655939.54010892</v>
+        <v>10124751.63208713</v>
       </c>
       <c r="C372" t="n">
-        <v>6293543.943569795</v>
+        <v>5034835.15485584</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>12649324.34067396</v>
+        <v>10119459.47253916</v>
       </c>
       <c r="C373" t="n">
-        <v>6293507.732662322</v>
+        <v>5034806.186129862</v>
       </c>
       <c r="D373" t="n">
-        <v>388327.7191289405</v>
+        <v>310662.1753031528</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>12642297.90475696</v>
+        <v>10113838.32380556</v>
       </c>
       <c r="C374" t="n">
-        <v>6293465.832290192</v>
+        <v>5034772.665832156</v>
       </c>
       <c r="D374" t="n">
-        <v>780735.9346836598</v>
+        <v>624588.7477469285</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>12634838.31523054</v>
+        <v>10107870.65218443</v>
       </c>
       <c r="C375" t="n">
-        <v>6293417.411198594</v>
+        <v>5034733.928958879</v>
       </c>
       <c r="D375" t="n">
-        <v>1177196.764215451</v>
+        <v>941757.4113723619</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>12626922.74012859</v>
+        <v>10101538.19210286</v>
       </c>
       <c r="C376" t="n">
-        <v>6293361.527018451</v>
+        <v>5034689.221614764</v>
       </c>
       <c r="D376" t="n">
-        <v>1577679.986850059</v>
+        <v>1262143.989480048</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>12618527.41182882</v>
+        <v>10094821.92946305</v>
       </c>
       <c r="C377" t="n">
-        <v>6293297.113032308</v>
+        <v>5034637.69042585</v>
       </c>
       <c r="D377" t="n">
-        <v>1982153.079606808</v>
+        <v>1585722.463685448</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>12609627.60709943</v>
+        <v>10087702.08567954</v>
       </c>
       <c r="C378" t="n">
-        <v>6293222.963604253</v>
+        <v>5034578.370883407</v>
       </c>
       <c r="D378" t="n">
-        <v>2390581.260202863</v>
+        <v>1912465.008162292</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>12600197.62815229</v>
+        <v>10080158.10252182</v>
       </c>
       <c r="C379" t="n">
-        <v>6293137.718172965</v>
+        <v>5034510.174538377</v>
       </c>
       <c r="D379" t="n">
-        <v>2802927.536362884</v>
+        <v>2242342.02909031</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>12590210.78485458</v>
+        <v>10072168.62788365</v>
       </c>
       <c r="C380" t="n">
-        <v>6293039.843704023</v>
+        <v>5034431.874963222</v>
       </c>
       <c r="D380" t="n">
-        <v>3219152.761626992</v>
+        <v>2575322.209301596</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>12579639.37826073</v>
+        <v>10063711.50260858</v>
       </c>
       <c r="C381" t="n">
-        <v>6292927.615495387</v>
+        <v>5034342.092396313</v>
       </c>
       <c r="D381" t="n">
-        <v>3639215.697621408</v>
+        <v>2911372.55809713</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>12568454.6856357</v>
+        <v>10054763.74850856</v>
       </c>
       <c r="C382" t="n">
-        <v>6292799.096228378</v>
+        <v>5034239.276982707</v>
       </c>
       <c r="D382" t="n">
-        <v>4063073.082726174</v>
+        <v>3250458.466180942</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>12556626.94715073</v>
+        <v>10045301.55772058</v>
       </c>
       <c r="C383" t="n">
-        <v>6292652.113155913</v>
+        <v>5034121.690524735</v>
       </c>
       <c r="D383" t="n">
-        <v>4063065.468628829</v>
+        <v>3250452.374903067</v>
       </c>
       <c r="E383" t="n">
-        <v>312277.9627980873</v>
+        <v>249822.37023847</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>12544125.35444245</v>
+        <v>10035300.28355396</v>
       </c>
       <c r="C384" t="n">
-        <v>6292484.23332016</v>
+        <v>5033987.386656132</v>
       </c>
       <c r="D384" t="n">
-        <v>4063056.391212906</v>
+        <v>3250445.112970327</v>
       </c>
       <c r="E384" t="n">
-        <v>627260.6078100241</v>
+        <v>501808.4862480196</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>12530918.04123586</v>
+        <v>10024734.43298868</v>
       </c>
       <c r="C385" t="n">
-        <v>6292292.736693465</v>
+        <v>5033834.189354775</v>
       </c>
       <c r="D385" t="n">
-        <v>4063045.587348096</v>
+        <v>3250436.46987848</v>
       </c>
       <c r="E385" t="n">
-        <v>944912.4479079705</v>
+        <v>755929.958326377</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>12516972.07624109</v>
+        <v>10013577.66099286</v>
       </c>
       <c r="C386" t="n">
-        <v>6292074.587139362</v>
+        <v>5033659.669711494</v>
       </c>
       <c r="D386" t="n">
-        <v>4063032.750196359</v>
+        <v>3250426.20015709</v>
       </c>
       <c r="E386" t="n">
-        <v>1265196.795886436</v>
+        <v>1012157.43670915</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>12502253.45854344</v>
+        <v>10001802.76683474</v>
       </c>
       <c r="C387" t="n">
-        <v>6291826.401095161</v>
+        <v>5033461.120876133</v>
       </c>
       <c r="D387" t="n">
-        <v>4063017.522634859</v>
+        <v>3250414.018107891</v>
       </c>
       <c r="E387" t="n">
-        <v>1588075.84123443</v>
+        <v>1270460.672987545</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>12486727.11571476</v>
+        <v>9989381.692571802</v>
       </c>
       <c r="C388" t="n">
-        <v>6291544.413883775</v>
+        <v>5033235.531107023</v>
       </c>
       <c r="D388" t="n">
-        <v>4062999.489811664</v>
+        <v>3250399.591849334</v>
       </c>
       <c r="E388" t="n">
-        <v>1913510.731424445</v>
+        <v>1530808.585139557</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>12470356.90488277</v>
+        <v>9976285.523906209</v>
       </c>
       <c r="C389" t="n">
-        <v>6291224.443570763</v>
+        <v>5032979.554856616</v>
       </c>
       <c r="D389" t="n">
-        <v>4062978.170740558</v>
+        <v>3250382.536592449</v>
       </c>
       <c r="E389" t="n">
-        <v>2241461.657565495</v>
+        <v>1793169.326052397</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>12453105.61700279</v>
+        <v>9962484.493602222</v>
       </c>
       <c r="C390" t="n">
-        <v>6290861.852292823</v>
+        <v>5032689.481834263</v>
       </c>
       <c r="D390" t="n">
-        <v>4062953.00883467</v>
+        <v>3250362.407067739</v>
       </c>
       <c r="E390" t="n">
-        <v>2571887.944245342</v>
+        <v>2057510.355396275</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>12434934.98458341</v>
+        <v>9947947.987666722</v>
       </c>
       <c r="C391" t="n">
-        <v>6290451.504996429</v>
+        <v>5032361.203997148</v>
       </c>
       <c r="D391" t="n">
-        <v>4062923.361271887</v>
+        <v>3250338.689017513</v>
       </c>
       <c r="E391" t="n">
-        <v>2904748.143364347</v>
+        <v>2323798.514691479</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>12415805.69312375</v>
+        <v>9932644.554498993</v>
       </c>
       <c r="C392" t="n">
-        <v>6289987.725540474</v>
+        <v>5031990.180432383</v>
       </c>
       <c r="D392" t="n">
-        <v>4062888.487078526</v>
+        <v>3250310.789662824</v>
       </c>
       <c r="E392" t="n">
-        <v>3240000.131740503</v>
+        <v>2592000.105392404</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>12395677.39652522</v>
+        <v>9916541.91722017</v>
       </c>
       <c r="C393" t="n">
-        <v>6289464.250134156</v>
+        <v>5031571.400107329</v>
       </c>
       <c r="D393" t="n">
-        <v>4062847.533811599</v>
+        <v>3250278.027049283</v>
       </c>
       <c r="E393" t="n">
-        <v>3239996.129917351</v>
+        <v>2591996.903933883</v>
       </c>
       <c r="F393" t="n">
-        <v>547933.0601303293</v>
+        <v>438346.448104264</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>12374508.73674475</v>
+        <v>9899606.989395795</v>
       </c>
       <c r="C394" t="n">
-        <v>6288874.178101831</v>
+        <v>5031099.342481468</v>
       </c>
       <c r="D394" t="n">
-        <v>4062799.522714181</v>
+        <v>3250239.618171349</v>
       </c>
       <c r="E394" t="n">
-        <v>3239991.283092604</v>
+        <v>2591993.026474085</v>
       </c>
       <c r="F394" t="n">
-        <v>1099610.008755994</v>
+        <v>879688.0070047961</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>12352257.367959</v>
+        <v>9881805.894367196</v>
       </c>
       <c r="C395" t="n">
-        <v>6288209.919989699</v>
+        <v>5030567.935991763</v>
       </c>
       <c r="D395" t="n">
-        <v>4062743.332213376</v>
+        <v>3250194.665770704</v>
       </c>
       <c r="E395" t="n">
-        <v>3239985.423990393</v>
+        <v>2591988.339192316</v>
       </c>
       <c r="F395" t="n">
-        <v>1654960.469973373</v>
+        <v>1323968.3759787</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>12328879.98551037</v>
+        <v>9863103.988408288</v>
       </c>
       <c r="C396" t="n">
-        <v>6287463.143055403</v>
+        <v>5029970.514444326</v>
       </c>
       <c r="D396" t="n">
-        <v>4062677.679625983</v>
+        <v>3250142.143700789</v>
       </c>
       <c r="E396" t="n">
-        <v>3239978.354651953</v>
+        <v>2591982.683721565</v>
       </c>
       <c r="F396" t="n">
-        <v>2213913.708369231</v>
+        <v>1771130.966695387</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>12304332.35990492</v>
+        <v>9843465.88792393</v>
       </c>
       <c r="C397" t="n">
-        <v>6286624.714210958</v>
+        <v>5029299.771368772</v>
       </c>
       <c r="D397" t="n">
-        <v>4062601.100933811</v>
+        <v>3250080.880747052</v>
       </c>
       <c r="E397" t="n">
-        <v>3239969.841311184</v>
+        <v>2591975.873048948</v>
       </c>
       <c r="F397" t="n">
-        <v>2776398.819625478</v>
+        <v>2221119.055700385</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>12278569.37613016</v>
+        <v>9822855.500904121</v>
       </c>
       <c r="C398" t="n">
-        <v>6285684.640521871</v>
+        <v>5028547.712417501</v>
       </c>
       <c r="D398" t="n">
-        <v>4062511.928488463</v>
+        <v>3250009.542790774</v>
       </c>
       <c r="E398" t="n">
-        <v>3239959.608513124</v>
+        <v>2591967.686810501</v>
       </c>
       <c r="F398" t="n">
-        <v>3342344.925498655</v>
+        <v>2673875.940398927</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>12251545.0785561</v>
+        <v>9801236.062844874</v>
       </c>
       <c r="C399" t="n">
-        <v>6284632.007400881</v>
+        <v>5027705.605920709</v>
       </c>
       <c r="D399" t="n">
-        <v>4062408.266504989</v>
+        <v>3249926.613203995</v>
       </c>
       <c r="E399" t="n">
-        <v>3239947.332381848</v>
+        <v>2591957.86590548</v>
       </c>
       <c r="F399" t="n">
-        <v>3911681.372684868</v>
+        <v>3129345.098147897</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>12223212.72167637</v>
+        <v>9778570.177341085</v>
       </c>
       <c r="C400" t="n">
-        <v>6283454.914673615</v>
+        <v>5026763.931738896</v>
       </c>
       <c r="D400" t="n">
-        <v>4062287.964205022</v>
+        <v>3249830.371364021</v>
       </c>
       <c r="E400" t="n">
-        <v>3239932.632935881</v>
+        <v>2591946.106348705</v>
       </c>
       <c r="F400" t="n">
-        <v>4484337.935049198</v>
+        <v>3587470.348039361</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>12193524.82693726</v>
+        <v>9754819.861549798</v>
       </c>
       <c r="C401" t="n">
-        <v>6282140.410735238</v>
+        <v>5025712.328588195</v>
       </c>
       <c r="D401" t="n">
-        <v>4062148.586473336</v>
+        <v>3249718.869178672</v>
       </c>
       <c r="E401" t="n">
-        <v>3239915.065340803</v>
+        <v>2591932.052272643</v>
       </c>
       <c r="F401" t="n">
-        <v>5060245.018668693</v>
+        <v>4048196.014934958</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>12162433.24589104</v>
+        <v>9729946.596712831</v>
       </c>
       <c r="C402" t="n">
-        <v>6280674.425062056</v>
+        <v>5024539.540049649</v>
       </c>
       <c r="D402" t="n">
-        <v>4061987.381897448</v>
+        <v>3249589.90551796</v>
       </c>
       <c r="E402" t="n">
-        <v>3239894.109980078</v>
+        <v>2591915.287984065</v>
       </c>
       <c r="F402" t="n">
-        <v>5639333.869104097</v>
+        <v>4511467.095283284</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>12129889.22989558</v>
+        <v>9703911.383916456</v>
       </c>
       <c r="C403" t="n">
-        <v>6279041.699389647</v>
+        <v>5023233.359511722</v>
       </c>
       <c r="D403" t="n">
-        <v>4061801.248068112</v>
+        <v>3249440.998454493</v>
       </c>
       <c r="E403" t="n">
-        <v>3239869.161216666</v>
+        <v>2591895.328973334</v>
       </c>
       <c r="F403" t="n">
-        <v>5639328.928955385</v>
+        <v>4511463.143164313</v>
       </c>
       <c r="G403" t="n">
-        <v>999329.6854957336</v>
+        <v>1209188.919449838</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>12095843.50656524</v>
+        <v>9676674.805252183</v>
       </c>
       <c r="C404" t="n">
-        <v>6277225.717919379</v>
+        <v>5021780.574335506</v>
       </c>
       <c r="D404" t="n">
-        <v>4061586.694029937</v>
+        <v>3249269.355223952</v>
       </c>
       <c r="E404" t="n">
-        <v>3239839.514709642</v>
+        <v>2591871.611767715</v>
       </c>
       <c r="F404" t="n">
-        <v>5639322.8644127</v>
+        <v>4511458.291530166</v>
       </c>
       <c r="G404" t="n">
-        <v>2003892.370953069</v>
+        <v>2424709.768853213</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>12060246.36315813</v>
+        <v>9648197.090526495</v>
       </c>
       <c r="C405" t="n">
-        <v>6275208.63696758</v>
+        <v>5020166.909574068</v>
       </c>
       <c r="D405" t="n">
-        <v>4061339.799785746</v>
+        <v>3249071.8398286</v>
       </c>
       <c r="E405" t="n">
-        <v>3239804.353142216</v>
+        <v>2591843.482513775</v>
       </c>
       <c r="F405" t="n">
-        <v>5639315.435219114</v>
+        <v>4511452.348175297</v>
       </c>
       <c r="G405" t="n">
-        <v>3013576.934744317</v>
+        <v>3646428.091040623</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>12023047.73706135</v>
+        <v>9618438.189649077</v>
       </c>
       <c r="C406" t="n">
-        <v>6272971.214526127</v>
+        <v>5018376.971620906</v>
       </c>
       <c r="D406" t="n">
-        <v>4061056.172776513</v>
+        <v>3248844.938221213</v>
       </c>
       <c r="E406" t="n">
-        <v>3239762.730210228</v>
+        <v>2591810.184168184</v>
       </c>
       <c r="F406" t="n">
-        <v>5639306.353447286</v>
+        <v>4511445.082757833</v>
       </c>
       <c r="G406" t="n">
-        <v>4028275.217237662</v>
+        <v>4874213.012857571</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>11984197.31350982</v>
+        <v>9587357.850807853</v>
       </c>
       <c r="C407" t="n">
-        <v>6270492.740259099</v>
+        <v>5016394.192207282</v>
       </c>
       <c r="D407" t="n">
-        <v>4060730.901280573</v>
+        <v>3248584.721024461</v>
       </c>
       <c r="E407" t="n">
-        <v>3239713.552713784</v>
+        <v>2591770.84217103</v>
       </c>
       <c r="F407" t="n">
-        <v>5639295.274857135</v>
+        <v>4511436.219885712</v>
       </c>
       <c r="G407" t="n">
-        <v>5047882.39340258</v>
+        <v>6107937.696017122</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>11943644.63064441</v>
+        <v>9554915.704515519</v>
       </c>
       <c r="C408" t="n">
-        <v>6267750.966516995</v>
+        <v>5014200.7732136</v>
       </c>
       <c r="D408" t="n">
-        <v>4060358.504701931</v>
+        <v>3248286.803761548</v>
       </c>
       <c r="E408" t="n">
-        <v>3239655.560589509</v>
+        <v>2591724.448471609</v>
       </c>
       <c r="F408" t="n">
-        <v>5639281.788858715</v>
+        <v>4511425.431086976</v>
       </c>
       <c r="G408" t="n">
-        <v>6072297.344322637</v>
+        <v>7347479.786630391</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>11901339.19198233</v>
+        <v>9521071.353585854</v>
       </c>
       <c r="C409" t="n">
-        <v>6264722.04100736</v>
+        <v>5011777.632805893</v>
       </c>
       <c r="D409" t="n">
-        <v>4059932.880747937</v>
+        <v>3247946.304598353</v>
       </c>
       <c r="E409" t="n">
-        <v>3239587.304716968</v>
+        <v>2591669.843773575</v>
       </c>
       <c r="F409" t="n">
-        <v>5639265.40688942</v>
+        <v>4511412.325511541</v>
       </c>
       <c r="G409" t="n">
-        <v>7101423.026479859</v>
+        <v>8592721.86204063</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>11857230.58633651</v>
+        <v>9485784.469069198</v>
       </c>
       <c r="C410" t="n">
-        <v>6261380.441817606</v>
+        <v>5009104.353454089</v>
       </c>
       <c r="D410" t="n">
-        <v>4059447.249531619</v>
+        <v>3247557.799625298</v>
       </c>
       <c r="E410" t="n">
-        <v>3239507.122330841</v>
+        <v>2591605.697864674</v>
       </c>
       <c r="F410" t="n">
-        <v>5639245.548995031</v>
+        <v>4511396.43919603</v>
       </c>
       <c r="G410" t="n">
-        <v>8135166.837623404</v>
+        <v>9843551.873524318</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>11811268.61518084</v>
+        <v>9449014.89214466</v>
       </c>
       <c r="C411" t="n">
-        <v>6257698.915541899</v>
+        <v>5006159.132433522</v>
       </c>
       <c r="D411" t="n">
-        <v>4058894.094673744</v>
+        <v>3247115.275738998</v>
       </c>
       <c r="E411" t="n">
-        <v>3239413.109870505</v>
+        <v>2591530.487896406</v>
       </c>
       <c r="F411" t="n">
-        <v>5639221.52838356</v>
+        <v>4511377.222706852</v>
       </c>
       <c r="G411" t="n">
-        <v>9173440.977989187</v>
+        <v>11099863.58336692</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>11763403.42741553</v>
+        <v>9410722.741932416</v>
       </c>
       <c r="C412" t="n">
-        <v>6253648.419318225</v>
+        <v>5002918.735454584</v>
       </c>
       <c r="D412" t="n">
-        <v>4058265.101524307</v>
+        <v>3246612.081219449</v>
       </c>
       <c r="E412" t="n">
-        <v>3239303.093101287</v>
+        <v>2591442.474481032</v>
       </c>
       <c r="F412" t="n">
-        <v>5639192.533699811</v>
+        <v>4511354.026959852</v>
       </c>
       <c r="G412" t="n">
-        <v>10216162.80557838</v>
+        <v>12361556.99474985</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>11713585.66144077</v>
+        <v>9370868.529152604</v>
       </c>
       <c r="C413" t="n">
-        <v>6249198.06763332</v>
+        <v>4999358.454106659</v>
       </c>
       <c r="D413" t="n">
-        <v>4057551.092672628</v>
+        <v>3246040.874138106</v>
       </c>
       <c r="E413" t="n">
-        <v>3239174.594347239</v>
+        <v>2591339.675477793</v>
       </c>
       <c r="F413" t="n">
-        <v>5639157.608747042</v>
+        <v>4511326.086997638</v>
       </c>
       <c r="G413" t="n">
-        <v>10216155.95661702</v>
+        <v>12361548.70750659</v>
       </c>
       <c r="H413" t="n">
-        <v>997383.0446407206</v>
+        <v>1206833.484015272</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>11661766.59439742</v>
+        <v>9329413.275517931</v>
       </c>
       <c r="C414" t="n">
-        <v>6244315.084801174</v>
+        <v>4995452.067840942</v>
       </c>
       <c r="D414" t="n">
-        <v>4056741.960969589</v>
+        <v>3245393.568775675</v>
       </c>
       <c r="E414" t="n">
-        <v>3239024.79668418</v>
+        <v>2591219.837347345</v>
       </c>
       <c r="F414" t="n">
-        <v>5639115.629360616</v>
+        <v>4511292.503488497</v>
       </c>
       <c r="G414" t="n">
-        <v>10216147.45734638</v>
+        <v>12361538.42338912</v>
       </c>
       <c r="H414" t="n">
-        <v>1998862.792524885</v>
+        <v>2418623.978955111</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>11607898.29838188</v>
+        <v>9286318.638705494</v>
       </c>
       <c r="C415" t="n">
-        <v>6238964.764064321</v>
+        <v>4991171.811251462</v>
       </c>
       <c r="D415" t="n">
-        <v>4055826.600344611</v>
+        <v>3244661.280275693</v>
       </c>
       <c r="E415" t="n">
-        <v>3238850.504954492</v>
+        <v>2591080.403963595</v>
       </c>
       <c r="F415" t="n">
-        <v>5639065.277117373</v>
+        <v>4511252.221693905</v>
       </c>
       <c r="G415" t="n">
-        <v>10216136.93408722</v>
+        <v>12361525.69024554</v>
       </c>
       <c r="H415" t="n">
-        <v>3004377.574296403</v>
+        <v>3635296.864898649</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>11551933.80338699</v>
+        <v>9241547.042709583</v>
       </c>
       <c r="C416" t="n">
-        <v>6233110.434304967</v>
+        <v>4986488.347443978</v>
       </c>
       <c r="D416" t="n">
-        <v>4054792.83476352</v>
+        <v>3243834.26781082</v>
       </c>
       <c r="E416" t="n">
-        <v>3238648.103482097</v>
+        <v>2590918.482785679</v>
       </c>
       <c r="F416" t="n">
-        <v>5639005.009544143</v>
+        <v>4511204.00763532</v>
       </c>
       <c r="G416" t="n">
-        <v>10216123.93447644</v>
+        <v>12361509.96071649</v>
       </c>
       <c r="H416" t="n">
-        <v>4013871.978856502</v>
+        <v>4856785.094416368</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>11493827.26666412</v>
+        <v>9195061.813331293</v>
       </c>
       <c r="C417" t="n">
-        <v>6226713.435384322</v>
+        <v>4981370.748307463</v>
       </c>
       <c r="D417" t="n">
-        <v>4053627.345741164</v>
+        <v>3242901.876592935</v>
       </c>
       <c r="E417" t="n">
-        <v>3238413.510387682</v>
+        <v>2590730.808310147</v>
       </c>
       <c r="F417" t="n">
-        <v>5638933.026469867</v>
+        <v>4511146.421175899</v>
       </c>
       <c r="G417" t="n">
-        <v>10216107.91229236</v>
+        <v>12361490.57387375</v>
       </c>
       <c r="H417" t="n">
-        <v>5027297.157387884</v>
+        <v>6083029.56043934</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>11433534.14814179</v>
+        <v>9146827.318513423</v>
       </c>
       <c r="C418" t="n">
-        <v>6219733.103152033</v>
+        <v>4975786.482521631</v>
       </c>
       <c r="D418" t="n">
-        <v>4052315.5988941</v>
+        <v>3241852.479115283</v>
       </c>
       <c r="E418" t="n">
-        <v>3238142.128430956</v>
+        <v>2590513.702744767</v>
       </c>
       <c r="F418" t="n">
-        <v>5638847.232148952</v>
+        <v>4511077.785719167</v>
       </c>
       <c r="G418" t="n">
-        <v>10216088.2096637</v>
+        <v>12361466.73369308</v>
       </c>
       <c r="H418" t="n">
-        <v>6044611.115497725</v>
+        <v>7313979.449752247</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>11371011.39147518</v>
+        <v>9096809.113180138</v>
       </c>
       <c r="C419" t="n">
-        <v>6212126.765182451</v>
+        <v>4969701.412145964</v>
       </c>
       <c r="D419" t="n">
-        <v>4050841.77009322</v>
+        <v>3240673.41607458</v>
       </c>
       <c r="E419" t="n">
-        <v>3237828.792338941</v>
+        <v>2590263.033871154</v>
       </c>
       <c r="F419" t="n">
-        <v>5638745.19276931</v>
+        <v>4510996.154215452</v>
       </c>
       <c r="G419" t="n">
-        <v>10216064.03627614</v>
+        <v>12361437.48389413</v>
       </c>
       <c r="H419" t="n">
-        <v>7065778.99212087</v>
+        <v>8549592.580466252</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>11306217.61023838</v>
+        <v>9044974.088190699</v>
       </c>
       <c r="C420" t="n">
-        <v>6203849.748299356</v>
+        <v>4963079.798639488</v>
       </c>
       <c r="D420" t="n">
-        <v>4049188.671853259</v>
+        <v>3239350.93748261</v>
       </c>
       <c r="E420" t="n">
-        <v>3237467.712617326</v>
+        <v>2589974.170093863</v>
       </c>
       <c r="F420" t="n">
-        <v>5638624.088947972</v>
+        <v>4510899.271158383</v>
       </c>
       <c r="G420" t="n">
-        <v>10216034.44514672</v>
+        <v>12361401.67862753</v>
       </c>
       <c r="H420" t="n">
-        <v>8090773.3237717</v>
+        <v>9789835.721763756</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>11239113.27870739</v>
+        <v>8991290.622965904</v>
       </c>
       <c r="C421" t="n">
-        <v>6194855.398944898</v>
+        <v>4955884.319155921</v>
       </c>
       <c r="D421" t="n">
-        <v>4047337.680674738</v>
+        <v>3237870.144539794</v>
       </c>
       <c r="E421" t="n">
-        <v>3237052.415886107</v>
+        <v>2589641.932708887</v>
       </c>
       <c r="F421" t="n">
-        <v>5638480.662811152</v>
+        <v>4510784.530248925</v>
       </c>
       <c r="G421" t="n">
-        <v>10215998.30448963</v>
+        <v>12361357.94843245</v>
       </c>
       <c r="H421" t="n">
-        <v>9119574.292677579</v>
+        <v>11034684.89413987</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>11169660.92661786</v>
+        <v>8935728.741294276</v>
       </c>
       <c r="C422" t="n">
-        <v>6185095.117430619</v>
+        <v>4948076.093944498</v>
       </c>
       <c r="D422" t="n">
-        <v>4045268.666133251</v>
+        <v>3236214.932906603</v>
       </c>
       <c r="E422" t="n">
-        <v>3236575.68183127</v>
+        <v>2589260.545465018</v>
       </c>
       <c r="F422" t="n">
-        <v>5638311.159254882</v>
+        <v>4510648.927403912</v>
       </c>
       <c r="G422" t="n">
-        <v>10215954.26514854</v>
+        <v>12361304.66082974</v>
       </c>
       <c r="H422" t="n">
-        <v>10152169.95726554</v>
+        <v>12284125.6482913</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>11097825.33721763</v>
+        <v>8878260.269774098</v>
       </c>
       <c r="C423" t="n">
-        <v>6174518.407077895</v>
+        <v>4939614.72566232</v>
       </c>
       <c r="D423" t="n">
-        <v>4042959.922589784</v>
+        <v>3234367.938071831</v>
       </c>
       <c r="E423" t="n">
-        <v>3236029.476921326</v>
+        <v>2588823.581537062</v>
       </c>
       <c r="F423" t="n">
-        <v>5638111.260988405</v>
+        <v>4510489.008790729</v>
       </c>
       <c r="G423" t="n">
-        <v>10215900.72302018</v>
+        <v>12361239.87485442</v>
       </c>
       <c r="H423" t="n">
-        <v>11188556.46341213</v>
+        <v>13538153.32072868</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>11023573.74787029</v>
+        <v>8818858.998296224</v>
       </c>
       <c r="C424" t="n">
-        <v>6163072.939210838</v>
+        <v>4930458.351368675</v>
       </c>
       <c r="D424" t="n">
-        <v>4040388.104473016</v>
+        <v>3232310.483578416</v>
       </c>
       <c r="E424" t="n">
-        <v>3235404.885101112</v>
+        <v>2588323.908080891</v>
       </c>
       <c r="F424" t="n">
-        <v>5637876.01697581</v>
+        <v>4510300.813580653</v>
       </c>
       <c r="G424" t="n">
-        <v>10215835.77584281</v>
+        <v>12361161.28876981</v>
       </c>
       <c r="H424" t="n">
-        <v>12228738.23479548</v>
+        <v>14796773.26410253</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>10946876.05240372</v>
+        <v>8757500.841922978</v>
       </c>
       <c r="C425" t="n">
-        <v>6150704.634906152</v>
+        <v>4920563.707924926</v>
       </c>
       <c r="D425" t="n">
-        <v>4037528.166158604</v>
+        <v>3230022.532926886</v>
       </c>
       <c r="E425" t="n">
-        <v>3234692.035745357</v>
+        <v>2587753.628596287</v>
       </c>
       <c r="F425" t="n">
-        <v>5637599.763913903</v>
+        <v>4510079.811131128</v>
       </c>
       <c r="G425" t="n">
-        <v>10215757.17367182</v>
+        <v>12361066.1801429</v>
       </c>
       <c r="H425" t="n">
-        <v>13272728.1406202</v>
+        <v>16060001.05015045</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>10867705.00433721</v>
+        <v>8694164.003469763</v>
       </c>
       <c r="C426" t="n">
-        <v>6137357.764330816</v>
+        <v>4909886.211464657</v>
       </c>
       <c r="D426" t="n">
-        <v>4034353.307540144</v>
+        <v>3227482.646032118</v>
       </c>
       <c r="E426" t="n">
-        <v>3233880.029230846</v>
+        <v>2587104.023384678</v>
       </c>
       <c r="F426" t="n">
-        <v>5637276.040416468</v>
+        <v>4509820.832333179</v>
       </c>
       <c r="G426" t="n">
-        <v>10215662.26231411</v>
+        <v>12360951.33740007</v>
       </c>
       <c r="H426" t="n">
-        <v>14320547.63890641</v>
+        <v>17327862.64307676</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>10786036.42006192</v>
+        <v>8628829.136049533</v>
       </c>
       <c r="C427" t="n">
-        <v>6122975.064409602</v>
+        <v>4898380.051527685</v>
       </c>
       <c r="D427" t="n">
-        <v>4030834.926449975</v>
+        <v>3224667.941159983</v>
       </c>
       <c r="E427" t="n">
-        <v>3232956.860568285</v>
+        <v>2586365.48845463</v>
       </c>
       <c r="F427" t="n">
-        <v>5636897.493618607</v>
+        <v>4509517.99489489</v>
       </c>
       <c r="G427" t="n">
-        <v>10215547.91894458</v>
+        <v>12360812.98192295</v>
       </c>
       <c r="H427" t="n">
-        <v>15372226.89345749</v>
+        <v>18600394.54108357</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>10701849.38099528</v>
+        <v>8561479.50479622</v>
       </c>
       <c r="C428" t="n">
-        <v>6107497.875459751</v>
+        <v>4885998.300367804</v>
       </c>
       <c r="D428" t="n">
-        <v>4026942.579143875</v>
+        <v>3221554.063315103</v>
       </c>
       <c r="E428" t="n">
-        <v>3231909.341622611</v>
+        <v>2585527.473298091</v>
       </c>
       <c r="F428" t="n">
-        <v>5636455.777970786</v>
+        <v>4509164.622376634</v>
       </c>
       <c r="G428" t="n">
-        <v>10215410.47908301</v>
+        <v>12360646.67969045</v>
       </c>
       <c r="H428" t="n">
-        <v>16427804.862538</v>
+        <v>19877643.88367098</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>10615126.43367766</v>
+        <v>8492101.14694212</v>
       </c>
       <c r="C429" t="n">
-        <v>6090866.297309844</v>
+        <v>4872693.037847879</v>
       </c>
       <c r="D429" t="n">
-        <v>4022643.950109972</v>
+        <v>3218115.160087981</v>
       </c>
       <c r="E429" t="n">
-        <v>3230723.022542791</v>
+        <v>2584578.418034235</v>
       </c>
       <c r="F429" t="n">
-        <v>5635941.446061518</v>
+        <v>4508753.156849219</v>
       </c>
       <c r="G429" t="n">
-        <v>10215245.6540698</v>
+        <v>12360447.24142447</v>
       </c>
       <c r="H429" t="n">
-        <v>17487329.35720627</v>
+        <v>21159668.52221959</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>10525853.78673356</v>
+        <v>8420683.029386841</v>
       </c>
       <c r="C430" t="n">
-        <v>6073019.365283904</v>
+        <v>4858415.492227126</v>
       </c>
       <c r="D430" t="n">
-        <v>4017904.832497385</v>
+        <v>3214323.865997911</v>
       </c>
       <c r="E430" t="n">
-        <v>3229382.11311831</v>
+        <v>2583505.690494649</v>
       </c>
       <c r="F430" t="n">
-        <v>5635343.831391701</v>
+        <v>4508275.065113367</v>
       </c>
       <c r="G430" t="n">
-        <v>10215048.43814639</v>
+        <v>12360208.61015713</v>
       </c>
       <c r="H430" t="n">
-        <v>18550857.06716072</v>
+        <v>22446537.05126447</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>10434021.50357744</v>
+        <v>8347217.202861949</v>
       </c>
       <c r="C431" t="n">
-        <v>6053895.24628059</v>
+        <v>4843116.197024476</v>
       </c>
       <c r="D431" t="n">
-        <v>4012689.120482227</v>
+        <v>3210151.296385785</v>
       </c>
       <c r="E431" t="n">
-        <v>3227869.404878273</v>
+        <v>2582295.52390262</v>
       </c>
       <c r="F431" t="n">
-        <v>5634650.923123046</v>
+        <v>4507720.738498442</v>
       </c>
       <c r="G431" t="n">
-        <v>10214813.00422235</v>
+        <v>12359923.73510904</v>
       </c>
       <c r="H431" t="n">
-        <v>19618453.55186832</v>
+        <v>23738328.79776066</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>10339623.6897086</v>
+        <v>8271698.951766877</v>
       </c>
       <c r="C432" t="n">
-        <v>6033431.455011561</v>
+        <v>4826745.164009253</v>
       </c>
       <c r="D432" t="n">
-        <v>4006958.814896057</v>
+        <v>3205567.051916848</v>
       </c>
       <c r="E432" t="n">
-        <v>3226166.194849382</v>
+        <v>2580932.955879507</v>
       </c>
       <c r="F432" t="n">
-        <v>5633849.232938838</v>
+        <v>4507079.386351076</v>
       </c>
       <c r="G432" t="n">
-        <v>10214532.58739918</v>
+        <v>12359584.43075301</v>
       </c>
       <c r="H432" t="n">
-        <v>20690193.19465396</v>
+        <v>25035133.76553131</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>10242658.67341016</v>
+        <v>8194126.938728127</v>
       </c>
       <c r="C433" t="n">
-        <v>6011565.090283418</v>
+        <v>4809252.072226739</v>
       </c>
       <c r="D433" t="n">
-        <v>4000674.04343289</v>
+        <v>3200539.234746315</v>
       </c>
       <c r="E433" t="n">
-        <v>3224252.211989036</v>
+        <v>2579401.769591231</v>
       </c>
       <c r="F433" t="n">
-        <v>5632923.654287852</v>
+        <v>4506338.923430287</v>
       </c>
       <c r="G433" t="n">
-        <v>10214199.35532242</v>
+        <v>12359181.21994013</v>
       </c>
       <c r="H433" t="n">
-        <v>21766159.1173418</v>
+        <v>26337052.53198357</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>10143129.17864506</v>
+        <v>8114503.342916041</v>
       </c>
       <c r="C434" t="n">
-        <v>5988233.091015428</v>
+        <v>4790586.472812346</v>
       </c>
       <c r="D434" t="n">
-        <v>3993793.096723889</v>
+        <v>3195034.477379113</v>
       </c>
       <c r="E434" t="n">
-        <v>3222105.547408275</v>
+        <v>2577684.437926621</v>
       </c>
       <c r="F434" t="n">
-        <v>5631857.314431908</v>
+        <v>4505485.85154553</v>
       </c>
       <c r="G434" t="n">
-        <v>10213804.26445258</v>
+        <v>12358703.15998762</v>
       </c>
       <c r="H434" t="n">
-        <v>22846443.05295034</v>
+        <v>27644196.09406992</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>10041042.48892728</v>
+        <v>8032833.99114182</v>
       </c>
       <c r="C435" t="n">
-        <v>5963372.511481693</v>
+        <v>4770698.00918536</v>
       </c>
       <c r="D435" t="n">
-        <v>3986272.481522406</v>
+        <v>3189017.985217927</v>
       </c>
       <c r="E435" t="n">
-        <v>3219702.589593881</v>
+        <v>2575762.071675106</v>
       </c>
       <c r="F435" t="n">
-        <v>5630631.419884397</v>
+        <v>4504505.135907521</v>
       </c>
       <c r="G435" t="n">
-        <v>10213336.90138327</v>
+        <v>12358137.65067376</v>
       </c>
       <c r="H435" t="n">
-        <v>23931145.17386251</v>
+        <v>28956685.66037365</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>9936410.600940641</v>
+        <v>7949128.480752507</v>
       </c>
       <c r="C436" t="n">
-        <v>5936920.815053261</v>
+        <v>4749536.652042612</v>
       </c>
       <c r="D436" t="n">
-        <v>3978066.992174907</v>
+        <v>3182453.593739928</v>
       </c>
       <c r="E436" t="n">
-        <v>3217017.96592797</v>
+        <v>2573614.372742377</v>
       </c>
       <c r="F436" t="n">
-        <v>5629225.096010565</v>
+        <v>4503380.076808458</v>
       </c>
       <c r="G436" t="n">
-        <v>10212785.30839615</v>
+        <v>12357470.22315934</v>
       </c>
       <c r="H436" t="n">
-        <v>25020373.87281014</v>
+        <v>30274652.38610028</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>9829250.366679834</v>
+        <v>7863400.293343861</v>
       </c>
       <c r="C437" t="n">
-        <v>5908816.185494731</v>
+        <v>4727052.94839579</v>
       </c>
       <c r="D437" t="n">
-        <v>3969129.801464257</v>
+        <v>3175303.841171409</v>
       </c>
       <c r="E437" t="n">
-        <v>3214024.491884392</v>
+        <v>2571219.593507514</v>
       </c>
       <c r="F437" t="n">
-        <v>5627615.221759757</v>
+        <v>4502092.17740781</v>
       </c>
       <c r="G437" t="n">
-        <v>10212135.79252854</v>
+        <v>12356684.30895954</v>
       </c>
       <c r="H437" t="n">
-        <v>26114245.49394601</v>
+        <v>31598237.04767467</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>9719583.622900531</v>
+        <v>7775666.898320422</v>
       </c>
       <c r="C438" t="n">
-        <v>5878997.854643555</v>
+        <v>4703198.283714848</v>
       </c>
       <c r="D438" t="n">
-        <v>3959412.571800275</v>
+        <v>3167530.057440223</v>
       </c>
       <c r="E438" t="n">
-        <v>3210693.129352044</v>
+        <v>2568554.503481637</v>
       </c>
       <c r="F438" t="n">
-        <v>5625776.260713921</v>
+        <v>4500621.008571141</v>
       </c>
       <c r="G438" t="n">
-        <v>10211372.71754512</v>
+        <v>12355760.98822959</v>
       </c>
       <c r="H438" t="n">
-        <v>27212884.01121197</v>
+        <v>32927589.65356649</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>9607437.306686671</v>
+        <v>7685949.845349334</v>
       </c>
       <c r="C439" t="n">
-        <v>5847406.445070366</v>
+        <v>4677925.156056298</v>
       </c>
       <c r="D439" t="n">
-        <v>3948865.587597711</v>
+        <v>3159092.470078172</v>
       </c>
       <c r="E439" t="n">
-        <v>3206992.955593222</v>
+        <v>2565594.364474579</v>
       </c>
       <c r="F439" t="n">
-        <v>5623680.089863709</v>
+        <v>4498944.071890973</v>
       </c>
       <c r="G439" t="n">
-        <v>10210478.27835205</v>
+        <v>12354678.71680598</v>
       </c>
       <c r="H439" t="n">
-        <v>28316420.6511682</v>
+        <v>34262868.98791353</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>9492843.555974679</v>
+        <v>7594274.844779739</v>
       </c>
       <c r="C440" t="n">
-        <v>5813984.326088584</v>
+        <v>4651187.460870871</v>
       </c>
       <c r="D440" t="n">
-        <v>3937437.909523737</v>
+        <v>3149950.327618993</v>
       </c>
       <c r="E440" t="n">
-        <v>3202891.144387967</v>
+        <v>2562312.915510375</v>
       </c>
       <c r="F440" t="n">
-        <v>5621295.827761173</v>
+        <v>4497036.662208944</v>
       </c>
       <c r="G440" t="n">
-        <v>10209432.25757374</v>
+        <v>12353413.03166422</v>
       </c>
       <c r="H440" t="n">
-        <v>29424993.45741284</v>
+        <v>35604242.08346953</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>9375839.793915791</v>
+        <v>7500671.835132624</v>
       </c>
       <c r="C441" t="n">
-        <v>5778675.981253292</v>
+        <v>4622940.785002638</v>
       </c>
       <c r="D441" t="n">
-        <v>3925077.55111595</v>
+        <v>3140062.040892763</v>
       </c>
       <c r="E441" t="n">
-        <v>3198352.960940557</v>
+        <v>2558682.368752447</v>
       </c>
       <c r="F441" t="n">
-        <v>5618589.663943524</v>
+        <v>4494871.731154825</v>
       </c>
       <c r="G441" t="n">
-        <v>10208211.76423088</v>
+        <v>12351936.23471937</v>
       </c>
       <c r="H441" t="n">
-        <v>30538746.79371208</v>
+        <v>36951883.62039163</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>9256468.796009673</v>
+        <v>7405175.036807732</v>
       </c>
       <c r="C442" t="n">
-        <v>5741428.385266496</v>
+        <v>4593142.708213201</v>
       </c>
       <c r="D442" t="n">
-        <v>3911731.678068162</v>
+        <v>3129385.342454532</v>
       </c>
       <c r="E442" t="n">
-        <v>3193341.772129214</v>
+        <v>2554673.417703373</v>
       </c>
       <c r="F442" t="n">
-        <v>5615524.691772467</v>
+        <v>4492419.753417979</v>
       </c>
       <c r="G442" t="n">
-        <v>10206790.9547168</v>
+        <v>12350217.05520733</v>
       </c>
       <c r="H442" t="n">
-        <v>31657830.78297016</v>
+        <v>38305975.2473939</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>9134778.739004539</v>
+        <v>7307822.99120363</v>
       </c>
       <c r="C443" t="n">
-        <v>5702191.387991041</v>
+        <v>4561753.110392837</v>
       </c>
       <c r="D443" t="n">
-        <v>3897346.830256198</v>
+        <v>3117877.464204961</v>
       </c>
       <c r="E443" t="n">
-        <v>3187819.073662595</v>
+        <v>2550255.258930077</v>
       </c>
       <c r="F443" t="n">
-        <v>5612060.747083863</v>
+        <v>4489648.597667096</v>
       </c>
       <c r="G443" t="n">
-        <v>10205140.73656759</v>
+        <v>12348220.29124679</v>
       </c>
       <c r="H443" t="n">
-        <v>32782400.67920551</v>
+        <v>39666704.82183868</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>9010823.230631426</v>
+        <v>7208658.584505136</v>
       </c>
       <c r="C444" t="n">
-        <v>5660918.103072029</v>
+        <v>4528734.482457626</v>
       </c>
       <c r="D444" t="n">
-        <v>3881869.166330776</v>
+        <v>3105495.333064624</v>
       </c>
       <c r="E444" t="n">
-        <v>3181744.535664375</v>
+        <v>2545395.628531502</v>
       </c>
       <c r="F444" t="n">
-        <v>5608154.255288819</v>
+        <v>4486523.40423106</v>
       </c>
       <c r="G444" t="n">
-        <v>10203228.45586285</v>
+        <v>12345906.43159404</v>
       </c>
       <c r="H444" t="n">
-        <v>33912616.16977102</v>
+        <v>41034265.56542292</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>8884661.31932251</v>
+        <v>7107729.055458005</v>
       </c>
       <c r="C445" t="n">
-        <v>5617565.298475656</v>
+        <v>4494052.238780528</v>
       </c>
       <c r="D445" t="n">
-        <v>3865244.730441336</v>
+        <v>3092195.784353071</v>
       </c>
       <c r="E445" t="n">
-        <v>3175076.068138271</v>
+        <v>2540060.854510618</v>
       </c>
       <c r="F445" t="n">
-        <v>5603758.089804284</v>
+        <v>4483006.471843433</v>
       </c>
       <c r="G445" t="n">
-        <v>10201017.56947617</v>
+        <v>12343231.25906617</v>
       </c>
       <c r="H445" t="n">
-        <v>35048640.60516031</v>
+        <v>42408855.13224398</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>8756357.483155785</v>
+        <v>7005085.986524622</v>
       </c>
       <c r="C446" t="n">
-        <v>5572093.786084227</v>
+        <v>4457675.028867386</v>
       </c>
       <c r="D446" t="n">
-        <v>3847419.740375872</v>
+        <v>3077935.7923007</v>
       </c>
       <c r="E446" t="n">
-        <v>3167769.907668443</v>
+        <v>2534215.926134756</v>
       </c>
       <c r="F446" t="n">
-        <v>5598821.444913531</v>
+        <v>4479057.155930829</v>
       </c>
       <c r="G446" t="n">
-        <v>10198467.30381959</v>
+        <v>12340145.43762171</v>
       </c>
       <c r="H446" t="n">
-        <v>36190640.15388992</v>
+        <v>43790674.58620682</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>8625981.597369405</v>
+        <v>6900785.277895519</v>
       </c>
       <c r="C447" t="n">
-        <v>5524468.807335687</v>
+        <v>4419575.045868553</v>
       </c>
       <c r="D447" t="n">
-        <v>3828340.896110103</v>
+        <v>3062672.716888085</v>
       </c>
       <c r="E447" t="n">
-        <v>3159780.726583177</v>
+        <v>2527824.581266543</v>
       </c>
       <c r="F447" t="n">
-        <v>5593289.726358158</v>
+        <v>4474631.781086531</v>
       </c>
       <c r="G447" t="n">
-        <v>10195532.30218984</v>
+        <v>12336594.08564971</v>
       </c>
       <c r="H447" t="n">
-        <v>37338782.88013972</v>
+        <v>45179927.28496905</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>8493608.879899669</v>
+        <v>6794887.103919731</v>
       </c>
       <c r="C448" t="n">
-        <v>5474660.411769636</v>
+        <v>4379728.329415713</v>
       </c>
       <c r="D448" t="n">
-        <v>3807955.707458122</v>
+        <v>3046364.565966501</v>
       </c>
       <c r="E448" t="n">
-        <v>3151061.765651918</v>
+        <v>2520849.412521536</v>
       </c>
       <c r="F448" t="n">
-        <v>5587104.463137457</v>
+        <v>4469683.57050997</v>
       </c>
       <c r="G448" t="n">
-        <v>10192162.26332577</v>
+        <v>12332516.33862418</v>
       </c>
       <c r="H448" t="n">
-        <v>38493237.74207944</v>
+        <v>46576817.66791613</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>8359319.814514743</v>
+        <v>6687455.851611789</v>
       </c>
       <c r="C449" t="n">
-        <v>5422643.825242015</v>
+        <v>4338115.060193615</v>
       </c>
       <c r="D449" t="n">
-        <v>3786212.839209591</v>
+        <v>3028970.271367675</v>
       </c>
       <c r="E449" t="n">
-        <v>3141564.991196848</v>
+        <v>2513251.99295748</v>
       </c>
       <c r="F449" t="n">
-        <v>5580203.24413111</v>
+        <v>4464162.595304892</v>
       </c>
       <c r="G449" t="n">
-        <v>10188301.57431997</v>
+        <v>12327844.90492716</v>
       </c>
       <c r="H449" t="n">
-        <v>39654173.50911298</v>
+        <v>47981549.94602671</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>8223200.051242239</v>
+        <v>6578560.040993785</v>
       </c>
       <c r="C450" t="n">
-        <v>5368399.804500341</v>
+        <v>4294719.843600276</v>
       </c>
       <c r="D450" t="n">
-        <v>3763062.471829763</v>
+        <v>3010449.977463813</v>
       </c>
       <c r="E450" t="n">
-        <v>3131241.27728032</v>
+        <v>2504993.021824258</v>
       </c>
       <c r="F450" t="n">
-        <v>5572519.683260649</v>
+        <v>4458015.746608524</v>
       </c>
       <c r="G450" t="n">
-        <v>10183888.94158877</v>
+        <v>12322505.61932242</v>
       </c>
       <c r="H450" t="n">
-        <v>40821757.59663185</v>
+        <v>49394326.69192451</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>8085340.28392117</v>
+        <v>6468272.227136929</v>
       </c>
       <c r="C451" t="n">
-        <v>5311914.974772895</v>
+        <v>4249531.979818319</v>
       </c>
       <c r="D451" t="n">
-        <v>3738456.675492457</v>
+        <v>2990765.340393969</v>
       </c>
       <c r="E451" t="n">
-        <v>3120040.613379186</v>
+        <v>2496032.490703351</v>
       </c>
       <c r="F451" t="n">
-        <v>5563983.416957063</v>
+        <v>4451186.733565655</v>
       </c>
       <c r="G451" t="n">
-        <v>10178857.0241861</v>
+        <v>12316416.99926518</v>
       </c>
       <c r="H451" t="n">
-        <v>41996154.81730614</v>
+        <v>50815347.32894044</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>7945836.104846989</v>
+        <v>6356668.883877587</v>
       </c>
       <c r="C452" t="n">
-        <v>5253182.147020548</v>
+        <v>4202545.717616441</v>
       </c>
       <c r="D452" t="n">
-        <v>3712349.794917261</v>
+        <v>2969879.835933812</v>
       </c>
       <c r="E452" t="n">
-        <v>3107912.337677807</v>
+        <v>2486329.870142248</v>
       </c>
       <c r="F452" t="n">
-        <v>5554520.137699633</v>
+        <v>4443616.110159712</v>
       </c>
       <c r="G452" t="n">
-        <v>10173132.07433967</v>
+        <v>12309489.80995101</v>
       </c>
       <c r="H452" t="n">
-        <v>43177526.04844242</v>
+        <v>52244806.51861534</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>119057.0247609167</v>
+        <v>65481.36361850421</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>239964.1607867506</v>
+        <v>131980.2884327128</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>362752.7612145251</v>
+        <v>199514.0186679889</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>487454.5755184051</v>
+        <v>268100.0165351228</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>614101.73961314</v>
+        <v>337755.956787227</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>742726.7647071733</v>
+        <v>408499.7205889453</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>873362.524856342</v>
+        <v>480349.3886709881</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1006042.243169317</v>
+        <v>553323.2337431248</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1140799.476616415</v>
+        <v>627439.7121390284</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1277668.099394339</v>
+        <v>702717.4546668867</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1416682.284800202</v>
+        <v>779175.2566401114</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1557876.485569263</v>
+        <v>856832.0670630946</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1701285.412632397</v>
+        <v>935706.9769478184</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1846944.012250843</v>
+        <v>1015819.206737963</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1994887.441487608</v>
+        <v>1097188.092818185</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2145151.041977304</v>
+        <v>1179833.073087517</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2297770.311958337</v>
+        <v>1263773.671577085</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2452780.876534326</v>
+        <v>1349029.482093879</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2610218.45613473</v>
+        <v>1435620.150874101</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2770118.833147718</v>
+        <v>1523565.358231245</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2932517.816702396</v>
+        <v>1612884.799186318</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>3097451.205581078</v>
+        <v>1703598.163069593</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>3264954.749247102</v>
+        <v>1795725.112085907</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>3435064.106977909</v>
+        <v>1889285.25883785</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>3607814.805098396</v>
+        <v>1984298.142804117</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>3783242.192314845</v>
+        <v>2080783.205773165</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>3961381.393155337</v>
+        <v>2178759.766235435</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>4142267.259528635</v>
+        <v>2278246.99274075</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>4325934.320419876</v>
+        <v>2379263.876230933</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>4512416.729748082</v>
+        <v>2481829.201361445</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>4701748.212417338</v>
+        <v>2585961.516829535</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>4893962.00860098</v>
+        <v>2691679.104730538</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>5089090.816305477</v>
+        <v>2798999.948968013</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>5287166.732268589</v>
+        <v>2907941.702747724</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>5488221.191254448</v>
+        <v>3018521.655189948</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>5692284.903816411</v>
+        <v>3130756.697099026</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>5899387.792606882</v>
+        <v>3244663.285933785</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>6109558.927322261</v>
+        <v>3360257.410027244</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>6322826.458379387</v>
+        <v>3477554.552108664</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>6539217.549429007</v>
+        <v>3596569.652185955</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>6758758.308820537</v>
+        <v>3717317.069851296</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>6981473.720141179</v>
+        <v>3839810.546077649</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>7207387.571961397</v>
+        <v>3964063.164578768</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>7436522.386927142</v>
+        <v>4090087.312809929</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>7668899.350348308</v>
+        <v>4217894.64269157</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>7904538.238440602</v>
+        <v>4347496.031142332</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>8143457.346386834</v>
+        <v>4478901.540512758</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>8385673.416390686</v>
+        <v>4612120.379014878</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>8631201.565904206</v>
+        <v>4747160.861247314</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>8880055.216216648</v>
+        <v>4884030.368919155</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>9132246.021599254</v>
+        <v>5022735.311879589</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>9387783.799206275</v>
+        <v>5163281.08956345</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>9646676.45993812</v>
+        <v>5305672.052965964</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>9908929.940477069</v>
+        <v>5449911.467262389</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>10174548.13671014</v>
+        <v>5596001.475190577</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>10172529.05598572</v>
+        <v>5594890.980792143</v>
       </c>
       <c r="C358" t="n">
-        <v>307758.1073133817</v>
+        <v>169266.95902236</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>10170368.54804115</v>
+        <v>5593702.701422635</v>
       </c>
       <c r="C359" t="n">
-        <v>619499.4736159549</v>
+        <v>340724.7104887752</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>10168057.85849623</v>
+        <v>5592431.822172926</v>
       </c>
       <c r="C360" t="n">
-        <v>935231.0779582879</v>
+        <v>514377.0928770583</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>10165587.77679102</v>
+        <v>5591073.277235061</v>
       </c>
       <c r="C361" t="n">
-        <v>1254957.818173212</v>
+        <v>690226.7999952668</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>10162948.61841919</v>
+        <v>5589621.740130557</v>
       </c>
       <c r="C362" t="n">
-        <v>1578682.467071496</v>
+        <v>868275.3568893229</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>10160130.20688677</v>
+        <v>5588071.613787726</v>
       </c>
       <c r="C363" t="n">
-        <v>1906405.632028866</v>
+        <v>1048523.097615876</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>10157121.85542674</v>
+        <v>5586417.02048471</v>
       </c>
       <c r="C364" t="n">
-        <v>2238125.718178459</v>
+        <v>1230969.144998153</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>10153912.3485033</v>
+        <v>5584651.791676815</v>
       </c>
       <c r="C365" t="n">
-        <v>2573838.895413959</v>
+        <v>1415611.392477678</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>10150489.9231439</v>
+        <v>5582769.457729146</v>
       </c>
       <c r="C366" t="n">
-        <v>2913539.069399464</v>
+        <v>1602446.488169706</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>10146842.25014112</v>
+        <v>5580763.237577616</v>
       </c>
       <c r="C367" t="n">
-        <v>3257217.856771281</v>
+        <v>1791469.821224204</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>10142956.41517108</v>
+        <v>5578626.02834409</v>
       </c>
       <c r="C368" t="n">
-        <v>3604864.564703518</v>
+        <v>1982675.510586935</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>10138818.89987981</v>
+        <v>5576350.394933895</v>
       </c>
       <c r="C369" t="n">
-        <v>3956466.174996059</v>
+        <v>2176056.396247832</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>10134415.56299413</v>
+        <v>5573928.559646772</v>
       </c>
       <c r="C370" t="n">
-        <v>4312007.332826939</v>
+        <v>2371604.033054817</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>10129731.62151877</v>
+        <v>5571352.391835321</v>
       </c>
       <c r="C371" t="n">
-        <v>4671470.340294496</v>
+        <v>2569308.687161973</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>10124751.63208713</v>
+        <v>5568613.397647922</v>
       </c>
       <c r="C372" t="n">
-        <v>5034835.15485584</v>
+        <v>2769159.335170712</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>10119459.47253916</v>
+        <v>5565702.709896541</v>
       </c>
       <c r="C373" t="n">
-        <v>5034806.186129862</v>
+        <v>2769143.402371424</v>
       </c>
       <c r="D373" t="n">
-        <v>310662.1753031528</v>
+        <v>170864.196416734</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>10113838.32380556</v>
+        <v>5562611.078093058</v>
       </c>
       <c r="C374" t="n">
-        <v>5034772.665832156</v>
+        <v>2769124.966207686</v>
       </c>
       <c r="D374" t="n">
-        <v>624588.7477469285</v>
+        <v>343523.8112608107</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>10107870.65218443</v>
+        <v>5559328.858701437</v>
       </c>
       <c r="C375" t="n">
-        <v>5034733.928958879</v>
+        <v>2769103.660927384</v>
       </c>
       <c r="D375" t="n">
-        <v>941757.4113723619</v>
+        <v>517966.5762547991</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>10101538.19210286</v>
+        <v>5555846.005656574</v>
       </c>
       <c r="C376" t="n">
-        <v>5034689.221614764</v>
+        <v>2769079.071888121</v>
       </c>
       <c r="D376" t="n">
-        <v>1262143.989480048</v>
+        <v>694179.1942140267</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>10094821.92946305</v>
+        <v>5552152.061204674</v>
       </c>
       <c r="C377" t="n">
-        <v>5034637.69042585</v>
+        <v>2769050.729734218</v>
       </c>
       <c r="D377" t="n">
-        <v>1585722.463685448</v>
+        <v>872147.3550269965</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>10087702.08567954</v>
+        <v>5548236.147123748</v>
       </c>
       <c r="C378" t="n">
-        <v>5034578.370883407</v>
+        <v>2769018.103985874</v>
       </c>
       <c r="D378" t="n">
-        <v>1912465.008162292</v>
+        <v>1051855.754489261</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>10080158.10252182</v>
+        <v>5544086.956387001</v>
       </c>
       <c r="C379" t="n">
-        <v>5034510.174538377</v>
+        <v>2768980.595996107</v>
       </c>
       <c r="D379" t="n">
-        <v>2242342.02909031</v>
+        <v>1233288.11599967</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>10072168.62788365</v>
+        <v>5539692.745336011</v>
       </c>
       <c r="C380" t="n">
-        <v>5034431.874963222</v>
+        <v>2768937.531229772</v>
       </c>
       <c r="D380" t="n">
-        <v>2575322.209301596</v>
+        <v>1416427.215115878</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>10063711.50260858</v>
+        <v>5535041.326434718</v>
       </c>
       <c r="C381" t="n">
-        <v>5034342.092396313</v>
+        <v>2768888.150817973</v>
       </c>
       <c r="D381" t="n">
-        <v>2911372.55809713</v>
+        <v>1601254.906953421</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>10054763.74850856</v>
+        <v>5530120.061679706</v>
       </c>
       <c r="C382" t="n">
-        <v>5034239.276982707</v>
+        <v>2768831.602340488</v>
       </c>
       <c r="D382" t="n">
-        <v>3250458.466180942</v>
+        <v>1787752.156399518</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>10045301.55772058</v>
+        <v>5524915.856746318</v>
       </c>
       <c r="C383" t="n">
-        <v>5034121.690524735</v>
+        <v>2768766.929788603</v>
       </c>
       <c r="D383" t="n">
-        <v>3250452.374903067</v>
+        <v>1787748.806196687</v>
       </c>
       <c r="E383" t="n">
-        <v>249822.37023847</v>
+        <v>137402.3036311585</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>10035300.28355396</v>
+        <v>5519415.155954679</v>
       </c>
       <c r="C384" t="n">
-        <v>5033987.386656132</v>
+        <v>2768693.062660873</v>
       </c>
       <c r="D384" t="n">
-        <v>3250445.112970327</v>
+        <v>1787744.81213368</v>
       </c>
       <c r="E384" t="n">
-        <v>501808.4862480196</v>
+        <v>275994.6674364108</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>10024734.43298868</v>
+        <v>5513603.938143778</v>
       </c>
       <c r="C385" t="n">
-        <v>5033834.189354775</v>
+        <v>2768608.804145127</v>
       </c>
       <c r="D385" t="n">
-        <v>3250436.46987848</v>
+        <v>1787740.058433164</v>
       </c>
       <c r="E385" t="n">
-        <v>755929.958326377</v>
+        <v>415761.4770795074</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>10013577.66099286</v>
+        <v>5507467.713546076</v>
       </c>
       <c r="C386" t="n">
-        <v>5033659.669711494</v>
+        <v>2768512.818341322</v>
       </c>
       <c r="D386" t="n">
-        <v>3250426.20015709</v>
+        <v>1787734.4100864</v>
       </c>
       <c r="E386" t="n">
-        <v>1012157.43670915</v>
+        <v>556686.5901900323</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>10001802.76683474</v>
+        <v>5500991.521759108</v>
       </c>
       <c r="C387" t="n">
-        <v>5033461.120876133</v>
+        <v>2768403.616481873</v>
       </c>
       <c r="D387" t="n">
-        <v>3250414.018107891</v>
+        <v>1787727.70995934</v>
       </c>
       <c r="E387" t="n">
-        <v>1270460.672987545</v>
+        <v>698753.3701431496</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>9989381.692571802</v>
+        <v>5494159.930914491</v>
       </c>
       <c r="C388" t="n">
-        <v>5033235.531107023</v>
+        <v>2768279.542108863</v>
       </c>
       <c r="D388" t="n">
-        <v>3250399.591849334</v>
+        <v>1787719.775517134</v>
       </c>
       <c r="E388" t="n">
-        <v>1530808.585139557</v>
+        <v>959101.6981298429</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>9976285.523906209</v>
+        <v>5486957.038148414</v>
       </c>
       <c r="C389" t="n">
-        <v>5032979.554856616</v>
+        <v>2768138.755171139</v>
       </c>
       <c r="D389" t="n">
-        <v>3250382.536592449</v>
+        <v>1787710.395125847</v>
       </c>
       <c r="E389" t="n">
-        <v>1793169.326052397</v>
+        <v>1221462.945422024</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>9962484.493602222</v>
+        <v>5479366.471481224</v>
       </c>
       <c r="C390" t="n">
-        <v>5032689.481834263</v>
+        <v>2767979.215008844</v>
       </c>
       <c r="D390" t="n">
-        <v>3250362.407067739</v>
+        <v>1787699.323887257</v>
       </c>
       <c r="E390" t="n">
-        <v>2057510.355396275</v>
+        <v>1485804.590217003</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>9947947.987666722</v>
+        <v>5471371.393216697</v>
       </c>
       <c r="C391" t="n">
-        <v>5032361.203997148</v>
+        <v>2767798.662198431</v>
       </c>
       <c r="D391" t="n">
-        <v>3250338.689017513</v>
+        <v>1787686.278959632</v>
       </c>
       <c r="E391" t="n">
-        <v>2323798.514691479</v>
+        <v>1752093.496086891</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>9932644.554498993</v>
+        <v>5462954.504974447</v>
       </c>
       <c r="C392" t="n">
-        <v>5031990.180432383</v>
+        <v>2767594.599237811</v>
       </c>
       <c r="D392" t="n">
-        <v>3250310.789662824</v>
+        <v>1787670.934314553</v>
       </c>
       <c r="E392" t="n">
-        <v>2592000.105392404</v>
+        <v>2020295.990676462</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,16 +10646,16 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>9916541.91722017</v>
+        <v>5454098.054471095</v>
       </c>
       <c r="C393" t="n">
-        <v>5031571.400107329</v>
+        <v>2767364.270059031</v>
       </c>
       <c r="D393" t="n">
-        <v>3250278.027049283</v>
+        <v>1787652.914877105</v>
       </c>
       <c r="E393" t="n">
-        <v>2591996.903933883</v>
+        <v>2020293.88145875</v>
       </c>
       <c r="F393" t="n">
         <v>438346.448104264</v>
@@ -10672,16 +10672,16 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>9899606.989395795</v>
+        <v>5444783.844167685</v>
       </c>
       <c r="C394" t="n">
-        <v>5031099.342481468</v>
+        <v>2767104.638364808</v>
       </c>
       <c r="D394" t="n">
-        <v>3250239.618171349</v>
+        <v>1787631.789994242</v>
       </c>
       <c r="E394" t="n">
-        <v>2591993.026474085</v>
+        <v>2020291.321295334</v>
       </c>
       <c r="F394" t="n">
         <v>879688.0070047961</v>
@@ -10698,16 +10698,16 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>9881805.894367196</v>
+        <v>5434993.241901958</v>
       </c>
       <c r="C395" t="n">
-        <v>5030567.935991763</v>
+        <v>2766812.36479547</v>
       </c>
       <c r="D395" t="n">
-        <v>3250194.665770704</v>
+        <v>1787607.066173887</v>
       </c>
       <c r="E395" t="n">
-        <v>2591988.339192316</v>
+        <v>2020288.21967353</v>
       </c>
       <c r="F395" t="n">
         <v>1323968.3759787</v>
@@ -10724,16 +10724,16 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>9863103.988408288</v>
+        <v>5424707.193624559</v>
       </c>
       <c r="C396" t="n">
-        <v>5029970.514444326</v>
+        <v>2766483.782944379</v>
       </c>
       <c r="D396" t="n">
-        <v>3250142.143700789</v>
+        <v>1787578.179035434</v>
       </c>
       <c r="E396" t="n">
-        <v>2591982.683721565</v>
+        <v>2020284.469215675</v>
       </c>
       <c r="F396" t="n">
         <v>1771130.966695387</v>
@@ -10750,16 +10750,16 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>9843465.88792393</v>
+        <v>5413906.23835816</v>
       </c>
       <c r="C397" t="n">
-        <v>5029299.771368772</v>
+        <v>2766114.874252825</v>
       </c>
       <c r="D397" t="n">
-        <v>3250080.880747052</v>
+        <v>1787544.484410879</v>
       </c>
       <c r="E397" t="n">
-        <v>2591975.873048948</v>
+        <v>2020279.942810285</v>
       </c>
       <c r="F397" t="n">
         <v>2221119.055700385</v>
@@ -10776,16 +10776,16 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>9822855.500904121</v>
+        <v>5402570.525497267</v>
       </c>
       <c r="C398" t="n">
-        <v>5028547.712417501</v>
+        <v>2765701.241829626</v>
       </c>
       <c r="D398" t="n">
-        <v>3250009.542790774</v>
+        <v>1787505.248534926</v>
       </c>
       <c r="E398" t="n">
-        <v>2591967.686810501</v>
+        <v>2020274.490309659</v>
       </c>
       <c r="F398" t="n">
         <v>2673875.940398927</v>
@@ -10802,16 +10802,16 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>9801236.062844874</v>
+        <v>5390679.834564682</v>
       </c>
       <c r="C399" t="n">
-        <v>5027705.605920709</v>
+        <v>2765238.08325639</v>
       </c>
       <c r="D399" t="n">
-        <v>3249926.613203995</v>
+        <v>1787459.637262197</v>
       </c>
       <c r="E399" t="n">
-        <v>2591957.86590548</v>
+        <v>2020267.934738649</v>
       </c>
       <c r="F399" t="n">
         <v>3129345.098147897</v>
@@ -10828,16 +10828,16 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>9778570.177341085</v>
+        <v>5378213.5975376</v>
       </c>
       <c r="C400" t="n">
-        <v>5026763.931738896</v>
+        <v>2764720.162456393</v>
       </c>
       <c r="D400" t="n">
-        <v>3249830.371364021</v>
+        <v>1787406.704250211</v>
       </c>
       <c r="E400" t="n">
-        <v>2591946.106348705</v>
+        <v>2020260.067954117</v>
       </c>
       <c r="F400" t="n">
         <v>3587470.348039361</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>9754819.861549798</v>
+        <v>5365150.92385239</v>
       </c>
       <c r="C401" t="n">
-        <v>5025712.328588195</v>
+        <v>2764141.780723508</v>
       </c>
       <c r="D401" t="n">
-        <v>3249718.869178672</v>
+        <v>1787345.37804827</v>
       </c>
       <c r="E401" t="n">
-        <v>2591932.052272643</v>
+        <v>2020250.645689214</v>
       </c>
       <c r="F401" t="n">
         <v>4048196.014934958</v>
@@ -10880,16 +10880,16 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>9729946.596712831</v>
+        <v>5351470.628192056</v>
       </c>
       <c r="C402" t="n">
-        <v>5024539.540049649</v>
+        <v>2763496.747027306</v>
       </c>
       <c r="D402" t="n">
-        <v>3249589.90551796</v>
+        <v>1787274.448034879</v>
       </c>
       <c r="E402" t="n">
-        <v>2591915.287984065</v>
+        <v>2020239.381911124</v>
       </c>
       <c r="F402" t="n">
         <v>4511467.095283284</v>
@@ -10906,16 +10906,16 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>9703911.383916456</v>
+        <v>5337151.261154052</v>
       </c>
       <c r="C403" t="n">
-        <v>5023233.359511722</v>
+        <v>2762778.347731447</v>
       </c>
       <c r="D403" t="n">
-        <v>3249440.998454493</v>
+        <v>1787192.549149971</v>
       </c>
       <c r="E403" t="n">
-        <v>2591895.328973334</v>
+        <v>2020225.942415376</v>
       </c>
       <c r="F403" t="n">
         <v>4511463.143164313</v>
@@ -10932,16 +10932,16 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>9676674.805252183</v>
+        <v>5322171.142888703</v>
       </c>
       <c r="C404" t="n">
-        <v>5021780.574335506</v>
+        <v>2761979.315884529</v>
       </c>
       <c r="D404" t="n">
-        <v>3249269.355223952</v>
+        <v>1787098.145373174</v>
       </c>
       <c r="E404" t="n">
-        <v>2591871.611767715</v>
+        <v>2020209.937574353</v>
       </c>
       <c r="F404" t="n">
         <v>4511458.291530166</v>
@@ -10958,16 +10958,16 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>9648197.090526495</v>
+        <v>5306508.399789572</v>
       </c>
       <c r="C405" t="n">
-        <v>5020166.909574068</v>
+        <v>2761091.800265738</v>
       </c>
       <c r="D405" t="n">
-        <v>3249071.8398286</v>
+        <v>1786989.51190573</v>
       </c>
       <c r="E405" t="n">
-        <v>2591843.482513775</v>
+        <v>2020190.914152292</v>
       </c>
       <c r="F405" t="n">
         <v>4511452.348175297</v>
@@ -10984,16 +10984,16 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>9618438.189649077</v>
+        <v>5290141.004306991</v>
       </c>
       <c r="C406" t="n">
-        <v>5018376.971620906</v>
+        <v>2760107.334391498</v>
       </c>
       <c r="D406" t="n">
-        <v>3248844.938221213</v>
+        <v>1786864.716021667</v>
       </c>
       <c r="E406" t="n">
-        <v>2591810.184168184</v>
+        <v>2020168.346094012</v>
       </c>
       <c r="F406" t="n">
         <v>4511445.082757833</v>
@@ -11010,16 +11010,16 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>9587357.850807853</v>
+        <v>5273046.81794432</v>
       </c>
       <c r="C407" t="n">
-        <v>5016394.192207282</v>
+        <v>2759016.805714006</v>
       </c>
       <c r="D407" t="n">
-        <v>3248584.721024461</v>
+        <v>1786721.596563454</v>
       </c>
       <c r="E407" t="n">
-        <v>2591770.84217103</v>
+        <v>2020141.624189957</v>
       </c>
       <c r="F407" t="n">
         <v>4511436.219885712</v>
@@ -11036,16 +11036,16 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>9554915.704515519</v>
+        <v>5255203.637483535</v>
       </c>
       <c r="C408" t="n">
-        <v>5014200.7732136</v>
+        <v>2757810.42526748</v>
       </c>
       <c r="D408" t="n">
-        <v>3248286.803761548</v>
+        <v>1786557.742068851</v>
       </c>
       <c r="E408" t="n">
-        <v>2591724.448471609</v>
+        <v>2020110.044516112</v>
       </c>
       <c r="F408" t="n">
         <v>4511425.431086976</v>
@@ -11062,16 +11062,16 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>9521071.353585854</v>
+        <v>5236589.24447222</v>
       </c>
       <c r="C409" t="n">
-        <v>5011777.632805893</v>
+        <v>2756477.698043241</v>
       </c>
       <c r="D409" t="n">
-        <v>3247946.304598353</v>
+        <v>1786370.467529094</v>
       </c>
       <c r="E409" t="n">
-        <v>2591669.843773575</v>
+        <v>2020072.795543998</v>
       </c>
       <c r="F409" t="n">
         <v>4511412.325511541</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>9485784.469069198</v>
+        <v>5217181.457988061</v>
       </c>
       <c r="C410" t="n">
-        <v>5009104.353454089</v>
+        <v>2755007.394399749</v>
       </c>
       <c r="D410" t="n">
-        <v>3247557.799625298</v>
+        <v>1786156.789793915</v>
       </c>
       <c r="E410" t="n">
-        <v>2591605.697864674</v>
+        <v>2020028.943813648</v>
       </c>
       <c r="F410" t="n">
         <v>4511396.43919603</v>
@@ -11114,16 +11114,16 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>9449014.89214466</v>
+        <v>5196958.190679564</v>
       </c>
       <c r="C411" t="n">
-        <v>5006159.132433522</v>
+        <v>2753387.522838438</v>
       </c>
       <c r="D411" t="n">
-        <v>3247115.275738998</v>
+        <v>1785913.401656449</v>
       </c>
       <c r="E411" t="n">
-        <v>2591530.487896406</v>
+        <v>2019977.418061287</v>
       </c>
       <c r="F411" t="n">
         <v>4511377.222706852</v>
@@ -11140,16 +11140,16 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>9410722.741932416</v>
+        <v>5175897.508062832</v>
       </c>
       <c r="C412" t="n">
-        <v>5002918.735454584</v>
+        <v>2751605.304500022</v>
       </c>
       <c r="D412" t="n">
-        <v>3246612.081219449</v>
+        <v>1785636.644670697</v>
       </c>
       <c r="E412" t="n">
-        <v>2591442.474481032</v>
+        <v>2019916.991693674</v>
       </c>
       <c r="F412" t="n">
         <v>4511354.026959852</v>
@@ -11166,16 +11166,16 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>9370868.529152604</v>
+        <v>5153977.691033934</v>
       </c>
       <c r="C413" t="n">
-        <v>4999358.454106659</v>
+        <v>2749647.149758663</v>
       </c>
       <c r="D413" t="n">
-        <v>3246040.874138106</v>
+        <v>1785322.480775958</v>
       </c>
       <c r="E413" t="n">
-        <v>2591339.675477793</v>
+        <v>2019846.263503009</v>
       </c>
       <c r="F413" t="n">
         <v>4511326.086997638</v>
@@ -11192,16 +11192,16 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>9329413.275517931</v>
+        <v>5131177.301534862</v>
       </c>
       <c r="C414" t="n">
-        <v>4995452.067840942</v>
+        <v>2747498.637312518</v>
       </c>
       <c r="D414" t="n">
-        <v>3245393.568775675</v>
+        <v>1784966.462826621</v>
       </c>
       <c r="E414" t="n">
-        <v>2591219.837347345</v>
+        <v>2019763.636520157</v>
       </c>
       <c r="F414" t="n">
         <v>4511292.503488497</v>
@@ -11218,16 +11218,16 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>9286318.638705494</v>
+        <v>5107475.251288023</v>
       </c>
       <c r="C415" t="n">
-        <v>4991171.811251462</v>
+        <v>2745144.496188303</v>
       </c>
       <c r="D415" t="n">
-        <v>3244661.280275693</v>
+        <v>1784563.704151631</v>
       </c>
       <c r="E415" t="n">
-        <v>2591080.403963595</v>
+        <v>2019667.294910012</v>
       </c>
       <c r="F415" t="n">
         <v>4511252.221693905</v>
@@ -11244,16 +11244,16 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>9241547.042709583</v>
+        <v>5082850.873490271</v>
       </c>
       <c r="C416" t="n">
-        <v>4986488.347443978</v>
+        <v>2742568.591094188</v>
       </c>
       <c r="D416" t="n">
-        <v>3243834.26781082</v>
+        <v>1784108.847295951</v>
       </c>
       <c r="E416" t="n">
-        <v>2590918.482785679</v>
+        <v>2019555.178821421</v>
       </c>
       <c r="F416" t="n">
         <v>4511204.00763532</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>9195061.813331293</v>
+        <v>5057283.997332211</v>
       </c>
       <c r="C417" t="n">
-        <v>4981370.748307463</v>
+        <v>2739753.911569105</v>
       </c>
       <c r="D417" t="n">
-        <v>3242901.876592935</v>
+        <v>1783596.032126114</v>
       </c>
       <c r="E417" t="n">
-        <v>2590730.808310147</v>
+        <v>2019424.957115432</v>
       </c>
       <c r="F417" t="n">
         <v>4511146.421175899</v>
@@ -11296,16 +11296,16 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>9146827.318513423</v>
+        <v>5030755.025182384</v>
       </c>
       <c r="C418" t="n">
-        <v>4975786.482521631</v>
+        <v>2736682.565386898</v>
       </c>
       <c r="D418" t="n">
-        <v>3241852.479115283</v>
+        <v>1783018.863513406</v>
       </c>
       <c r="E418" t="n">
-        <v>2590513.702744767</v>
+        <v>2019273.997910105</v>
       </c>
       <c r="F418" t="n">
         <v>4511077.785719167</v>
@@ -11322,16 +11322,16 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>9096809.113180138</v>
+        <v>5003245.012249077</v>
       </c>
       <c r="C419" t="n">
-        <v>4969701.412145964</v>
+        <v>2733335.776680281</v>
       </c>
       <c r="D419" t="n">
-        <v>3240673.41607458</v>
+        <v>1782370.378841019</v>
       </c>
       <c r="E419" t="n">
-        <v>2590263.033871154</v>
+        <v>2019099.336897879</v>
       </c>
       <c r="F419" t="n">
         <v>4510996.154215452</v>
@@ -11348,16 +11348,16 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>9044974.088190699</v>
+        <v>4974735.748504885</v>
       </c>
       <c r="C420" t="n">
-        <v>4963079.798639488</v>
+        <v>2729693.889251719</v>
       </c>
       <c r="D420" t="n">
-        <v>3239350.93748261</v>
+        <v>1781643.015615436</v>
       </c>
       <c r="E420" t="n">
-        <v>2589974.170093863</v>
+        <v>2018897.643412877</v>
       </c>
       <c r="F420" t="n">
         <v>4510899.271158383</v>
@@ -11374,16 +11374,16 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>8991290.622965904</v>
+        <v>4945209.842631248</v>
       </c>
       <c r="C421" t="n">
-        <v>4955884.319155921</v>
+        <v>2725736.375535757</v>
       </c>
       <c r="D421" t="n">
-        <v>3237870.144539794</v>
+        <v>1780828.579496887</v>
       </c>
       <c r="E421" t="n">
-        <v>2589641.932708887</v>
+        <v>2018665.184250743</v>
       </c>
       <c r="F421" t="n">
         <v>4510784.530248925</v>
@@ -11400,16 +11400,16 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>8935728.741294276</v>
+        <v>4914650.807711854</v>
       </c>
       <c r="C422" t="n">
-        <v>4948076.093944498</v>
+        <v>2721441.851669475</v>
       </c>
       <c r="D422" t="n">
-        <v>3236214.932906603</v>
+        <v>1779918.213098632</v>
       </c>
       <c r="E422" t="n">
-        <v>2589260.545465018</v>
+        <v>2018397.785272788</v>
       </c>
       <c r="F422" t="n">
         <v>4510648.927403912</v>
@@ -11426,16 +11426,16 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>8878260.269774098</v>
+        <v>4883043.148375755</v>
       </c>
       <c r="C423" t="n">
-        <v>4939614.72566232</v>
+        <v>2716788.099114276</v>
       </c>
       <c r="D423" t="n">
-        <v>3234367.938071831</v>
+        <v>1778902.365939507</v>
       </c>
       <c r="E423" t="n">
-        <v>2588823.581537062</v>
+        <v>2018090.790859597</v>
       </c>
       <c r="F423" t="n">
         <v>4510489.008790729</v>
@@ -11452,16 +11452,16 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>8818858.998296224</v>
+        <v>4850372.449062923</v>
       </c>
       <c r="C424" t="n">
-        <v>4930458.351368675</v>
+        <v>2711752.093252772</v>
       </c>
       <c r="D424" t="n">
-        <v>3232310.483578416</v>
+        <v>1777770.765968129</v>
       </c>
       <c r="E424" t="n">
-        <v>2588323.908080891</v>
+        <v>2017739.021316826</v>
       </c>
       <c r="F424" t="n">
         <v>4510300.813580653</v>
@@ -11478,16 +11478,16 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>8757500.841922978</v>
+        <v>4816625.463057638</v>
       </c>
       <c r="C425" t="n">
-        <v>4920563.707924926</v>
+        <v>2706310.03935871</v>
       </c>
       <c r="D425" t="n">
-        <v>3230022.532926886</v>
+        <v>1776512.393109788</v>
       </c>
       <c r="E425" t="n">
-        <v>2587753.628596287</v>
+        <v>2017336.728377776</v>
       </c>
       <c r="F425" t="n">
         <v>4510079.811131128</v>
@@ -11504,16 +11504,16 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>8694164.003469763</v>
+        <v>4781790.20190837</v>
       </c>
       <c r="C426" t="n">
-        <v>4909886.211464657</v>
+        <v>2700437.416305562</v>
       </c>
       <c r="D426" t="n">
-        <v>3227482.646032118</v>
+        <v>1775115.455317665</v>
       </c>
       <c r="E426" t="n">
-        <v>2587104.023384678</v>
+        <v>2016877.548993303</v>
       </c>
       <c r="F426" t="n">
         <v>4509820.832333179</v>
@@ -11530,16 +11530,16 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>8628829.136049533</v>
+        <v>4745856.024827244</v>
       </c>
       <c r="C427" t="n">
-        <v>4898380.051527685</v>
+        <v>2694109.028340227</v>
       </c>
       <c r="D427" t="n">
-        <v>3224667.941159983</v>
+        <v>1773567.367637991</v>
       </c>
       <c r="E427" t="n">
-        <v>2586365.48845463</v>
+        <v>2016354.457649753</v>
       </c>
       <c r="F427" t="n">
         <v>4509517.99489489</v>
@@ -11556,16 +11556,16 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>8561479.50479622</v>
+        <v>4708813.727637921</v>
       </c>
       <c r="C428" t="n">
-        <v>4885998.300367804</v>
+        <v>2687299.065202293</v>
       </c>
       <c r="D428" t="n">
-        <v>3221554.063315103</v>
+        <v>1771854.734823307</v>
       </c>
       <c r="E428" t="n">
-        <v>2585527.473298091</v>
+        <v>2015759.717509361</v>
       </c>
       <c r="F428" t="n">
         <v>4509164.622376634</v>
@@ -11582,16 +11582,16 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>8492101.14694212</v>
+        <v>4670655.630818167</v>
       </c>
       <c r="C429" t="n">
-        <v>4872693.037847879</v>
+        <v>2679981.170816333</v>
       </c>
       <c r="D429" t="n">
-        <v>3218115.160087981</v>
+        <v>1769963.33804839</v>
       </c>
       <c r="E429" t="n">
-        <v>2584578.418034235</v>
+        <v>2015084.830724855</v>
       </c>
       <c r="F429" t="n">
         <v>4508753.156849219</v>
@@ -11608,16 +11608,16 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>8420683.029386841</v>
+        <v>4631375.666162765</v>
       </c>
       <c r="C430" t="n">
-        <v>4858415.492227126</v>
+        <v>2672128.52072492</v>
       </c>
       <c r="D430" t="n">
-        <v>3214323.865997911</v>
+        <v>1767878.126298851</v>
       </c>
       <c r="E430" t="n">
-        <v>2583505.690494649</v>
+        <v>2014320.488340148</v>
       </c>
       <c r="F430" t="n">
         <v>4508275.065113367</v>
@@ -11634,16 +11634,16 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>8347217.202861949</v>
+        <v>4590969.461574073</v>
       </c>
       <c r="C431" t="n">
-        <v>4843116.197024476</v>
+        <v>2663713.908363462</v>
       </c>
       <c r="D431" t="n">
-        <v>3210151.296385785</v>
+        <v>1765583.213012182</v>
       </c>
       <c r="E431" t="n">
-        <v>2582295.52390262</v>
+        <v>2013456.520251513</v>
       </c>
       <c r="F431" t="n">
         <v>4507720.738498442</v>
@@ -11660,16 +11660,16 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>8271698.951766877</v>
+        <v>4549434.423471782</v>
       </c>
       <c r="C432" t="n">
-        <v>4826745.164009253</v>
+        <v>2654709.84020509</v>
       </c>
       <c r="D432" t="n">
-        <v>3205567.051916848</v>
+        <v>1763061.878554267</v>
       </c>
       <c r="E432" t="n">
-        <v>2580932.955879507</v>
+        <v>2012481.845767709</v>
       </c>
       <c r="F432" t="n">
         <v>4507079.386351076</v>
@@ -11686,16 +11686,16 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>8194126.938728127</v>
+        <v>4506769.81630047</v>
       </c>
       <c r="C433" t="n">
-        <v>4809252.072226739</v>
+        <v>2645088.639724707</v>
       </c>
       <c r="D433" t="n">
-        <v>3200539.234746315</v>
+        <v>1760296.579110473</v>
       </c>
       <c r="E433" t="n">
-        <v>2579401.769591231</v>
+        <v>2011384.42537233</v>
       </c>
       <c r="F433" t="n">
         <v>4506338.923430287</v>
@@ -11712,16 +11712,16 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>8114503.342916041</v>
+        <v>4462976.838603824</v>
       </c>
       <c r="C434" t="n">
-        <v>4790586.472812346</v>
+        <v>2634822.560046791</v>
       </c>
       <c r="D434" t="n">
-        <v>3195034.477379113</v>
+        <v>1757268.962558513</v>
       </c>
       <c r="E434" t="n">
-        <v>2577684.437926621</v>
+        <v>2010151.214356155</v>
       </c>
       <c r="F434" t="n">
         <v>4505485.85154553</v>
@@ -11738,16 +11738,16 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>8032833.99114182</v>
+        <v>4418058.695128002</v>
       </c>
       <c r="C435" t="n">
-        <v>4770698.00918536</v>
+        <v>2623883.905051948</v>
       </c>
       <c r="D435" t="n">
-        <v>3189017.985217927</v>
+        <v>1753959.89186986</v>
       </c>
       <c r="E435" t="n">
-        <v>2575762.071675106</v>
+        <v>2008768.119050368</v>
       </c>
       <c r="F435" t="n">
         <v>4504505.135907521</v>
@@ -11764,16 +11764,16 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>7949128.480752507</v>
+        <v>4372020.66441388</v>
       </c>
       <c r="C436" t="n">
-        <v>4749536.652042612</v>
+        <v>2612245.158623436</v>
       </c>
       <c r="D436" t="n">
-        <v>3182453.593739928</v>
+        <v>1750349.47655696</v>
       </c>
       <c r="E436" t="n">
-        <v>2573614.372742377</v>
+        <v>2007219.956451922</v>
       </c>
       <c r="F436" t="n">
         <v>4503380.076808458</v>
@@ -11790,16 +11790,16 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>7863400.293343861</v>
+        <v>4324870.161339124</v>
       </c>
       <c r="C437" t="n">
-        <v>4727052.94839579</v>
+        <v>2599879.121617684</v>
       </c>
       <c r="D437" t="n">
-        <v>3175303.841171409</v>
+        <v>1746417.112644274</v>
       </c>
       <c r="E437" t="n">
-        <v>2571219.593507514</v>
+        <v>2005490.418088706</v>
       </c>
       <c r="F437" t="n">
         <v>4502092.17740781</v>
@@ -11816,16 +11816,16 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>7775666.898320422</v>
+        <v>4276616.794076229</v>
       </c>
       <c r="C438" t="n">
-        <v>4703198.283714848</v>
+        <v>2586759.056043166</v>
       </c>
       <c r="D438" t="n">
-        <v>3167530.057440223</v>
+        <v>1742141.531592123</v>
       </c>
       <c r="E438" t="n">
-        <v>2568554.503481637</v>
+        <v>2003562.039023035</v>
       </c>
       <c r="F438" t="n">
         <v>4500621.008571141</v>
@@ -11842,16 +11842,16 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>7685949.845349334</v>
+        <v>4227272.414942133</v>
       </c>
       <c r="C439" t="n">
-        <v>4677925.156056298</v>
+        <v>2572858.835830964</v>
       </c>
       <c r="D439" t="n">
-        <v>3159092.470078172</v>
+        <v>1737500.858542995</v>
       </c>
       <c r="E439" t="n">
-        <v>2565594.364474579</v>
+        <v>2001416.172935789</v>
       </c>
       <c r="F439" t="n">
         <v>4498944.071890973</v>
@@ -11868,16 +11868,16 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>7594274.844779739</v>
+        <v>4176851.164628857</v>
       </c>
       <c r="C440" t="n">
-        <v>4651187.460870871</v>
+        <v>2558153.103478979</v>
       </c>
       <c r="D440" t="n">
-        <v>3149950.327618993</v>
+        <v>1732472.680190446</v>
       </c>
       <c r="E440" t="n">
-        <v>2562312.915510375</v>
+        <v>1999032.97426871</v>
       </c>
       <c r="F440" t="n">
         <v>4497036.662208944</v>
@@ -11894,16 +11894,16 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>7500671.835132624</v>
+        <v>4125369.509322944</v>
       </c>
       <c r="C441" t="n">
-        <v>4622940.785002638</v>
+        <v>2542617.431751451</v>
       </c>
       <c r="D441" t="n">
-        <v>3140062.040892763</v>
+        <v>1727034.12249102</v>
       </c>
       <c r="E441" t="n">
-        <v>2558682.368752447</v>
+        <v>1996391.388427245</v>
       </c>
       <c r="F441" t="n">
         <v>4494871.731154825</v>
@@ -11920,16 +11920,16 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>7405175.036807732</v>
+        <v>4072846.270244253</v>
       </c>
       <c r="C442" t="n">
-        <v>4593142.708213201</v>
+        <v>2526228.48951726</v>
       </c>
       <c r="D442" t="n">
-        <v>3129385.342454532</v>
+        <v>1721161.938349993</v>
       </c>
       <c r="E442" t="n">
-        <v>2554673.417703373</v>
+        <v>1993469.151059329</v>
       </c>
       <c r="F442" t="n">
         <v>4492419.753417979</v>
@@ -11946,16 +11946,16 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>7307822.99120363</v>
+        <v>4019302.645161998</v>
       </c>
       <c r="C443" t="n">
-        <v>4561753.110392837</v>
+        <v>2508964.21071606</v>
       </c>
       <c r="D443" t="n">
-        <v>3117877.464204961</v>
+        <v>1714832.605312729</v>
       </c>
       <c r="E443" t="n">
-        <v>2550255.258930077</v>
+        <v>1990242.797424977</v>
       </c>
       <c r="F443" t="n">
         <v>4489648.597667096</v>
@@ -11972,16 +11972,16 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>7208658.584505136</v>
+        <v>3964762.221477825</v>
       </c>
       <c r="C444" t="n">
-        <v>4528734.482457626</v>
+        <v>2490803.965351694</v>
       </c>
       <c r="D444" t="n">
-        <v>3105495.333064624</v>
+        <v>1708022.433185543</v>
       </c>
       <c r="E444" t="n">
-        <v>2545395.628531502</v>
+        <v>1986687.682856051</v>
       </c>
       <c r="F444" t="n">
         <v>4486523.40423106</v>
@@ -11998,16 +11998,16 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>7107729.055458005</v>
+        <v>3909250.980501902</v>
       </c>
       <c r="C445" t="n">
-        <v>4494052.238780528</v>
+        <v>2471728.731329291</v>
       </c>
       <c r="D445" t="n">
-        <v>3092195.784353071</v>
+        <v>1700707.68139419</v>
       </c>
       <c r="E445" t="n">
-        <v>2540060.854510618</v>
+        <v>1982778.015273658</v>
       </c>
       <c r="F445" t="n">
         <v>4483006.471843433</v>
@@ -12024,16 +12024,16 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>7005085.986524622</v>
+        <v>3852797.292588543</v>
       </c>
       <c r="C446" t="n">
-        <v>4457675.028867386</v>
+        <v>2451721.265877062</v>
       </c>
       <c r="D446" t="n">
-        <v>3077935.7923007</v>
+        <v>1692864.685765385</v>
       </c>
       <c r="E446" t="n">
-        <v>2534215.926134756</v>
+        <v>1978486.900681034</v>
       </c>
       <c r="F446" t="n">
         <v>4479057.155930829</v>
@@ -12050,16 +12050,16 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>6900785.277895519</v>
+        <v>3795431.902842535</v>
       </c>
       <c r="C447" t="n">
-        <v>4419575.045868553</v>
+        <v>2430766.275227705</v>
       </c>
       <c r="D447" t="n">
-        <v>3062672.716888085</v>
+        <v>1684469.994288447</v>
       </c>
       <c r="E447" t="n">
-        <v>2527824.581266543</v>
+        <v>1973786.402481517</v>
       </c>
       <c r="F447" t="n">
         <v>4474631.781086531</v>
@@ -12076,16 +12076,16 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>6794887.103919731</v>
+        <v>3737187.907155852</v>
       </c>
       <c r="C448" t="n">
-        <v>4379728.329415713</v>
+        <v>2408850.581178642</v>
       </c>
       <c r="D448" t="n">
-        <v>3046364.565966501</v>
+        <v>1675500.511281575</v>
       </c>
       <c r="E448" t="n">
-        <v>2520849.412521536</v>
+        <v>1968647.615383405</v>
       </c>
       <c r="F448" t="n">
         <v>4469683.57050997</v>
@@ -12102,16 +12102,16 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>6687455.851611789</v>
+        <v>3678100.718386484</v>
       </c>
       <c r="C449" t="n">
-        <v>4338115.060193615</v>
+        <v>2385963.283106488</v>
       </c>
       <c r="D449" t="n">
-        <v>3028970.271367675</v>
+        <v>1665933.649252222</v>
       </c>
       <c r="E449" t="n">
-        <v>2513251.99295748</v>
+        <v>1963040.754545755</v>
       </c>
       <c r="F449" t="n">
         <v>4464162.595304892</v>
@@ -12128,16 +12128,16 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>6578560.040993785</v>
+        <v>3618208.022546582</v>
       </c>
       <c r="C450" t="n">
-        <v>4294719.843600276</v>
+        <v>2362095.913980152</v>
       </c>
       <c r="D450" t="n">
-        <v>3010449.977463813</v>
+        <v>1655747.487605098</v>
       </c>
       <c r="E450" t="n">
-        <v>2504993.021824258</v>
+        <v>1956935.260491116</v>
       </c>
       <c r="F450" t="n">
         <v>4458015.746608524</v>
@@ -12154,16 +12154,16 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>6468272.227136929</v>
+        <v>3557549.724925313</v>
       </c>
       <c r="C451" t="n">
-        <v>4249531.979818319</v>
+        <v>2337242.588900075</v>
       </c>
       <c r="D451" t="n">
-        <v>2990765.340393969</v>
+        <v>1644920.937216683</v>
       </c>
       <c r="E451" t="n">
-        <v>2496032.490703351</v>
+        <v>1950299.920163223</v>
       </c>
       <c r="F451" t="n">
         <v>4451186.733565655</v>
@@ -12180,16 +12180,16 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>6356668.883877587</v>
+        <v>3496167.886132672</v>
       </c>
       <c r="C452" t="n">
-        <v>4202545.717616441</v>
+        <v>2311400.144689042</v>
       </c>
       <c r="D452" t="n">
-        <v>2969879.835933812</v>
+        <v>1633433.909763596</v>
       </c>
       <c r="E452" t="n">
-        <v>2486329.870142248</v>
+        <v>1943103.004340136</v>
       </c>
       <c r="F452" t="n">
         <v>4443616.110159712</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>65481.36361850421</v>
+        <v>148821.280951146</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>131980.2884327128</v>
+        <v>299955.2009834384</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>199514.0186679889</v>
+        <v>453440.9515181568</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>268100.0165351228</v>
+        <v>609318.2193980068</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>337755.956787227</v>
+        <v>767627.1745164256</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>408499.7205889453</v>
+        <v>928408.4558839672</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>480349.3886709881</v>
+        <v>1091703.156070428</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>553323.2337431248</v>
+        <v>1257552.803961648</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>627439.7121390284</v>
+        <v>1425999.34577052</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>702717.4546668867</v>
+        <v>1597085.124242926</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>779175.2566401114</v>
+        <v>1770852.856000254</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>856832.0670630946</v>
+        <v>1947345.60696158</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>935706.9769478184</v>
+        <v>2126606.765790498</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1015819.206737963</v>
+        <v>2308680.015313555</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1097188.092818185</v>
+        <v>2493609.301859512</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1179833.073087517</v>
+        <v>2681438.802471632</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1263773.671577085</v>
+        <v>2872212.889947923</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1349029.482093879</v>
+        <v>3065976.09566791</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1435620.150874101</v>
+        <v>3262773.070168414</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1523565.358231245</v>
+        <v>3462648.541434649</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1612884.799186318</v>
+        <v>3665647.270877997</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1703598.163069593</v>
+        <v>3871814.00697635</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1795725.112085907</v>
+        <v>4081193.43655888</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1889285.25883785</v>
+        <v>4293830.133722389</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1984298.142804117</v>
+        <v>4509768.506372998</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2080783.205773165</v>
+        <v>4729052.740393559</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2178759.766235435</v>
+        <v>4951726.741444175</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2278246.99274075</v>
+        <v>5177834.074410799</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2379263.876230933</v>
+        <v>5407417.900524851</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2481829.201361445</v>
+        <v>5640520.912185107</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2585961.516829535</v>
+        <v>5877185.265521674</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2691679.104730538</v>
+        <v>6117452.510751228</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2798999.948968013</v>
+        <v>6361363.520381849</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2907941.702747724</v>
+        <v>6608958.41533574</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3018521.655189948</v>
+        <v>6860276.489068064</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3130756.697099026</v>
+        <v>7115356.129770517</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3244663.285933785</v>
+        <v>7374234.740758609</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3360257.410027244</v>
+        <v>7636948.65915283</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3477554.552108664</v>
+        <v>7903533.072974239</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3596569.652185955</v>
+        <v>8174021.936786264</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3717317.069851296</v>
+        <v>8448447.886025677</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3839810.546077649</v>
+        <v>8726842.150176479</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3964063.164578768</v>
+        <v>9009234.464951754</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>4090087.312809929</v>
+        <v>9295652.983658932</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>4217894.64269157</v>
+        <v>9586124.18793539</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>4347496.031142332</v>
+        <v>9880672.798050757</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>4478901.540512758</v>
+        <v>10179321.68298355</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>4612120.379014878</v>
+        <v>10482091.77048836</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>4747160.861247314</v>
+        <v>10789001.95738027</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>4884030.368919155</v>
+        <v>11100069.02027082</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>5022735.311879589</v>
+        <v>11415307.52699907</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>5163281.08956345</v>
+        <v>11734729.74900785</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>5305672.052965964</v>
+        <v>12058345.57492265</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>5449911.467262389</v>
+        <v>12386162.42559634</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>5596001.475190577</v>
+        <v>12718185.17088768</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>5594890.980792143</v>
+        <v>12715661.31998215</v>
       </c>
       <c r="C358" t="n">
-        <v>169266.95902236</v>
+        <v>384697.6341417268</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>5593702.701422635</v>
+        <v>12712960.68505145</v>
       </c>
       <c r="C359" t="n">
-        <v>340724.7104887752</v>
+        <v>774374.3420199431</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>5592431.822172926</v>
+        <v>12710072.32312029</v>
       </c>
       <c r="C360" t="n">
-        <v>514377.0928770583</v>
+        <v>1169038.847447859</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>5591073.277235061</v>
+        <v>12706984.72098878</v>
       </c>
       <c r="C361" t="n">
-        <v>690226.7999952668</v>
+        <v>1568697.272716514</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>5589621.740130557</v>
+        <v>12703685.773024</v>
       </c>
       <c r="C362" t="n">
-        <v>868275.3568893229</v>
+        <v>1973353.083839369</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>5588071.613787726</v>
+        <v>12700162.75860848</v>
       </c>
       <c r="C363" t="n">
-        <v>1048523.097615876</v>
+        <v>2383007.040036081</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>5586417.02048471</v>
+        <v>12696402.31928344</v>
       </c>
       <c r="C364" t="n">
-        <v>1230969.144998153</v>
+        <v>2797657.147723071</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>5584651.791676815</v>
+        <v>12692390.43562913</v>
       </c>
       <c r="C365" t="n">
-        <v>1415611.392477678</v>
+        <v>3217298.619267447</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>5582769.457729146</v>
+        <v>12688112.40392988</v>
       </c>
       <c r="C366" t="n">
-        <v>1602446.488169706</v>
+        <v>3641923.836749327</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>5580763.237577616</v>
+        <v>12683552.81267641</v>
       </c>
       <c r="C367" t="n">
-        <v>1791469.821224204</v>
+        <v>4071522.320964096</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5578626.02834409</v>
+        <v>12678695.51896385</v>
       </c>
       <c r="C368" t="n">
-        <v>1982675.510586935</v>
+        <v>4506080.705879393</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5576350.394933895</v>
+        <v>12673523.62484977</v>
       </c>
       <c r="C369" t="n">
-        <v>2176056.396247832</v>
+        <v>4945582.718745069</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5573928.559646772</v>
+        <v>12668019.45374267</v>
       </c>
       <c r="C370" t="n">
-        <v>2371604.033054817</v>
+        <v>5390009.16603367</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>5571352.391835321</v>
+        <v>12662164.52689846</v>
       </c>
       <c r="C371" t="n">
-        <v>2569308.687161973</v>
+        <v>5839337.925368115</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>5568613.397647922</v>
+        <v>12655939.54010892</v>
       </c>
       <c r="C372" t="n">
-        <v>2769159.335170712</v>
+        <v>6293543.943569795</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5565702.709896541</v>
+        <v>12649324.34067396</v>
       </c>
       <c r="C373" t="n">
-        <v>2769143.402371424</v>
+        <v>6293507.732662322</v>
       </c>
       <c r="D373" t="n">
-        <v>170864.196416734</v>
+        <v>388327.7191289405</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5562611.078093058</v>
+        <v>12642297.90475696</v>
       </c>
       <c r="C374" t="n">
-        <v>2769124.966207686</v>
+        <v>6293465.832290192</v>
       </c>
       <c r="D374" t="n">
-        <v>343523.8112608107</v>
+        <v>780735.9346836598</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5559328.858701437</v>
+        <v>12634838.31523054</v>
       </c>
       <c r="C375" t="n">
-        <v>2769103.660927384</v>
+        <v>6293417.411198594</v>
       </c>
       <c r="D375" t="n">
-        <v>517966.5762547991</v>
+        <v>1177196.764215451</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5555846.005656574</v>
+        <v>12626922.74012859</v>
       </c>
       <c r="C376" t="n">
-        <v>2769079.071888121</v>
+        <v>6293361.527018451</v>
       </c>
       <c r="D376" t="n">
-        <v>694179.1942140267</v>
+        <v>1577679.986850059</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5552152.061204674</v>
+        <v>12618527.41182882</v>
       </c>
       <c r="C377" t="n">
-        <v>2769050.729734218</v>
+        <v>6293297.113032308</v>
       </c>
       <c r="D377" t="n">
-        <v>872147.3550269965</v>
+        <v>1982153.079606808</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5548236.147123748</v>
+        <v>12609627.60709943</v>
       </c>
       <c r="C378" t="n">
-        <v>2769018.103985874</v>
+        <v>6293222.963604253</v>
       </c>
       <c r="D378" t="n">
-        <v>1051855.754489261</v>
+        <v>2390581.260202863</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5544086.956387001</v>
+        <v>12600197.62815229</v>
       </c>
       <c r="C379" t="n">
-        <v>2768980.595996107</v>
+        <v>6293137.718172965</v>
       </c>
       <c r="D379" t="n">
-        <v>1233288.11599967</v>
+        <v>2802927.536362884</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5539692.745336011</v>
+        <v>12590210.78485458</v>
       </c>
       <c r="C380" t="n">
-        <v>2768937.531229772</v>
+        <v>6293039.843704023</v>
       </c>
       <c r="D380" t="n">
-        <v>1416427.215115878</v>
+        <v>3219152.761626992</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5535041.326434718</v>
+        <v>12579639.37826073</v>
       </c>
       <c r="C381" t="n">
-        <v>2768888.150817973</v>
+        <v>6292927.615495387</v>
       </c>
       <c r="D381" t="n">
-        <v>1601254.906953421</v>
+        <v>3639215.697621408</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5530120.061679706</v>
+        <v>12568454.6856357</v>
       </c>
       <c r="C382" t="n">
-        <v>2768831.602340488</v>
+        <v>6292799.096228378</v>
       </c>
       <c r="D382" t="n">
-        <v>1787752.156399518</v>
+        <v>4063073.082726174</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5524915.856746318</v>
+        <v>12556626.94715073</v>
       </c>
       <c r="C383" t="n">
-        <v>2768766.929788603</v>
+        <v>6292652.113155913</v>
       </c>
       <c r="D383" t="n">
-        <v>1787748.806196687</v>
+        <v>4063065.468628829</v>
       </c>
       <c r="E383" t="n">
-        <v>137402.3036311585</v>
+        <v>312277.9627980873</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>5519415.155954679</v>
+        <v>12544125.35444245</v>
       </c>
       <c r="C384" t="n">
-        <v>2768693.062660873</v>
+        <v>6292484.23332016</v>
       </c>
       <c r="D384" t="n">
-        <v>1787744.81213368</v>
+        <v>4063056.391212906</v>
       </c>
       <c r="E384" t="n">
-        <v>275994.6674364108</v>
+        <v>627260.6078100241</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>5513603.938143778</v>
+        <v>12530918.04123586</v>
       </c>
       <c r="C385" t="n">
-        <v>2768608.804145127</v>
+        <v>6292292.736693465</v>
       </c>
       <c r="D385" t="n">
-        <v>1787740.058433164</v>
+        <v>4063045.587348096</v>
       </c>
       <c r="E385" t="n">
-        <v>415761.4770795074</v>
+        <v>944912.4479079705</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>5507467.713546076</v>
+        <v>12516972.07624109</v>
       </c>
       <c r="C386" t="n">
-        <v>2768512.818341322</v>
+        <v>6292074.587139362</v>
       </c>
       <c r="D386" t="n">
-        <v>1787734.4100864</v>
+        <v>4063032.750196359</v>
       </c>
       <c r="E386" t="n">
-        <v>556686.5901900323</v>
+        <v>1265196.795886436</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>5500991.521759108</v>
+        <v>12502253.45854344</v>
       </c>
       <c r="C387" t="n">
-        <v>2768403.616481873</v>
+        <v>6291826.401095161</v>
       </c>
       <c r="D387" t="n">
-        <v>1787727.70995934</v>
+        <v>4063017.522634859</v>
       </c>
       <c r="E387" t="n">
-        <v>698753.3701431496</v>
+        <v>1588075.84123443</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>5494159.930914491</v>
+        <v>12486727.11571476</v>
       </c>
       <c r="C388" t="n">
-        <v>2768279.542108863</v>
+        <v>6291544.413883775</v>
       </c>
       <c r="D388" t="n">
-        <v>1787719.775517134</v>
+        <v>4062999.489811664</v>
       </c>
       <c r="E388" t="n">
-        <v>959101.6981298429</v>
+        <v>1913510.731424445</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>5486957.038148414</v>
+        <v>12470356.90488277</v>
       </c>
       <c r="C389" t="n">
-        <v>2768138.755171139</v>
+        <v>6291224.443570763</v>
       </c>
       <c r="D389" t="n">
-        <v>1787710.395125847</v>
+        <v>4062978.170740558</v>
       </c>
       <c r="E389" t="n">
-        <v>1221462.945422024</v>
+        <v>2241461.657565495</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>5479366.471481224</v>
+        <v>12453105.61700279</v>
       </c>
       <c r="C390" t="n">
-        <v>2767979.215008844</v>
+        <v>6290861.852292823</v>
       </c>
       <c r="D390" t="n">
-        <v>1787699.323887257</v>
+        <v>4062953.00883467</v>
       </c>
       <c r="E390" t="n">
-        <v>1485804.590217003</v>
+        <v>2571887.944245342</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>5471371.393216697</v>
+        <v>12434934.98458341</v>
       </c>
       <c r="C391" t="n">
-        <v>2767798.662198431</v>
+        <v>6290451.504996429</v>
       </c>
       <c r="D391" t="n">
-        <v>1787686.278959632</v>
+        <v>4062923.361271887</v>
       </c>
       <c r="E391" t="n">
-        <v>1752093.496086891</v>
+        <v>2904748.143364347</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>5462954.504974447</v>
+        <v>12415805.69312375</v>
       </c>
       <c r="C392" t="n">
-        <v>2767594.599237811</v>
+        <v>6289987.725540474</v>
       </c>
       <c r="D392" t="n">
-        <v>1787670.934314553</v>
+        <v>4062888.487078526</v>
       </c>
       <c r="E392" t="n">
-        <v>2020295.990676462</v>
+        <v>3240000.131740503</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>5454098.054471095</v>
+        <v>12395677.39652522</v>
       </c>
       <c r="C393" t="n">
-        <v>2767364.270059031</v>
+        <v>6289464.250134156</v>
       </c>
       <c r="D393" t="n">
-        <v>1787652.914877105</v>
+        <v>4062847.533811599</v>
       </c>
       <c r="E393" t="n">
-        <v>2020293.88145875</v>
+        <v>3239996.129917351</v>
       </c>
       <c r="F393" t="n">
-        <v>438346.448104264</v>
+        <v>547933.0601303293</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>5444783.844167685</v>
+        <v>12374508.73674475</v>
       </c>
       <c r="C394" t="n">
-        <v>2767104.638364808</v>
+        <v>6288874.178101831</v>
       </c>
       <c r="D394" t="n">
-        <v>1787631.789994242</v>
+        <v>4062799.522714181</v>
       </c>
       <c r="E394" t="n">
-        <v>2020291.321295334</v>
+        <v>3239991.283092604</v>
       </c>
       <c r="F394" t="n">
-        <v>879688.0070047961</v>
+        <v>1099610.008755994</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>5434993.241901958</v>
+        <v>12352257.367959</v>
       </c>
       <c r="C395" t="n">
-        <v>2766812.36479547</v>
+        <v>6288209.919989699</v>
       </c>
       <c r="D395" t="n">
-        <v>1787607.066173887</v>
+        <v>4062743.332213376</v>
       </c>
       <c r="E395" t="n">
-        <v>2020288.21967353</v>
+        <v>3239985.423990393</v>
       </c>
       <c r="F395" t="n">
-        <v>1323968.3759787</v>
+        <v>1654960.469973373</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>5424707.193624559</v>
+        <v>12328879.98551037</v>
       </c>
       <c r="C396" t="n">
-        <v>2766483.782944379</v>
+        <v>6287463.143055403</v>
       </c>
       <c r="D396" t="n">
-        <v>1787578.179035434</v>
+        <v>4062677.679625983</v>
       </c>
       <c r="E396" t="n">
-        <v>2020284.469215675</v>
+        <v>3239978.354651953</v>
       </c>
       <c r="F396" t="n">
-        <v>1771130.966695387</v>
+        <v>2213913.708369231</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>5413906.23835816</v>
+        <v>12304332.35990492</v>
       </c>
       <c r="C397" t="n">
-        <v>2766114.874252825</v>
+        <v>6286624.714210958</v>
       </c>
       <c r="D397" t="n">
-        <v>1787544.484410879</v>
+        <v>4062601.100933811</v>
       </c>
       <c r="E397" t="n">
-        <v>2020279.942810285</v>
+        <v>3239969.841311184</v>
       </c>
       <c r="F397" t="n">
-        <v>2221119.055700385</v>
+        <v>2776398.819625478</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>5402570.525497267</v>
+        <v>12278569.37613016</v>
       </c>
       <c r="C398" t="n">
-        <v>2765701.241829626</v>
+        <v>6285684.640521871</v>
       </c>
       <c r="D398" t="n">
-        <v>1787505.248534926</v>
+        <v>4062511.928488463</v>
       </c>
       <c r="E398" t="n">
-        <v>2020274.490309659</v>
+        <v>3239959.608513124</v>
       </c>
       <c r="F398" t="n">
-        <v>2673875.940398927</v>
+        <v>3342344.925498655</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>5390679.834564682</v>
+        <v>12251545.0785561</v>
       </c>
       <c r="C399" t="n">
-        <v>2765238.08325639</v>
+        <v>6284632.007400881</v>
       </c>
       <c r="D399" t="n">
-        <v>1787459.637262197</v>
+        <v>4062408.266504989</v>
       </c>
       <c r="E399" t="n">
-        <v>2020267.934738649</v>
+        <v>3239947.332381848</v>
       </c>
       <c r="F399" t="n">
-        <v>3129345.098147897</v>
+        <v>3911681.372684868</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>5378213.5975376</v>
+        <v>12223212.72167637</v>
       </c>
       <c r="C400" t="n">
-        <v>2764720.162456393</v>
+        <v>6283454.914673615</v>
       </c>
       <c r="D400" t="n">
-        <v>1787406.704250211</v>
+        <v>4062287.964205022</v>
       </c>
       <c r="E400" t="n">
-        <v>2020260.067954117</v>
+        <v>3239932.632935881</v>
       </c>
       <c r="F400" t="n">
-        <v>3587470.348039361</v>
+        <v>4484337.935049198</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>5365150.92385239</v>
+        <v>12193524.82693726</v>
       </c>
       <c r="C401" t="n">
-        <v>2764141.780723508</v>
+        <v>6282140.410735238</v>
       </c>
       <c r="D401" t="n">
-        <v>1787345.37804827</v>
+        <v>4062148.586473336</v>
       </c>
       <c r="E401" t="n">
-        <v>2020250.645689214</v>
+        <v>3239915.065340803</v>
       </c>
       <c r="F401" t="n">
-        <v>4048196.014934958</v>
+        <v>5060245.018668693</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>5351470.628192056</v>
+        <v>12162433.24589104</v>
       </c>
       <c r="C402" t="n">
-        <v>2763496.747027306</v>
+        <v>6280674.425062056</v>
       </c>
       <c r="D402" t="n">
-        <v>1787274.448034879</v>
+        <v>4061987.381897448</v>
       </c>
       <c r="E402" t="n">
-        <v>2020239.381911124</v>
+        <v>3239894.109980078</v>
       </c>
       <c r="F402" t="n">
-        <v>4511467.095283284</v>
+        <v>5639333.869104097</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>5337151.261154052</v>
+        <v>12129889.22989558</v>
       </c>
       <c r="C403" t="n">
-        <v>2762778.347731447</v>
+        <v>6279041.699389647</v>
       </c>
       <c r="D403" t="n">
-        <v>1787192.549149971</v>
+        <v>4061801.248068112</v>
       </c>
       <c r="E403" t="n">
-        <v>2020225.942415376</v>
+        <v>3239869.161216666</v>
       </c>
       <c r="F403" t="n">
-        <v>4511463.143164313</v>
+        <v>5639328.928955385</v>
       </c>
       <c r="G403" t="n">
-        <v>1209188.919449838</v>
+        <v>892258.6477640469</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>5322171.142888703</v>
+        <v>12095843.50656524</v>
       </c>
       <c r="C404" t="n">
-        <v>2761979.315884529</v>
+        <v>6277225.717919379</v>
       </c>
       <c r="D404" t="n">
-        <v>1787098.145373174</v>
+        <v>4061586.694029937</v>
       </c>
       <c r="E404" t="n">
-        <v>2020209.937574353</v>
+        <v>3239839.514709642</v>
       </c>
       <c r="F404" t="n">
-        <v>4511458.291530166</v>
+        <v>5639322.8644127</v>
       </c>
       <c r="G404" t="n">
-        <v>2424709.768853213</v>
+        <v>1789189.616922381</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>5306508.399789572</v>
+        <v>12060246.36315813</v>
       </c>
       <c r="C405" t="n">
-        <v>2761091.800265738</v>
+        <v>6275208.63696758</v>
       </c>
       <c r="D405" t="n">
-        <v>1786989.51190573</v>
+        <v>4061339.799785746</v>
       </c>
       <c r="E405" t="n">
-        <v>2020190.914152292</v>
+        <v>3239804.353142216</v>
       </c>
       <c r="F405" t="n">
-        <v>4511452.348175297</v>
+        <v>5639315.435219114</v>
       </c>
       <c r="G405" t="n">
-        <v>3646428.091040623</v>
+        <v>2690693.691735995</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>5290141.004306991</v>
+        <v>12023047.73706135</v>
       </c>
       <c r="C406" t="n">
-        <v>2760107.334391498</v>
+        <v>6272971.214526127</v>
       </c>
       <c r="D406" t="n">
-        <v>1786864.716021667</v>
+        <v>4061056.172776513</v>
       </c>
       <c r="E406" t="n">
-        <v>2020168.346094012</v>
+        <v>3239762.730210228</v>
       </c>
       <c r="F406" t="n">
-        <v>4511445.082757833</v>
+        <v>5639306.353447286</v>
       </c>
       <c r="G406" t="n">
-        <v>4874213.012857571</v>
+        <v>3596674.301105052</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>5273046.81794432</v>
+        <v>11984197.31350982</v>
       </c>
       <c r="C407" t="n">
-        <v>2759016.805714006</v>
+        <v>6270492.740259099</v>
       </c>
       <c r="D407" t="n">
-        <v>1786721.596563454</v>
+        <v>4060730.901280573</v>
       </c>
       <c r="E407" t="n">
-        <v>2020141.624189957</v>
+        <v>3239713.552713784</v>
       </c>
       <c r="F407" t="n">
-        <v>4511436.219885712</v>
+        <v>5639295.274857135</v>
       </c>
       <c r="G407" t="n">
-        <v>6107937.696017122</v>
+        <v>4507037.851252299</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>5255203.637483535</v>
+        <v>11943644.63064441</v>
       </c>
       <c r="C408" t="n">
-        <v>2757810.42526748</v>
+        <v>6267750.966516995</v>
       </c>
       <c r="D408" t="n">
-        <v>1786557.742068851</v>
+        <v>4060358.504701931</v>
       </c>
       <c r="E408" t="n">
-        <v>2020110.044516112</v>
+        <v>3239655.560589509</v>
       </c>
       <c r="F408" t="n">
-        <v>4511425.431086976</v>
+        <v>5639281.788858715</v>
       </c>
       <c r="G408" t="n">
-        <v>7347479.786630391</v>
+        <v>5421694.05743092</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>5236589.24447222</v>
+        <v>11901339.19198233</v>
       </c>
       <c r="C409" t="n">
-        <v>2756477.698043241</v>
+        <v>6264722.04100736</v>
       </c>
       <c r="D409" t="n">
-        <v>1786370.467529094</v>
+        <v>4059932.880747937</v>
       </c>
       <c r="E409" t="n">
-        <v>2020072.795543998</v>
+        <v>3239587.304716968</v>
       </c>
       <c r="F409" t="n">
-        <v>4511412.325511541</v>
+        <v>5639265.40688942</v>
       </c>
       <c r="G409" t="n">
-        <v>8592721.86204063</v>
+        <v>6340556.273642725</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>5217181.457988061</v>
+        <v>11857230.58633651</v>
       </c>
       <c r="C410" t="n">
-        <v>2755007.394399749</v>
+        <v>6261380.441817606</v>
       </c>
       <c r="D410" t="n">
-        <v>1786156.789793915</v>
+        <v>4059447.249531619</v>
       </c>
       <c r="E410" t="n">
-        <v>2020028.943813648</v>
+        <v>3239507.122330841</v>
       </c>
       <c r="F410" t="n">
-        <v>4511396.43919603</v>
+        <v>5639245.548995031</v>
       </c>
       <c r="G410" t="n">
-        <v>9843551.873524318</v>
+        <v>7263541.819306605</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>5196958.190679564</v>
+        <v>11811268.61518084</v>
       </c>
       <c r="C411" t="n">
-        <v>2753387.522838438</v>
+        <v>6257698.915541899</v>
       </c>
       <c r="D411" t="n">
-        <v>1785913.401656449</v>
+        <v>4058894.094673744</v>
       </c>
       <c r="E411" t="n">
-        <v>2019977.418061287</v>
+        <v>3239413.109870505</v>
       </c>
       <c r="F411" t="n">
-        <v>4511377.222706852</v>
+        <v>5639221.52838356</v>
       </c>
       <c r="G411" t="n">
-        <v>11099863.58336692</v>
+        <v>8190572.301776053</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>5175897.508062832</v>
+        <v>11763403.42741553</v>
       </c>
       <c r="C412" t="n">
-        <v>2751605.304500022</v>
+        <v>6253648.419318225</v>
       </c>
       <c r="D412" t="n">
-        <v>1785636.644670697</v>
+        <v>4058265.101524307</v>
       </c>
       <c r="E412" t="n">
-        <v>2019916.991693674</v>
+        <v>3239303.093101287</v>
       </c>
       <c r="F412" t="n">
-        <v>4511354.026959852</v>
+        <v>5639192.533699811</v>
       </c>
       <c r="G412" t="n">
-        <v>12361556.99474985</v>
+        <v>9121573.933552118</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>5153977.691033934</v>
+        <v>11713585.66144077</v>
       </c>
       <c r="C413" t="n">
-        <v>2749647.149758663</v>
+        <v>6249198.06763332</v>
       </c>
       <c r="D413" t="n">
-        <v>1785322.480775958</v>
+        <v>4057551.092672628</v>
       </c>
       <c r="E413" t="n">
-        <v>2019846.263503009</v>
+        <v>3239174.594347239</v>
       </c>
       <c r="F413" t="n">
-        <v>4511326.086997638</v>
+        <v>5639157.608747042</v>
       </c>
       <c r="G413" t="n">
-        <v>12361548.70750659</v>
+        <v>9121567.818408044</v>
       </c>
       <c r="H413" t="n">
-        <v>1206833.484015272</v>
+        <v>890520.5755720711</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>5131177.301534862</v>
+        <v>11661766.59439742</v>
       </c>
       <c r="C414" t="n">
-        <v>2747498.637312518</v>
+        <v>6244315.084801174</v>
       </c>
       <c r="D414" t="n">
-        <v>1784966.462826621</v>
+        <v>4056741.960969589</v>
       </c>
       <c r="E414" t="n">
-        <v>2019763.636520157</v>
+        <v>3239024.79668418</v>
       </c>
       <c r="F414" t="n">
-        <v>4511292.503488497</v>
+        <v>5639115.629360616</v>
       </c>
       <c r="G414" t="n">
-        <v>12361538.42338912</v>
+        <v>9121560.22977354</v>
       </c>
       <c r="H414" t="n">
-        <v>2418623.978955111</v>
+        <v>1784698.921897217</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>5107475.251288023</v>
+        <v>11607898.29838188</v>
       </c>
       <c r="C415" t="n">
-        <v>2745144.496188303</v>
+        <v>6238964.764064321</v>
       </c>
       <c r="D415" t="n">
-        <v>1784563.704151631</v>
+        <v>4055826.600344611</v>
       </c>
       <c r="E415" t="n">
-        <v>2019667.294910012</v>
+        <v>3238850.504954492</v>
       </c>
       <c r="F415" t="n">
-        <v>4511252.221693905</v>
+        <v>5639065.277117373</v>
       </c>
       <c r="G415" t="n">
-        <v>12361525.69024554</v>
+        <v>9121550.834006436</v>
       </c>
       <c r="H415" t="n">
-        <v>3635296.864898649</v>
+        <v>2682479.977050357</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>5082850.873490271</v>
+        <v>11551933.80338699</v>
       </c>
       <c r="C416" t="n">
-        <v>2742568.591094188</v>
+        <v>6233110.434304967</v>
       </c>
       <c r="D416" t="n">
-        <v>1784108.847295951</v>
+        <v>4054792.83476352</v>
       </c>
       <c r="E416" t="n">
-        <v>2019555.178821421</v>
+        <v>3238648.103482097</v>
       </c>
       <c r="F416" t="n">
-        <v>4511204.00763532</v>
+        <v>5639005.009544143</v>
       </c>
       <c r="G416" t="n">
-        <v>12361509.96071649</v>
+        <v>9121539.227211094</v>
       </c>
       <c r="H416" t="n">
-        <v>4856785.094416368</v>
+        <v>3583814.266836158</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>5057283.997332211</v>
+        <v>11493827.26666412</v>
       </c>
       <c r="C417" t="n">
-        <v>2739753.911569105</v>
+        <v>6226713.435384322</v>
       </c>
       <c r="D417" t="n">
-        <v>1783596.032126114</v>
+        <v>4053627.345741164</v>
       </c>
       <c r="E417" t="n">
-        <v>2019424.957115432</v>
+        <v>3238413.510387682</v>
       </c>
       <c r="F417" t="n">
-        <v>4511146.421175899</v>
+        <v>5638933.026469867</v>
       </c>
       <c r="G417" t="n">
-        <v>12361490.57387375</v>
+        <v>9121524.921689596</v>
       </c>
       <c r="H417" t="n">
-        <v>6083029.56043934</v>
+        <v>4488658.176239178</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>5030755.025182384</v>
+        <v>11433534.14814179</v>
       </c>
       <c r="C418" t="n">
-        <v>2736682.565386898</v>
+        <v>6219733.103152033</v>
       </c>
       <c r="D418" t="n">
-        <v>1783018.863513406</v>
+        <v>4052315.5988941</v>
       </c>
       <c r="E418" t="n">
-        <v>2019273.997910105</v>
+        <v>3238142.128430956</v>
       </c>
       <c r="F418" t="n">
-        <v>4511077.785719167</v>
+        <v>5638847.232148952</v>
       </c>
       <c r="G418" t="n">
-        <v>12361466.73369308</v>
+        <v>9121507.330056865</v>
       </c>
       <c r="H418" t="n">
-        <v>7313979.449752247</v>
+        <v>5396974.21026582</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>5003245.012249077</v>
+        <v>11371011.39147518</v>
       </c>
       <c r="C419" t="n">
-        <v>2733335.776680281</v>
+        <v>6212126.765182451</v>
       </c>
       <c r="D419" t="n">
-        <v>1782370.378841019</v>
+        <v>4050841.77009322</v>
       </c>
       <c r="E419" t="n">
-        <v>2019099.336897879</v>
+        <v>3237828.792338941</v>
       </c>
       <c r="F419" t="n">
-        <v>4510996.154215452</v>
+        <v>5638745.19276931</v>
       </c>
       <c r="G419" t="n">
-        <v>12361437.48389413</v>
+        <v>9121485.746675117</v>
       </c>
       <c r="H419" t="n">
-        <v>8549592.580466252</v>
+        <v>6308731.242965056</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>4974735.748504885</v>
+        <v>11306217.61023838</v>
       </c>
       <c r="C420" t="n">
-        <v>2729693.889251719</v>
+        <v>6203849.748299356</v>
       </c>
       <c r="D420" t="n">
-        <v>1781643.015615436</v>
+        <v>4049188.671853259</v>
       </c>
       <c r="E420" t="n">
-        <v>2018897.643412877</v>
+        <v>3237467.712617326</v>
       </c>
       <c r="F420" t="n">
-        <v>4510899.271158383</v>
+        <v>5638624.088947972</v>
       </c>
       <c r="G420" t="n">
-        <v>12361401.67862753</v>
+        <v>9121459.326023847</v>
       </c>
       <c r="H420" t="n">
-        <v>9789835.721763756</v>
+        <v>7223904.753367582</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>4945209.842631248</v>
+        <v>11239113.27870739</v>
       </c>
       <c r="C421" t="n">
-        <v>2725736.375535757</v>
+        <v>6194855.398944898</v>
       </c>
       <c r="D421" t="n">
-        <v>1780828.579496887</v>
+        <v>4047337.680674738</v>
       </c>
       <c r="E421" t="n">
-        <v>2018665.184250743</v>
+        <v>3237052.415886107</v>
       </c>
       <c r="F421" t="n">
-        <v>4510784.530248925</v>
+        <v>5638480.662811152</v>
       </c>
       <c r="G421" t="n">
-        <v>12361357.94843245</v>
+        <v>9121427.057580017</v>
       </c>
       <c r="H421" t="n">
-        <v>11034684.89413987</v>
+        <v>8142477.047033545</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>4914650.807711854</v>
+        <v>11169660.92661786</v>
       </c>
       <c r="C422" t="n">
-        <v>2721441.851669475</v>
+        <v>6185095.117430619</v>
       </c>
       <c r="D422" t="n">
-        <v>1779918.213098632</v>
+        <v>4045268.666133251</v>
       </c>
       <c r="E422" t="n">
-        <v>2018397.785272788</v>
+        <v>3236575.68183127</v>
       </c>
       <c r="F422" t="n">
-        <v>4510648.927403912</v>
+        <v>5638311.159254882</v>
       </c>
       <c r="G422" t="n">
-        <v>12361304.66082974</v>
+        <v>9121387.736739758</v>
       </c>
       <c r="H422" t="n">
-        <v>12284125.6482913</v>
+        <v>9064437.461844223</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>4883043.148375755</v>
+        <v>11097825.33721763</v>
       </c>
       <c r="C423" t="n">
-        <v>2716788.099114276</v>
+        <v>6174518.407077895</v>
       </c>
       <c r="D423" t="n">
-        <v>1778902.365939507</v>
+        <v>4042959.922589784</v>
       </c>
       <c r="E423" t="n">
-        <v>2018090.790859597</v>
+        <v>3236029.476921326</v>
       </c>
       <c r="F423" t="n">
-        <v>4510489.008790729</v>
+        <v>5638111.260988405</v>
       </c>
       <c r="G423" t="n">
-        <v>12361239.87485442</v>
+        <v>9121339.931268012</v>
       </c>
       <c r="H423" t="n">
-        <v>13538153.32072868</v>
+        <v>9989782.556617962</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>4850372.449062923</v>
+        <v>11023573.74787029</v>
       </c>
       <c r="C424" t="n">
-        <v>2711752.093252772</v>
+        <v>6163072.939210838</v>
       </c>
       <c r="D424" t="n">
-        <v>1777770.765968129</v>
+        <v>4040388.104473016</v>
       </c>
       <c r="E424" t="n">
-        <v>2017739.021316826</v>
+        <v>3235404.885101112</v>
       </c>
       <c r="F424" t="n">
-        <v>4510300.813580653</v>
+        <v>5637876.01697581</v>
       </c>
       <c r="G424" t="n">
-        <v>12361161.28876981</v>
+        <v>9121281.94271679</v>
       </c>
       <c r="H424" t="n">
-        <v>14796773.26410253</v>
+        <v>10918516.28106738</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>4816625.463057638</v>
+        <v>10946876.05240372</v>
       </c>
       <c r="C425" t="n">
-        <v>2706310.03935871</v>
+        <v>6150704.634906152</v>
       </c>
       <c r="D425" t="n">
-        <v>1776512.393109788</v>
+        <v>4037528.166158604</v>
       </c>
       <c r="E425" t="n">
-        <v>2017336.728377776</v>
+        <v>3234692.035745357</v>
       </c>
       <c r="F425" t="n">
-        <v>4510079.811131128</v>
+        <v>5637599.763913903</v>
       </c>
       <c r="G425" t="n">
-        <v>12361066.1801429</v>
+        <v>9121211.762206974</v>
       </c>
       <c r="H425" t="n">
-        <v>16060001.05015045</v>
+        <v>11850650.12555374</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>4781790.20190837</v>
+        <v>10867705.00433721</v>
       </c>
       <c r="C426" t="n">
-        <v>2700437.416305562</v>
+        <v>6137357.764330816</v>
       </c>
       <c r="D426" t="n">
-        <v>1775115.455317665</v>
+        <v>4034353.307540144</v>
       </c>
       <c r="E426" t="n">
-        <v>2016877.548993303</v>
+        <v>3233880.029230846</v>
       </c>
       <c r="F426" t="n">
-        <v>4509820.832333179</v>
+        <v>5637276.040416468</v>
       </c>
       <c r="G426" t="n">
-        <v>12360951.33740007</v>
+        <v>9121127.019923301</v>
       </c>
       <c r="H426" t="n">
-        <v>17327862.64307676</v>
+        <v>12786203.24902357</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>4745856.024827244</v>
+        <v>10786036.42006192</v>
       </c>
       <c r="C427" t="n">
-        <v>2694109.028340227</v>
+        <v>6122975.064409602</v>
       </c>
       <c r="D427" t="n">
-        <v>1773567.367637991</v>
+        <v>4030834.926449975</v>
       </c>
       <c r="E427" t="n">
-        <v>2016354.457649753</v>
+        <v>3232956.860568285</v>
       </c>
       <c r="F427" t="n">
-        <v>4509517.99489489</v>
+        <v>5636897.493618607</v>
       </c>
       <c r="G427" t="n">
-        <v>12360812.98192295</v>
+        <v>9121024.927629083</v>
       </c>
       <c r="H427" t="n">
-        <v>18600394.54108357</v>
+        <v>13725202.58344417</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>4708813.727637921</v>
+        <v>10701849.38099528</v>
       </c>
       <c r="C428" t="n">
-        <v>2687299.065202293</v>
+        <v>6107497.875459751</v>
       </c>
       <c r="D428" t="n">
-        <v>1771854.734823307</v>
+        <v>4026942.579143875</v>
       </c>
       <c r="E428" t="n">
-        <v>2015759.717509361</v>
+        <v>3231909.341622611</v>
       </c>
       <c r="F428" t="n">
-        <v>4509164.622376634</v>
+        <v>5636455.777970786</v>
       </c>
       <c r="G428" t="n">
-        <v>12360646.67969045</v>
+        <v>9120902.213466968</v>
       </c>
       <c r="H428" t="n">
-        <v>19877643.88367098</v>
+        <v>14667682.91298034</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>4670655.630818167</v>
+        <v>10615126.43367766</v>
       </c>
       <c r="C429" t="n">
-        <v>2679981.170816333</v>
+        <v>6090866.297309844</v>
       </c>
       <c r="D429" t="n">
-        <v>1769963.33804839</v>
+        <v>4022643.950109972</v>
       </c>
       <c r="E429" t="n">
-        <v>2015084.830724855</v>
+        <v>3230723.022542791</v>
       </c>
       <c r="F429" t="n">
-        <v>4508753.156849219</v>
+        <v>5635941.446061518</v>
       </c>
       <c r="G429" t="n">
-        <v>12360447.24142447</v>
+        <v>9120755.048276601</v>
       </c>
       <c r="H429" t="n">
-        <v>21159668.52221959</v>
+        <v>15613686.92607701</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>4631375.666162765</v>
+        <v>10525853.78673356</v>
       </c>
       <c r="C430" t="n">
-        <v>2672128.52072492</v>
+        <v>6073019.365283904</v>
       </c>
       <c r="D430" t="n">
-        <v>1767878.126298851</v>
+        <v>4017904.832497385</v>
       </c>
       <c r="E430" t="n">
-        <v>2014320.488340148</v>
+        <v>3229382.11311831</v>
       </c>
       <c r="F430" t="n">
-        <v>4508275.065113367</v>
+        <v>5635343.831391701</v>
       </c>
       <c r="G430" t="n">
-        <v>12360208.61015713</v>
+        <v>9120578.962630693</v>
       </c>
       <c r="H430" t="n">
-        <v>22446537.05126447</v>
+        <v>16563265.23853634</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>4590969.461574073</v>
+        <v>10434021.50357744</v>
       </c>
       <c r="C431" t="n">
-        <v>2663713.908363462</v>
+        <v>6053895.24628059</v>
       </c>
       <c r="D431" t="n">
-        <v>1765583.213012182</v>
+        <v>4012689.120482227</v>
       </c>
       <c r="E431" t="n">
-        <v>2013456.520251513</v>
+        <v>3227869.404878273</v>
       </c>
       <c r="F431" t="n">
-        <v>4507720.738498442</v>
+        <v>5634650.923123046</v>
       </c>
       <c r="G431" t="n">
-        <v>12359923.73510904</v>
+        <v>9120368.753769942</v>
       </c>
       <c r="H431" t="n">
-        <v>23738328.79776066</v>
+        <v>17516476.38559669</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>4549434.423471782</v>
+        <v>10339623.6897086</v>
       </c>
       <c r="C432" t="n">
-        <v>2654709.84020509</v>
+        <v>6033431.455011561</v>
       </c>
       <c r="D432" t="n">
-        <v>1763061.878554267</v>
+        <v>4006958.814896057</v>
       </c>
       <c r="E432" t="n">
-        <v>2012481.845767709</v>
+        <v>3226166.194849382</v>
       </c>
       <c r="F432" t="n">
-        <v>4507079.386351076</v>
+        <v>5633849.232938838</v>
       </c>
       <c r="G432" t="n">
-        <v>12359584.43075301</v>
+        <v>9120118.381606396</v>
       </c>
       <c r="H432" t="n">
-        <v>25035133.76553131</v>
+        <v>18473386.78094102</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>4506769.81630047</v>
+        <v>10242658.67341016</v>
       </c>
       <c r="C433" t="n">
-        <v>2645088.639724707</v>
+        <v>6011565.090283418</v>
       </c>
       <c r="D433" t="n">
-        <v>1760296.579110473</v>
+        <v>4000674.04343289</v>
       </c>
       <c r="E433" t="n">
-        <v>2011384.42537233</v>
+        <v>3224252.211989036</v>
       </c>
       <c r="F433" t="n">
-        <v>4506338.923430287</v>
+        <v>5632923.654287852</v>
       </c>
       <c r="G433" t="n">
-        <v>12359181.21994013</v>
+        <v>9119820.852966439</v>
       </c>
       <c r="H433" t="n">
-        <v>26337052.53198357</v>
+        <v>19434070.64048373</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>4462976.838603824</v>
+        <v>10143129.17864506</v>
       </c>
       <c r="C434" t="n">
-        <v>2634822.560046791</v>
+        <v>5988233.091015428</v>
       </c>
       <c r="D434" t="n">
-        <v>1757268.962558513</v>
+        <v>3993793.096723889</v>
       </c>
       <c r="E434" t="n">
-        <v>2010151.214356155</v>
+        <v>3222105.547408275</v>
       </c>
       <c r="F434" t="n">
-        <v>4505485.85154553</v>
+        <v>5631857.314431908</v>
       </c>
       <c r="G434" t="n">
-        <v>12358703.15998762</v>
+        <v>9119468.093261223</v>
       </c>
       <c r="H434" t="n">
-        <v>27644196.09406992</v>
+        <v>20398609.86870565</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>4418058.695128002</v>
+        <v>10041042.48892728</v>
       </c>
       <c r="C435" t="n">
-        <v>2623883.905051948</v>
+        <v>5963372.511481693</v>
       </c>
       <c r="D435" t="n">
-        <v>1753959.89186986</v>
+        <v>3986272.481522406</v>
       </c>
       <c r="E435" t="n">
-        <v>2008768.119050368</v>
+        <v>3219702.589593881</v>
       </c>
       <c r="F435" t="n">
-        <v>4504505.135907521</v>
+        <v>5630631.419884397</v>
       </c>
       <c r="G435" t="n">
-        <v>12358137.65067376</v>
+        <v>9119050.80480648</v>
       </c>
       <c r="H435" t="n">
-        <v>28956685.66037365</v>
+        <v>21367093.90523436</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>4372020.66441388</v>
+        <v>9936410.600940641</v>
       </c>
       <c r="C436" t="n">
-        <v>2612245.158623436</v>
+        <v>5936920.815053261</v>
       </c>
       <c r="D436" t="n">
-        <v>1750349.47655696</v>
+        <v>3978066.992174907</v>
       </c>
       <c r="E436" t="n">
-        <v>2007219.956451922</v>
+        <v>3217017.96592797</v>
       </c>
       <c r="F436" t="n">
-        <v>4503380.076808458</v>
+        <v>5629225.096010565</v>
       </c>
       <c r="G436" t="n">
-        <v>12357470.22315934</v>
+        <v>9118558.311067984</v>
       </c>
       <c r="H436" t="n">
-        <v>30274652.38610028</v>
+        <v>22339619.52929476</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>4324870.161339124</v>
+        <v>9829250.366679834</v>
       </c>
       <c r="C437" t="n">
-        <v>2599879.121617684</v>
+        <v>5908816.185494731</v>
       </c>
       <c r="D437" t="n">
-        <v>1746417.112644274</v>
+        <v>3969129.801464257</v>
       </c>
       <c r="E437" t="n">
-        <v>2005490.418088706</v>
+        <v>3214024.491884392</v>
       </c>
       <c r="F437" t="n">
-        <v>4502092.17740781</v>
+        <v>5627615.221759757</v>
       </c>
       <c r="G437" t="n">
-        <v>12356684.30895954</v>
+        <v>9117978.38618619</v>
       </c>
       <c r="H437" t="n">
-        <v>31598237.04767467</v>
+        <v>23316290.61959462</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>4276616.794076229</v>
+        <v>9719583.622900531</v>
       </c>
       <c r="C438" t="n">
-        <v>2586759.056043166</v>
+        <v>5878997.854643555</v>
       </c>
       <c r="D438" t="n">
-        <v>1742141.531592123</v>
+        <v>3959412.571800275</v>
       </c>
       <c r="E438" t="n">
-        <v>2003562.039023035</v>
+        <v>3210693.129352044</v>
       </c>
       <c r="F438" t="n">
-        <v>4500621.008571141</v>
+        <v>5625776.260713921</v>
       </c>
       <c r="G438" t="n">
-        <v>12355760.98822959</v>
+        <v>9117297.069236699</v>
       </c>
       <c r="H438" t="n">
-        <v>32927589.65356649</v>
+        <v>24297217.86715353</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>4227272.414942133</v>
+        <v>9607437.306686671</v>
       </c>
       <c r="C439" t="n">
-        <v>2572858.835830964</v>
+        <v>5847406.445070366</v>
       </c>
       <c r="D439" t="n">
-        <v>1737500.858542995</v>
+        <v>3948865.587597711</v>
       </c>
       <c r="E439" t="n">
-        <v>2001416.172935789</v>
+        <v>3206992.955593222</v>
       </c>
       <c r="F439" t="n">
-        <v>4498944.071890973</v>
+        <v>5623680.089863709</v>
       </c>
       <c r="G439" t="n">
-        <v>12354678.71680598</v>
+        <v>9116498.46281432</v>
       </c>
       <c r="H439" t="n">
-        <v>34262868.98791353</v>
+        <v>25282518.43854301</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>4176851.164628857</v>
+        <v>9492843.555974679</v>
       </c>
       <c r="C440" t="n">
-        <v>2558153.103478979</v>
+        <v>5813984.326088584</v>
       </c>
       <c r="D440" t="n">
-        <v>1732472.680190446</v>
+        <v>3937437.909523737</v>
       </c>
       <c r="E440" t="n">
-        <v>1999032.97426871</v>
+        <v>3202891.144387967</v>
       </c>
       <c r="F440" t="n">
-        <v>4497036.662208944</v>
+        <v>5621295.827761173</v>
       </c>
       <c r="G440" t="n">
-        <v>12353413.03166422</v>
+        <v>9115564.515690828</v>
       </c>
       <c r="H440" t="n">
-        <v>35604242.08346953</v>
+        <v>26272315.58697572</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>4125369.509322944</v>
+        <v>9375839.793915791</v>
       </c>
       <c r="C441" t="n">
-        <v>2542617.431751451</v>
+        <v>5778675.981253292</v>
       </c>
       <c r="D441" t="n">
-        <v>1727034.12249102</v>
+        <v>3925077.55111595</v>
       </c>
       <c r="E441" t="n">
-        <v>1996391.388427245</v>
+        <v>3198352.960940557</v>
       </c>
       <c r="F441" t="n">
-        <v>4494871.731154825</v>
+        <v>5618589.663943524</v>
       </c>
       <c r="G441" t="n">
-        <v>12351936.23471937</v>
+        <v>9114474.789491855</v>
       </c>
       <c r="H441" t="n">
-        <v>36951883.62039163</v>
+        <v>27266738.20867147</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>4072846.270244253</v>
+        <v>9256468.796009673</v>
       </c>
       <c r="C442" t="n">
-        <v>2526228.48951726</v>
+        <v>5741428.385266496</v>
       </c>
       <c r="D442" t="n">
-        <v>1721161.938349993</v>
+        <v>3911731.678068162</v>
       </c>
       <c r="E442" t="n">
-        <v>1993469.151059329</v>
+        <v>3193341.772129214</v>
       </c>
       <c r="F442" t="n">
-        <v>4492419.753417979</v>
+        <v>5615524.691772467</v>
       </c>
       <c r="G442" t="n">
-        <v>12350217.05520733</v>
+        <v>9113206.209568564</v>
       </c>
       <c r="H442" t="n">
-        <v>38305975.2473939</v>
+        <v>28265920.34193761</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>4019302.645161998</v>
+        <v>9134778.739004539</v>
       </c>
       <c r="C443" t="n">
-        <v>2508964.21071606</v>
+        <v>5702191.387991041</v>
       </c>
       <c r="D443" t="n">
-        <v>1714832.605312729</v>
+        <v>3897346.830256198</v>
       </c>
       <c r="E443" t="n">
-        <v>1990242.797424977</v>
+        <v>3187819.073662595</v>
       </c>
       <c r="F443" t="n">
-        <v>4489648.597667096</v>
+        <v>5612060.747083863</v>
       </c>
       <c r="G443" t="n">
-        <v>12348220.29124679</v>
+        <v>9111732.800506772</v>
       </c>
       <c r="H443" t="n">
-        <v>39666704.82183868</v>
+        <v>29270000.60643347</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3964762.221477825</v>
+        <v>9010823.230631426</v>
       </c>
       <c r="C444" t="n">
-        <v>2490803.965351694</v>
+        <v>5660918.103072029</v>
       </c>
       <c r="D444" t="n">
-        <v>1708022.433185543</v>
+        <v>3881869.166330776</v>
       </c>
       <c r="E444" t="n">
-        <v>1986687.682856051</v>
+        <v>3181744.535664375</v>
       </c>
       <c r="F444" t="n">
-        <v>4486523.40423106</v>
+        <v>5608154.255288819</v>
       </c>
       <c r="G444" t="n">
-        <v>12345906.43159404</v>
+        <v>9110025.40702039</v>
       </c>
       <c r="H444" t="n">
-        <v>41034265.56542292</v>
+        <v>30279121.58015265</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3909250.980501902</v>
+        <v>8884661.31932251</v>
       </c>
       <c r="C445" t="n">
-        <v>2471728.731329291</v>
+        <v>5617565.298475656</v>
       </c>
       <c r="D445" t="n">
-        <v>1700707.68139419</v>
+        <v>3865244.730441336</v>
       </c>
       <c r="E445" t="n">
-        <v>1982778.015273658</v>
+        <v>3175076.068138271</v>
       </c>
       <c r="F445" t="n">
-        <v>4483006.471843433</v>
+        <v>5603758.089804284</v>
       </c>
       <c r="G445" t="n">
-        <v>12343231.25906617</v>
+        <v>9108051.401318001</v>
       </c>
       <c r="H445" t="n">
-        <v>42408855.13224398</v>
+        <v>31293429.11175024</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3852797.292588543</v>
+        <v>8756357.483155785</v>
       </c>
       <c r="C446" t="n">
-        <v>2451721.265877062</v>
+        <v>5572093.786084227</v>
       </c>
       <c r="D446" t="n">
-        <v>1692864.685765385</v>
+        <v>3847419.740375872</v>
       </c>
       <c r="E446" t="n">
-        <v>1978486.900681034</v>
+        <v>3167769.907668443</v>
       </c>
       <c r="F446" t="n">
-        <v>4479057.155930829</v>
+        <v>5598821.444913531</v>
       </c>
       <c r="G446" t="n">
-        <v>12340145.43762171</v>
+        <v>9105774.378410341</v>
       </c>
       <c r="H446" t="n">
-        <v>43790674.58620682</v>
+        <v>32313071.56597312</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3795431.902842535</v>
+        <v>8625981.597369405</v>
       </c>
       <c r="C447" t="n">
-        <v>2430766.275227705</v>
+        <v>5524468.807335687</v>
       </c>
       <c r="D447" t="n">
-        <v>1684469.994288447</v>
+        <v>3828340.896110103</v>
       </c>
       <c r="E447" t="n">
-        <v>1973786.402481517</v>
+        <v>3159780.726583177</v>
       </c>
       <c r="F447" t="n">
-        <v>4474631.781086531</v>
+        <v>5593289.726358158</v>
       </c>
       <c r="G447" t="n">
-        <v>12336594.08564971</v>
+        <v>9103153.84124092</v>
       </c>
       <c r="H447" t="n">
-        <v>45179927.28496905</v>
+        <v>33338199.00012471</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>3737187.907155852</v>
+        <v>8493608.879899669</v>
       </c>
       <c r="C448" t="n">
-        <v>2408850.581178642</v>
+        <v>5474660.411769636</v>
       </c>
       <c r="D448" t="n">
-        <v>1675500.511281575</v>
+        <v>3807955.707458122</v>
       </c>
       <c r="E448" t="n">
-        <v>1968647.615383405</v>
+        <v>3151061.765651918</v>
       </c>
       <c r="F448" t="n">
-        <v>4469683.57050997</v>
+        <v>5587104.463137457</v>
       </c>
       <c r="G448" t="n">
-        <v>12332516.33862418</v>
+        <v>9100144.877969425</v>
       </c>
       <c r="H448" t="n">
-        <v>46576817.66791613</v>
+        <v>34368962.26971375</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>3678100.718386484</v>
+        <v>8359319.814514743</v>
       </c>
       <c r="C449" t="n">
-        <v>2385963.283106488</v>
+        <v>5422643.825242015</v>
       </c>
       <c r="D449" t="n">
-        <v>1665933.649252222</v>
+        <v>3786212.839209591</v>
       </c>
       <c r="E449" t="n">
-        <v>1963040.754545755</v>
+        <v>3141564.991196848</v>
       </c>
       <c r="F449" t="n">
-        <v>4464162.595304892</v>
+        <v>5580203.24413111</v>
       </c>
       <c r="G449" t="n">
-        <v>12327844.90492716</v>
+        <v>9096697.834214248</v>
       </c>
       <c r="H449" t="n">
-        <v>47981549.94602671</v>
+        <v>35405512.06170798</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>3618208.022546582</v>
+        <v>8223200.051242239</v>
       </c>
       <c r="C450" t="n">
-        <v>2362095.913980152</v>
+        <v>5368399.804500341</v>
       </c>
       <c r="D450" t="n">
-        <v>1655747.487605098</v>
+        <v>3763062.471829763</v>
       </c>
       <c r="E450" t="n">
-        <v>1956935.260491116</v>
+        <v>3131241.27728032</v>
       </c>
       <c r="F450" t="n">
-        <v>4458015.746608524</v>
+        <v>5572519.683260649</v>
       </c>
       <c r="G450" t="n">
-        <v>12322505.61932242</v>
+        <v>9092757.983561397</v>
       </c>
       <c r="H450" t="n">
-        <v>49394326.69192451</v>
+        <v>36447997.85413553</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>3557549.724925313</v>
+        <v>8085340.28392117</v>
       </c>
       <c r="C451" t="n">
-        <v>2337242.588900075</v>
+        <v>5311914.974772895</v>
       </c>
       <c r="D451" t="n">
-        <v>1644920.937216683</v>
+        <v>3738456.675492457</v>
       </c>
       <c r="E451" t="n">
-        <v>1950299.920163223</v>
+        <v>3120040.613379186</v>
       </c>
       <c r="F451" t="n">
-        <v>4451186.733565655</v>
+        <v>5563983.416957063</v>
       </c>
       <c r="G451" t="n">
-        <v>12316416.99926518</v>
+        <v>9088265.200166151</v>
       </c>
       <c r="H451" t="n">
-        <v>50815347.32894044</v>
+        <v>37496566.80116616</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>3496167.886132672</v>
+        <v>7945836.104846989</v>
       </c>
       <c r="C452" t="n">
-        <v>2311400.144689042</v>
+        <v>5253182.147020548</v>
       </c>
       <c r="D452" t="n">
-        <v>1633433.909763596</v>
+        <v>3712349.794917261</v>
       </c>
       <c r="E452" t="n">
-        <v>1943103.004340136</v>
+        <v>3107912.337677807</v>
       </c>
       <c r="F452" t="n">
-        <v>4443616.110159712</v>
+        <v>5554520.137699633</v>
       </c>
       <c r="G452" t="n">
-        <v>12309489.80995101</v>
+        <v>9083153.637803271</v>
       </c>
       <c r="H452" t="n">
-        <v>52244806.51861534</v>
+        <v>38551362.54325211</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>148821.280951146</v>
+        <v>87484.96213669385</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>299955.2009834384</v>
+        <v>176357.4824978974</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>453440.9515181568</v>
+        <v>266641.4920902759</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>609318.2193980068</v>
+        <v>358361.2362452108</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>767627.1745164256</v>
+        <v>451541.2677496701</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>928408.4558839672</v>
+        <v>546206.4390474781</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1091703.156070428</v>
+        <v>642381.8934732181</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1257552.803961648</v>
+        <v>740093.0554810853</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1425999.34577052</v>
+        <v>839365.6198312927</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1597085.124242926</v>
+        <v>940225.5396972353</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1770852.856000254</v>
+        <v>1042699.01365714</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1947345.60696158</v>
+        <v>1146812.471534641</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2126606.765790498</v>
+        <v>1252592.559053835</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2308680.015313555</v>
+        <v>1360066.121275429</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2493609.301859512</v>
+        <v>1469260.184781861</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2681438.802471632</v>
+        <v>1580201.938581023</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2872212.889947923</v>
+        <v>1692918.713699708</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>3065976.09566791</v>
+        <v>1807437.961440051</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>3262773.070168414</v>
+        <v>1923787.230274464</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>3462648.541434649</v>
+        <v>2041994.141356819</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>3665647.270877997</v>
+        <v>2162086.362630546</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>3871814.00697635</v>
+        <v>2284091.581516996</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>4081193.43655888</v>
+        <v>2408037.47617091</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>4293830.133722389</v>
+        <v>2533951.685292949</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>4509768.506372998</v>
+        <v>2661861.77649316</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>4729052.740393559</v>
+        <v>2791795.213203164</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>4951726.741444175</v>
+        <v>2923779.320138999</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>5177834.074410799</v>
+        <v>3057841.247321097</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>5407417.900524851</v>
+        <v>3194007.932662598</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>5640520.912185107</v>
+        <v>3332306.063142162</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>5877185.265521674</v>
+        <v>3472762.034582637</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>6117452.510751228</v>
+        <v>3615401.910062435</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>6361363.520381849</v>
+        <v>3760251.37699214</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>6608958.41533574</v>
+        <v>3907335.702894675</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>6860276.489068064</v>
+        <v>4056679.689933556</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>7115356.129770517</v>
+        <v>4208307.62823988</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>7374234.740758609</v>
+        <v>4362243.248095088</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>7636948.65915283</v>
+        <v>4518509.671033249</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>7903533.072974239</v>
+        <v>4677129.359933015</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>8174021.936786264</v>
+        <v>4838124.068176187</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>8448447.886025677</v>
+        <v>5001514.7879567</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>8726842.150176479</v>
+        <v>5167321.697830414</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>9009234.464951754</v>
+        <v>5335564.109603072</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>9295652.983658932</v>
+        <v>5506260.414660211</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>9586124.18793539</v>
+        <v>5679428.029849807</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>9880672.798050757</v>
+        <v>5855083.343034439</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>10179321.68298355</v>
+        <v>6033241.658436611</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>10482091.77048836</v>
+        <v>6213917.141906379</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>10789001.95738027</v>
+        <v>6397122.766246802</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>11100069.02027082</v>
+        <v>6582870.256737913</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>11415307.52699907</v>
+        <v>6771170.037005222</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>11734729.74900785</v>
+        <v>6962031.17538352</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>12058345.57492265</v>
+        <v>7155461.331931149</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>12386162.42559634</v>
+        <v>7351466.706253731</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>12718185.17088768</v>
+        <v>7550051.98629966</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>12715661.31998215</v>
+        <v>7548562.3910987</v>
       </c>
       <c r="C358" t="n">
-        <v>384697.6341417268</v>
+        <v>217813.8770895551</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>12712960.68505145</v>
+        <v>7546968.380587531</v>
       </c>
       <c r="C359" t="n">
-        <v>774374.3420199431</v>
+        <v>438517.8139004246</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>12710072.32312029</v>
+        <v>7545263.484353489</v>
       </c>
       <c r="C360" t="n">
-        <v>1169038.847447859</v>
+        <v>662118.6120755646</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>12706984.72098878</v>
+        <v>7543440.894199429</v>
       </c>
       <c r="C361" t="n">
-        <v>1568697.272716514</v>
+        <v>888621.6054852834</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>12703685.773024</v>
+        <v>7541493.450937144</v>
       </c>
       <c r="C362" t="n">
-        <v>1973353.083839369</v>
+        <v>1118030.627307927</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>12700162.75860848</v>
+        <v>7539413.630972494</v>
       </c>
       <c r="C363" t="n">
-        <v>2383007.040036081</v>
+        <v>1350347.979463975</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>12696402.31928344</v>
+        <v>7537193.532704458</v>
       </c>
       <c r="C364" t="n">
-        <v>2797657.147723071</v>
+        <v>1585574.404560286</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>12692390.43562913</v>
+        <v>7534824.86276299</v>
       </c>
       <c r="C365" t="n">
-        <v>3217298.619267447</v>
+        <v>1823709.060495378</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>12688112.40392988</v>
+        <v>7532298.922113631</v>
       </c>
       <c r="C366" t="n">
-        <v>3641923.836749327</v>
+        <v>2064749.497870501</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>12683552.81267641</v>
+        <v>7529606.592059862</v>
       </c>
       <c r="C367" t="n">
-        <v>4071522.320964096</v>
+        <v>2308691.64034395</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>12678695.51896385</v>
+        <v>7526738.320177563</v>
       </c>
       <c r="C368" t="n">
-        <v>4506080.705879393</v>
+        <v>2555529.768056986</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>12673523.62484977</v>
+        <v>7523684.106219523</v>
       </c>
       <c r="C369" t="n">
-        <v>4945582.718745069</v>
+        <v>2805256.504250676</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>12668019.45374267</v>
+        <v>7520433.488031648</v>
       </c>
       <c r="C370" t="n">
-        <v>5390009.16603367</v>
+        <v>3057862.805181559</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>12662164.52689846</v>
+        <v>7516975.527526541</v>
       </c>
       <c r="C371" t="n">
-        <v>5839337.925368115</v>
+        <v>3313337.95343255</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>12655939.54010892</v>
+        <v>7513298.796764204</v>
       </c>
       <c r="C372" t="n">
-        <v>6293543.943569795</v>
+        <v>3571669.554702449</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>12649324.34067396</v>
+        <v>7509391.364194169</v>
       </c>
       <c r="C373" t="n">
-        <v>6293507.732662322</v>
+        <v>3571649.026382369</v>
       </c>
       <c r="D373" t="n">
-        <v>388327.7191289405</v>
+        <v>254282.8936032613</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>12642297.90475696</v>
+        <v>7505240.781117756</v>
       </c>
       <c r="C374" t="n">
-        <v>6293465.832290192</v>
+        <v>3571625.272338468</v>
       </c>
       <c r="D374" t="n">
-        <v>780735.9346836598</v>
+        <v>511320.7689754397</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>12634838.31523054</v>
+        <v>7500834.068434158</v>
       </c>
       <c r="C375" t="n">
-        <v>6293417.411198594</v>
+        <v>3571597.821226335</v>
       </c>
       <c r="D375" t="n">
-        <v>1177196.764215451</v>
+        <v>771097.1371605024</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>12626922.74012859</v>
+        <v>7496157.703738878</v>
       </c>
       <c r="C376" t="n">
-        <v>6293361.527018451</v>
+        <v>3571566.138688336</v>
       </c>
       <c r="D376" t="n">
-        <v>1577679.986850059</v>
+        <v>1033593.960522678</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>12618527.41182882</v>
+        <v>7491197.608848369</v>
       </c>
       <c r="C377" t="n">
-        <v>6293297.113032308</v>
+        <v>3571529.619847271</v>
       </c>
       <c r="D377" t="n">
-        <v>1982153.079606808</v>
+        <v>1298791.674565283</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>12609627.60709943</v>
+        <v>7485939.137829951</v>
       </c>
       <c r="C378" t="n">
-        <v>6293222.963604253</v>
+        <v>3571487.581042101</v>
       </c>
       <c r="D378" t="n">
-        <v>2390581.260202863</v>
+        <v>1566669.214040321</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>12600197.62815229</v>
+        <v>7480367.065621696</v>
       </c>
       <c r="C379" t="n">
-        <v>6293137.718172965</v>
+        <v>3571439.250748468</v>
       </c>
       <c r="D379" t="n">
-        <v>2802927.536362884</v>
+        <v>1837204.043370882</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>12590210.78485458</v>
+        <v>7474465.577332519</v>
       </c>
       <c r="C380" t="n">
-        <v>6293039.843704023</v>
+        <v>3571383.759625073</v>
       </c>
       <c r="D380" t="n">
-        <v>3219152.761626992</v>
+        <v>2110372.191390562</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>12579639.37826073</v>
+        <v>7468218.258318499</v>
       </c>
       <c r="C381" t="n">
-        <v>6292927.615495387</v>
+        <v>3571320.129625682</v>
       </c>
       <c r="D381" t="n">
-        <v>3639215.697621408</v>
+        <v>2386148.290385447</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>12568454.6856357</v>
+        <v>7461608.085137278</v>
       </c>
       <c r="C382" t="n">
-        <v>6292799.096228378</v>
+        <v>3571247.262115638</v>
       </c>
       <c r="D382" t="n">
-        <v>4063073.082726174</v>
+        <v>2664505.619404615</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>12556626.94715073</v>
+        <v>7454617.417488216</v>
       </c>
       <c r="C383" t="n">
-        <v>6292652.113155913</v>
+        <v>3571163.924931436</v>
       </c>
       <c r="D383" t="n">
-        <v>4063065.468628829</v>
+        <v>2664500.628995072</v>
       </c>
       <c r="E383" t="n">
-        <v>312277.9627980873</v>
+        <v>215236.0716067965</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>12544125.35444245</v>
+        <v>7447227.991251844</v>
       </c>
       <c r="C384" t="n">
-        <v>6292484.23332016</v>
+        <v>3571068.738322136</v>
       </c>
       <c r="D384" t="n">
-        <v>4063056.391212906</v>
+        <v>2664494.679457799</v>
       </c>
       <c r="E384" t="n">
-        <v>627260.6078100241</v>
+        <v>432406.6950304759</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>12530918.04123586</v>
+        <v>7439420.912747963</v>
       </c>
       <c r="C385" t="n">
-        <v>6292292.736693465</v>
+        <v>3570960.159712334</v>
       </c>
       <c r="D385" t="n">
-        <v>4063045.587348096</v>
+        <v>2664487.598316071</v>
       </c>
       <c r="E385" t="n">
-        <v>944912.4479079705</v>
+        <v>651488.6495220445</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>12516972.07624109</v>
+        <v>7431176.654337529</v>
       </c>
       <c r="C386" t="n">
-        <v>6292074.587139362</v>
+        <v>3570836.467228115</v>
       </c>
       <c r="D386" t="n">
-        <v>4063032.750196359</v>
+        <v>2664479.184441944</v>
       </c>
       <c r="E386" t="n">
-        <v>1265196.795886436</v>
+        <v>872457.8638064408</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>12502253.45854344</v>
+        <v>7422475.051498863</v>
       </c>
       <c r="C387" t="n">
-        <v>6291826.401095161</v>
+        <v>3570695.741930004</v>
       </c>
       <c r="D387" t="n">
-        <v>4063017.522634859</v>
+        <v>2664469.203744585</v>
       </c>
       <c r="E387" t="n">
-        <v>1588075.84123443</v>
+        <v>1095289.467967975</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>12486727.11571476</v>
+        <v>7413295.301514263</v>
       </c>
       <c r="C388" t="n">
-        <v>6291544.413883775</v>
+        <v>3570535.848700507</v>
       </c>
       <c r="D388" t="n">
-        <v>4062999.489811664</v>
+        <v>2664457.384290001</v>
       </c>
       <c r="E388" t="n">
-        <v>1913510.731424445</v>
+        <v>1319957.84853965</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>12470356.90488277</v>
+        <v>7403615.96390806</v>
       </c>
       <c r="C389" t="n">
-        <v>6291224.443570763</v>
+        <v>3570354.415738469</v>
       </c>
       <c r="D389" t="n">
-        <v>4062978.170740558</v>
+        <v>2664443.410790811</v>
       </c>
       <c r="E389" t="n">
-        <v>2241461.657565495</v>
+        <v>1546436.70669742</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>12453105.61700279</v>
+        <v>7393414.962781862</v>
       </c>
       <c r="C390" t="n">
-        <v>6290861.852292823</v>
+        <v>3570148.812618312</v>
       </c>
       <c r="D390" t="n">
-        <v>4062953.00883467</v>
+        <v>2664426.918400246</v>
       </c>
       <c r="E390" t="n">
-        <v>2571887.944245342</v>
+        <v>1774699.119445024</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>12434934.98458341</v>
+        <v>7382669.591197087</v>
       </c>
       <c r="C391" t="n">
-        <v>6290451.504996429</v>
+        <v>3569916.126879347</v>
       </c>
       <c r="D391" t="n">
-        <v>4062923.361271887</v>
+        <v>2664407.485740222</v>
       </c>
       <c r="E391" t="n">
-        <v>2904748.143364347</v>
+        <v>2004717.603659136</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>12415805.69312375</v>
+        <v>7371356.517758583</v>
       </c>
       <c r="C392" t="n">
-        <v>6289987.725540474</v>
+        <v>3569653.13911881</v>
       </c>
       <c r="D392" t="n">
-        <v>4062888.487078526</v>
+        <v>2664384.627089049</v>
       </c>
       <c r="E392" t="n">
-        <v>3240000.131740503</v>
+        <v>2236464.182848599</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>12395677.39652522</v>
+        <v>7359451.795556327</v>
       </c>
       <c r="C393" t="n">
-        <v>6289464.250134156</v>
+        <v>3569356.296572286</v>
       </c>
       <c r="D393" t="n">
-        <v>4062847.533811599</v>
+        <v>2664357.783650265</v>
       </c>
       <c r="E393" t="n">
-        <v>3239996.129917351</v>
+        <v>2236461.42213136</v>
       </c>
       <c r="F393" t="n">
-        <v>547933.0601303293</v>
+        <v>343367.0603108719</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>12374508.73674475</v>
+        <v>7346930.87362463</v>
       </c>
       <c r="C394" t="n">
-        <v>6288874.178101831</v>
+        <v>3569021.68517669</v>
       </c>
       <c r="D394" t="n">
-        <v>4062799.522714181</v>
+        <v>2664326.313820358</v>
       </c>
       <c r="E394" t="n">
-        <v>3239991.283092604</v>
+        <v>2236458.07845294</v>
       </c>
       <c r="F394" t="n">
-        <v>1099610.008755994</v>
+        <v>689192.6719843829</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>12352257.367959</v>
+        <v>7333768.611079982</v>
       </c>
       <c r="C395" t="n">
-        <v>6288209.919989699</v>
+        <v>3568645.000124143</v>
       </c>
       <c r="D395" t="n">
-        <v>4062743.332213376</v>
+        <v>2664289.482369741</v>
       </c>
       <c r="E395" t="n">
-        <v>3239985.423990393</v>
+        <v>2236454.036405439</v>
       </c>
       <c r="F395" t="n">
-        <v>1654960.469973373</v>
+        <v>1037434.304051508</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>12328879.98551037</v>
+        <v>7319939.294099354</v>
       </c>
       <c r="C396" t="n">
-        <v>6287463.143055403</v>
+        <v>3568221.514929956</v>
       </c>
       <c r="D396" t="n">
-        <v>4062677.679625983</v>
+        <v>2664246.448448559</v>
       </c>
       <c r="E396" t="n">
-        <v>3239978.354651953</v>
+        <v>2236449.159410922</v>
       </c>
       <c r="F396" t="n">
-        <v>2213913.708369231</v>
+        <v>1388049.158540297</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>12304332.35990492</v>
+        <v>7305416.655900618</v>
       </c>
       <c r="C397" t="n">
-        <v>6286624.714210958</v>
+        <v>3567746.049054559</v>
       </c>
       <c r="D397" t="n">
-        <v>4062601.100933811</v>
+        <v>2664196.252326742</v>
       </c>
       <c r="E397" t="n">
-        <v>3239969.841311184</v>
+        <v>2236443.286185531</v>
       </c>
       <c r="F397" t="n">
-        <v>2776398.819625478</v>
+        <v>1740994.289734916</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>12278569.37613016</v>
+        <v>7290173.899885382</v>
       </c>
       <c r="C398" t="n">
-        <v>6285684.640521871</v>
+        <v>3567212.934137631</v>
       </c>
       <c r="D398" t="n">
-        <v>4062511.928488463</v>
+        <v>2664137.800776419</v>
       </c>
       <c r="E398" t="n">
-        <v>3239959.608513124</v>
+        <v>2236436.226681171</v>
       </c>
       <c r="F398" t="n">
-        <v>3342344.925498655</v>
+        <v>2096226.726376683</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>12251545.0785561</v>
+        <v>7274183.726101948</v>
       </c>
       <c r="C399" t="n">
-        <v>6284632.007400881</v>
+        <v>3566615.978922866</v>
       </c>
       <c r="D399" t="n">
-        <v>4062408.266504989</v>
+        <v>2664069.85100444</v>
       </c>
       <c r="E399" t="n">
-        <v>3239947.332381848</v>
+        <v>2236427.757440219</v>
       </c>
       <c r="F399" t="n">
-        <v>3911681.372684868</v>
+        <v>2453703.596506114</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>12223212.72167637</v>
+        <v>7257418.361182331</v>
       </c>
       <c r="C400" t="n">
-        <v>6283454.914673615</v>
+        <v>3565948.43297385</v>
       </c>
       <c r="D400" t="n">
-        <v>4062287.964205022</v>
+        <v>2663990.993043599</v>
       </c>
       <c r="E400" t="n">
-        <v>3239932.632935881</v>
+        <v>2236417.616292973</v>
       </c>
       <c r="F400" t="n">
-        <v>4484337.935049198</v>
+        <v>2813382.254624502</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>12193524.82693726</v>
+        <v>7239849.591901822</v>
       </c>
       <c r="C401" t="n">
-        <v>6282140.410735238</v>
+        <v>3565202.949305261</v>
       </c>
       <c r="D401" t="n">
-        <v>4062148.586473336</v>
+        <v>2663899.630513311</v>
       </c>
       <c r="E401" t="n">
-        <v>3239915.065340803</v>
+        <v>2236405.496321656</v>
       </c>
       <c r="F401" t="n">
-        <v>5060245.018668693</v>
+        <v>3175220.410834108</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>12162433.24589104</v>
+        <v>7221448.802503045</v>
       </c>
       <c r="C402" t="n">
-        <v>6280674.425062056</v>
+        <v>3564371.546079027</v>
       </c>
       <c r="D402" t="n">
-        <v>4061987.381897448</v>
+        <v>2663793.959664203</v>
       </c>
       <c r="E402" t="n">
-        <v>3239894.109980078</v>
+        <v>2236391.039008895</v>
       </c>
       <c r="F402" t="n">
-        <v>5639333.869104097</v>
+        <v>3539176.261594107</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>12129889.22989558</v>
+        <v>7202187.01591776</v>
       </c>
       <c r="C403" t="n">
-        <v>6279041.699389647</v>
+        <v>3563445.567542176</v>
       </c>
       <c r="D403" t="n">
-        <v>4061801.248068112</v>
+        <v>2663671.946626517</v>
       </c>
       <c r="E403" t="n">
-        <v>3239869.161216666</v>
+        <v>2236373.826482696</v>
       </c>
       <c r="F403" t="n">
-        <v>5639328.928955385</v>
+        <v>3539173.163061634</v>
       </c>
       <c r="G403" t="n">
-        <v>892258.6477640469</v>
+        <v>983043.0323419488</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>12095843.50656524</v>
+        <v>7182034.939009785</v>
       </c>
       <c r="C404" t="n">
-        <v>6277225.717919379</v>
+        <v>3562415.644411538</v>
       </c>
       <c r="D404" t="n">
-        <v>4061586.694029937</v>
+        <v>2663531.302789604</v>
       </c>
       <c r="E404" t="n">
-        <v>3239839.514709642</v>
+        <v>2236353.372764231</v>
       </c>
       <c r="F404" t="n">
-        <v>5639322.8644127</v>
+        <v>3539169.359266323</v>
       </c>
       <c r="G404" t="n">
-        <v>1789189.616922381</v>
+        <v>1971556.143907389</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>12060246.36315813</v>
+        <v>7160963.011950422</v>
       </c>
       <c r="C405" t="n">
-        <v>6275208.63696758</v>
+        <v>3561271.653940326</v>
       </c>
       <c r="D405" t="n">
-        <v>4061339.799785746</v>
+        <v>2663369.458249302</v>
       </c>
       <c r="E405" t="n">
-        <v>3239804.353142216</v>
+        <v>2236329.113919287</v>
       </c>
       <c r="F405" t="n">
-        <v>5639315.435219114</v>
+        <v>3539164.699503484</v>
       </c>
       <c r="G405" t="n">
-        <v>2690693.691735995</v>
+        <v>2965433.522874566</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>12023047.73706135</v>
+        <v>7138941.46182402</v>
       </c>
       <c r="C406" t="n">
-        <v>6272971.214526127</v>
+        <v>3560002.679932477</v>
       </c>
       <c r="D406" t="n">
-        <v>4061056.172776513</v>
+        <v>2663183.533271862</v>
       </c>
       <c r="E406" t="n">
-        <v>3239762.730210228</v>
+        <v>2236300.397009211</v>
       </c>
       <c r="F406" t="n">
-        <v>5639306.353447286</v>
+        <v>3539159.003165025</v>
       </c>
       <c r="G406" t="n">
-        <v>3596674.301105052</v>
+        <v>3964572.170424365</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>11984197.31350982</v>
+        <v>7115940.360545752</v>
       </c>
       <c r="C407" t="n">
-        <v>6270492.740259099</v>
+        <v>3558596.973002368</v>
       </c>
       <c r="D407" t="n">
-        <v>4060730.901280573</v>
+        <v>2662970.307737468</v>
       </c>
       <c r="E407" t="n">
-        <v>3239713.552713784</v>
+        <v>2236266.467732786</v>
       </c>
       <c r="F407" t="n">
-        <v>5639295.274857135</v>
+        <v>3539152.054317846</v>
       </c>
       <c r="G407" t="n">
-        <v>4507037.851252299</v>
+        <v>4968872.271442465</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>11943644.63064441</v>
+        <v>7091929.687156013</v>
       </c>
       <c r="C408" t="n">
-        <v>6267750.966516995</v>
+        <v>3557041.911409832</v>
       </c>
       <c r="D408" t="n">
-        <v>4060358.504701931</v>
+        <v>2662726.188543485</v>
       </c>
       <c r="E408" t="n">
-        <v>3239655.560589509</v>
+        <v>2236226.456646786</v>
       </c>
       <c r="F408" t="n">
-        <v>5639281.788858715</v>
+        <v>3539143.595407195</v>
       </c>
       <c r="G408" t="n">
-        <v>5421694.05743092</v>
+        <v>5978237.564755181</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>11901339.19198233</v>
+        <v>7066879.394536328</v>
       </c>
       <c r="C409" t="n">
-        <v>6264722.04100736</v>
+        <v>3555323.962832914</v>
       </c>
       <c r="D409" t="n">
-        <v>4059932.880747937</v>
+        <v>2662447.174967552</v>
       </c>
       <c r="E409" t="n">
-        <v>3239587.304716968</v>
+        <v>2236179.36385038</v>
       </c>
       <c r="F409" t="n">
-        <v>5639265.40688942</v>
+        <v>3539133.319965187</v>
       </c>
       <c r="G409" t="n">
-        <v>6340556.273642725</v>
+        <v>6992575.711779851</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>11857230.58633651</v>
+        <v>7040759.48056999</v>
       </c>
       <c r="C410" t="n">
-        <v>6261380.441817606</v>
+        <v>3553428.647473168</v>
       </c>
       <c r="D410" t="n">
-        <v>4059447.249531619</v>
+        <v>2662128.822013587</v>
       </c>
       <c r="E410" t="n">
-        <v>3239507.122330841</v>
+        <v>2236124.042017078</v>
       </c>
       <c r="F410" t="n">
-        <v>5639245.548995031</v>
+        <v>3539120.864192434</v>
       </c>
       <c r="G410" t="n">
-        <v>7263541.819306605</v>
+        <v>8011798.662417581</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>11811268.61518084</v>
+        <v>7013540.063747292</v>
       </c>
       <c r="C411" t="n">
-        <v>6257698.915541899</v>
+        <v>3551340.502920121</v>
       </c>
       <c r="D411" t="n">
-        <v>4058894.094673744</v>
+        <v>2661766.20178987</v>
       </c>
       <c r="E411" t="n">
-        <v>3239413.109870505</v>
+        <v>2236059.17765802</v>
       </c>
       <c r="F411" t="n">
-        <v>5639221.52838356</v>
+        <v>3539105.797267825</v>
       </c>
       <c r="G411" t="n">
-        <v>8190572.301776053</v>
+        <v>9035823.01696839</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>11763403.42741553</v>
+        <v>6985191.46318938</v>
       </c>
       <c r="C412" t="n">
-        <v>6253648.419318225</v>
+        <v>3549043.051232362</v>
       </c>
       <c r="D412" t="n">
-        <v>4058265.101524307</v>
+        <v>2661353.862997588</v>
       </c>
       <c r="E412" t="n">
-        <v>3239303.093101287</v>
+        <v>2235983.270502195</v>
       </c>
       <c r="F412" t="n">
-        <v>5639192.533699811</v>
+        <v>3539087.610228261</v>
       </c>
       <c r="G412" t="n">
-        <v>9121573.933552118</v>
+        <v>10064570.38278847</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>11713585.66144077</v>
+        <v>6955684.28303768</v>
       </c>
       <c r="C413" t="n">
-        <v>6249198.06763332</v>
+        <v>3546518.768721947</v>
       </c>
       <c r="D413" t="n">
-        <v>4057551.092672628</v>
+        <v>2660885.788640729</v>
       </c>
       <c r="E413" t="n">
-        <v>3239174.594347239</v>
+        <v>2235894.610882992</v>
       </c>
       <c r="F413" t="n">
-        <v>5639157.608747042</v>
+        <v>3539065.703246673</v>
       </c>
       <c r="G413" t="n">
-        <v>9121567.818408044</v>
+        <v>10064563.63952078</v>
       </c>
       <c r="H413" t="n">
-        <v>890520.5755720711</v>
+        <v>1115583.232315219</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>11661766.59439742</v>
+        <v>6924989.501126272</v>
       </c>
       <c r="C414" t="n">
-        <v>6244315.084801174</v>
+        <v>3543749.0589562</v>
       </c>
       <c r="D414" t="n">
-        <v>4056741.960969589</v>
+        <v>2660355.352103796</v>
       </c>
       <c r="E414" t="n">
-        <v>3239024.79668418</v>
+        <v>2235791.255026677</v>
       </c>
       <c r="F414" t="n">
-        <v>5639115.629360616</v>
+        <v>3539039.371123132</v>
       </c>
       <c r="G414" t="n">
-        <v>9121560.22977354</v>
+        <v>10064555.27135498</v>
       </c>
       <c r="H414" t="n">
-        <v>1784698.921897217</v>
+        <v>2236115.282289556</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>11607898.29838188</v>
+        <v>6893078.561823693</v>
       </c>
       <c r="C415" t="n">
-        <v>6238964.764064321</v>
+        <v>3540714.22951557</v>
       </c>
       <c r="D415" t="n">
-        <v>4055826.600344611</v>
+        <v>2659755.271782589</v>
       </c>
       <c r="E415" t="n">
-        <v>3238850.504954492</v>
+        <v>2235670.998147116</v>
       </c>
       <c r="F415" t="n">
-        <v>5639065.277117373</v>
+        <v>3539007.786790616</v>
       </c>
       <c r="G415" t="n">
-        <v>9121550.834006436</v>
+        <v>10064544.91035139</v>
       </c>
       <c r="H415" t="n">
-        <v>2682479.977050357</v>
+        <v>3361530.367441739</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>11551933.80338699</v>
+        <v>6859923.472898049</v>
       </c>
       <c r="C416" t="n">
-        <v>6233110.434304967</v>
+        <v>3537393.47306783</v>
       </c>
       <c r="D416" t="n">
-        <v>4054792.83476352</v>
+        <v>2659077.564494933</v>
       </c>
       <c r="E416" t="n">
-        <v>3238648.103482097</v>
+        <v>2235531.345262801</v>
       </c>
       <c r="F416" t="n">
-        <v>5639005.009544143</v>
+        <v>3538969.982624175</v>
       </c>
       <c r="G416" t="n">
-        <v>9121539.227211094</v>
+        <v>10064532.11109157</v>
       </c>
       <c r="H416" t="n">
-        <v>3583814.266836158</v>
+        <v>4491769.647506078</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>11493827.26666412</v>
+        <v>6825496.906225108</v>
       </c>
       <c r="C417" t="n">
-        <v>6226713.435384322</v>
+        <v>3533764.853336622</v>
       </c>
       <c r="D417" t="n">
-        <v>4053627.345741164</v>
+        <v>2658313.497942676</v>
       </c>
       <c r="E417" t="n">
-        <v>3238413.510387682</v>
+        <v>2235369.47966712</v>
       </c>
       <c r="F417" t="n">
-        <v>5638933.026469867</v>
+        <v>3538924.829330449</v>
       </c>
       <c r="G417" t="n">
-        <v>9121524.921689596</v>
+        <v>10064516.33573532</v>
       </c>
       <c r="H417" t="n">
-        <v>4488658.176239178</v>
+        <v>5626781.574045433</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>11433534.14814179</v>
+        <v>6789772.302123636</v>
       </c>
       <c r="C418" t="n">
-        <v>6219733.103152033</v>
+        <v>3529805.296555817</v>
       </c>
       <c r="D418" t="n">
-        <v>4052315.5988941</v>
+        <v>2657453.542543101</v>
       </c>
       <c r="E418" t="n">
-        <v>3238142.128430956</v>
+        <v>2235182.22900129</v>
       </c>
       <c r="F418" t="n">
-        <v>5638847.232148952</v>
+        <v>3538871.012183801</v>
       </c>
       <c r="G418" t="n">
-        <v>9121507.330056865</v>
+        <v>10064496.93650092</v>
       </c>
       <c r="H418" t="n">
-        <v>5396974.21026582</v>
+        <v>6766522.22733097</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>11371011.39147518</v>
+        <v>6752723.977065842</v>
       </c>
       <c r="C419" t="n">
-        <v>6212126.765182451</v>
+        <v>3525490.589009534</v>
       </c>
       <c r="D419" t="n">
-        <v>4050841.77009322</v>
+        <v>2656487.322996824</v>
       </c>
       <c r="E419" t="n">
-        <v>3237828.792338941</v>
+        <v>2234966.028901556</v>
       </c>
       <c r="F419" t="n">
-        <v>5638745.19276931</v>
+        <v>3538807.004366495</v>
       </c>
       <c r="G419" t="n">
-        <v>9121485.746675117</v>
+        <v>10064473.13518887</v>
       </c>
       <c r="H419" t="n">
-        <v>6308731.242965056</v>
+        <v>7910955.6389424</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>11306217.61023838</v>
+        <v>6714327.23447327</v>
       </c>
       <c r="C420" t="n">
-        <v>6203849.748299356</v>
+        <v>3520795.381260563</v>
       </c>
       <c r="D420" t="n">
-        <v>4049188.671853259</v>
+        <v>2655403.570009762</v>
       </c>
       <c r="E420" t="n">
-        <v>3237467.712617326</v>
+        <v>2234716.884218536</v>
       </c>
       <c r="F420" t="n">
-        <v>5638624.088947972</v>
+        <v>3538731.037163719</v>
       </c>
       <c r="G420" t="n">
-        <v>9121459.326023847</v>
+        <v>10064443.99932528</v>
       </c>
       <c r="H420" t="n">
-        <v>7223904.753367582</v>
+        <v>9060054.098479781</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>11239113.27870739</v>
+        <v>6674558.478270702</v>
       </c>
       <c r="C421" t="n">
-        <v>6194855.398944898</v>
+        <v>3515693.199666535</v>
       </c>
       <c r="D421" t="n">
-        <v>4047337.680674738</v>
+        <v>2654190.072638351</v>
       </c>
       <c r="E421" t="n">
-        <v>3237052.415886107</v>
+        <v>2234430.327837069</v>
       </c>
       <c r="F421" t="n">
-        <v>5638480.662811152</v>
+        <v>3538641.066760412</v>
       </c>
       <c r="G421" t="n">
-        <v>9121427.057580017</v>
+        <v>10064408.41445609</v>
       </c>
       <c r="H421" t="n">
-        <v>8142477.047033545</v>
+        <v>10213798.4427124</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>11169660.92661786</v>
+        <v>6633395.328832173</v>
       </c>
       <c r="C422" t="n">
-        <v>6185095.117430619</v>
+        <v>3510156.465773227</v>
       </c>
       <c r="D422" t="n">
-        <v>4045268.666133251</v>
+        <v>2652833.63177918</v>
       </c>
       <c r="E422" t="n">
-        <v>3236575.68183127</v>
+        <v>2234101.377159787</v>
       </c>
       <c r="F422" t="n">
-        <v>5638311.159254882</v>
+        <v>3538534.737386437</v>
       </c>
       <c r="G422" t="n">
-        <v>9121387.736739758</v>
+        <v>10064365.05207499</v>
       </c>
       <c r="H422" t="n">
-        <v>9064437.461844223</v>
+        <v>11372178.32541815</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>11097825.33721763</v>
+        <v>6590816.740915027</v>
       </c>
       <c r="C423" t="n">
-        <v>6174518.407077895</v>
+        <v>3504156.52415692</v>
       </c>
       <c r="D423" t="n">
-        <v>4042959.922589784</v>
+        <v>2651320.01537598</v>
       </c>
       <c r="E423" t="n">
-        <v>3236029.476921326</v>
+        <v>2233724.48835704</v>
       </c>
       <c r="F423" t="n">
-        <v>5638111.260988405</v>
+        <v>3538409.340560356</v>
       </c>
       <c r="G423" t="n">
-        <v>9121339.931268012</v>
+        <v>10064312.33261842</v>
       </c>
       <c r="H423" t="n">
-        <v>9989782.556617962</v>
+        <v>12535192.46609405</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>11023573.74787029</v>
+        <v>6546803.123139959</v>
       </c>
       <c r="C424" t="n">
-        <v>6163072.939210838</v>
+        <v>3497663.679262773</v>
       </c>
       <c r="D424" t="n">
-        <v>4040388.104473016</v>
+        <v>2649633.915967451</v>
       </c>
       <c r="E424" t="n">
-        <v>3235404.885101112</v>
+        <v>2233293.508529651</v>
       </c>
       <c r="F424" t="n">
-        <v>5637876.01697581</v>
+        <v>3538261.770190511</v>
       </c>
       <c r="G424" t="n">
-        <v>9121281.94271679</v>
+        <v>10064248.38291068</v>
       </c>
       <c r="H424" t="n">
-        <v>10918516.28106738</v>
+        <v>13702848.87563551</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>10946876.05240372</v>
+        <v>6501336.458537692</v>
       </c>
       <c r="C425" t="n">
-        <v>6150704.634906152</v>
+        <v>3490647.241752907</v>
       </c>
       <c r="D425" t="n">
-        <v>4037528.166158604</v>
+        <v>2647758.911248131</v>
       </c>
       <c r="E425" t="n">
-        <v>3234692.035745357</v>
+        <v>2232801.625979384</v>
       </c>
       <c r="F425" t="n">
-        <v>5637599.763913903</v>
+        <v>3538088.473306081</v>
       </c>
       <c r="G425" t="n">
-        <v>9121211.762206974</v>
+        <v>10064170.98739172</v>
       </c>
       <c r="H425" t="n">
-        <v>11850650.12555374</v>
+        <v>14875165.05700133</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>10867705.00433721</v>
+        <v>6454400.42564667</v>
       </c>
       <c r="C426" t="n">
-        <v>6137357.764330816</v>
+        <v>3483075.584836172</v>
       </c>
       <c r="D426" t="n">
-        <v>4034353.307540144</v>
+        <v>2645677.428360084</v>
       </c>
       <c r="E426" t="n">
-        <v>3233880.029230846</v>
+        <v>2232241.318834688</v>
       </c>
       <c r="F426" t="n">
-        <v>5637276.040416468</v>
+        <v>3537885.396211067</v>
       </c>
       <c r="G426" t="n">
-        <v>9121127.019923301</v>
+        <v>10064077.53240994</v>
       </c>
       <c r="H426" t="n">
-        <v>12786203.24902357</v>
+        <v>16052168.17878902</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>10786036.42006192</v>
+        <v>6405980.51961145</v>
       </c>
       <c r="C427" t="n">
-        <v>6122975.064409602</v>
+        <v>3474916.211001176</v>
       </c>
       <c r="D427" t="n">
-        <v>4030834.926449975</v>
+        <v>2643370.712674979</v>
       </c>
       <c r="E427" t="n">
-        <v>3232956.860568285</v>
+        <v>2231604.302336028</v>
       </c>
       <c r="F427" t="n">
-        <v>5636897.493618607</v>
+        <v>3537647.925881415</v>
       </c>
       <c r="G427" t="n">
-        <v>9121024.927629083</v>
+        <v>10063964.94281515</v>
       </c>
       <c r="H427" t="n">
-        <v>13725202.58344417</v>
+        <v>17233895.2195548</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>10701849.38099528</v>
+        <v>6356064.172698361</v>
       </c>
       <c r="C428" t="n">
-        <v>6107497.875459751</v>
+        <v>3466135.829514744</v>
       </c>
       <c r="D428" t="n">
-        <v>4026942.579143875</v>
+        <v>2640818.801862657</v>
       </c>
       <c r="E428" t="n">
-        <v>3231909.341622611</v>
+        <v>2230881.475145672</v>
       </c>
       <c r="F428" t="n">
-        <v>5636455.777970786</v>
+        <v>3537370.826460552</v>
       </c>
       <c r="G428" t="n">
-        <v>9120902.213466968</v>
+        <v>10063829.6100421</v>
       </c>
       <c r="H428" t="n">
-        <v>14667682.91298034</v>
+        <v>18420393.08061531</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>10615126.43367766</v>
+        <v>6304640.873614492</v>
       </c>
       <c r="C429" t="n">
-        <v>6090866.297309844</v>
+        <v>3456700.444979771</v>
       </c>
       <c r="D429" t="n">
-        <v>4022643.950109972</v>
+        <v>2638000.506072756</v>
       </c>
       <c r="E429" t="n">
-        <v>3230723.022542791</v>
+        <v>2230062.865110443</v>
       </c>
       <c r="F429" t="n">
-        <v>5635941.446061518</v>
+        <v>3537048.17075213</v>
       </c>
       <c r="G429" t="n">
-        <v>9120755.048276601</v>
+        <v>10063667.31083608</v>
       </c>
       <c r="H429" t="n">
-        <v>15613686.92607701</v>
+        <v>19611718.66496716</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>10525853.78673356</v>
+        <v>6251702.284987735</v>
       </c>
       <c r="C430" t="n">
-        <v>6073019.365283904</v>
+        <v>3446575.457169242</v>
       </c>
       <c r="D430" t="n">
-        <v>4017904.832497385</v>
+        <v>2634893.395079016</v>
       </c>
       <c r="E430" t="n">
-        <v>3229382.11311831</v>
+        <v>2229137.574972361</v>
       </c>
       <c r="F430" t="n">
-        <v>5635343.831391701</v>
+        <v>3536673.266661464</v>
       </c>
       <c r="G430" t="n">
-        <v>9120578.962630693</v>
+        <v>10063473.11573954</v>
       </c>
       <c r="H430" t="n">
-        <v>16563265.23853634</v>
+        <v>20807938.91985972</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>10434021.50357744</v>
+        <v>6197242.358340885</v>
       </c>
       <c r="C431" t="n">
-        <v>6053895.24628059</v>
+        <v>3435725.772267425</v>
       </c>
       <c r="D431" t="n">
-        <v>4012689.120482227</v>
+        <v>2631473.793250423</v>
       </c>
       <c r="E431" t="n">
-        <v>3227869.404878273</v>
+        <v>2228093.728590259</v>
       </c>
       <c r="F431" t="n">
-        <v>5634650.923123046</v>
+        <v>3536238.578599586</v>
       </c>
       <c r="G431" t="n">
-        <v>9120368.753769942</v>
+        <v>10063241.28643543</v>
       </c>
       <c r="H431" t="n">
-        <v>17516476.38559669</v>
+        <v>22009130.84045129</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>10339623.6897086</v>
+        <v>6141257.445871085</v>
       </c>
       <c r="C432" t="n">
-        <v>6033431.455011561</v>
+        <v>3424115.925555146</v>
       </c>
       <c r="D432" t="n">
-        <v>4006958.814896057</v>
+        <v>2627716.783218302</v>
       </c>
       <c r="E432" t="n">
-        <v>3226166.194849382</v>
+        <v>2226918.418304668</v>
       </c>
       <c r="F432" t="n">
-        <v>5633849.232938838</v>
+        <v>3535735.643936426</v>
       </c>
       <c r="G432" t="n">
-        <v>9120118.381606396</v>
+        <v>10062965.16103109</v>
       </c>
       <c r="H432" t="n">
-        <v>18473386.78094102</v>
+        <v>23215381.43187403</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>10242658.67341016</v>
+        <v>6083746.40832833</v>
       </c>
       <c r="C433" t="n">
-        <v>6011565.090283418</v>
+        <v>3411710.215474149</v>
       </c>
       <c r="D433" t="n">
-        <v>4000674.04343289</v>
+        <v>2623596.219102541</v>
       </c>
       <c r="E433" t="n">
-        <v>3224252.211989036</v>
+        <v>2225597.654147365</v>
       </c>
       <c r="F433" t="n">
-        <v>5632923.654287852</v>
+        <v>3535154.984672857</v>
       </c>
       <c r="G433" t="n">
-        <v>9119820.852966439</v>
+        <v>10062637.02636797</v>
       </c>
       <c r="H433" t="n">
-        <v>19434070.64048373</v>
+        <v>24426787.62693025</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>10143129.17864506</v>
+        <v>6024710.718273309</v>
       </c>
       <c r="C434" t="n">
-        <v>5988233.091015428</v>
+        <v>3398472.848896341</v>
       </c>
       <c r="D434" t="n">
-        <v>3993793.096723889</v>
+        <v>2619084.75014255</v>
       </c>
       <c r="E434" t="n">
-        <v>3222105.547408275</v>
+        <v>2224116.315664903</v>
       </c>
       <c r="F434" t="n">
-        <v>5631857.314431908</v>
+        <v>3534486.014595221</v>
       </c>
       <c r="G434" t="n">
-        <v>9119468.093261223</v>
+        <v>10062247.97646105</v>
       </c>
       <c r="H434" t="n">
-        <v>20398609.86870565</v>
+        <v>25643456.15653884</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>10041042.48892728</v>
+        <v>5964154.557986097</v>
       </c>
       <c r="C435" t="n">
-        <v>5963372.511481693</v>
+        <v>3384368.097308357</v>
       </c>
       <c r="D435" t="n">
-        <v>3986272.481522406</v>
+        <v>2614153.855548043</v>
       </c>
       <c r="E435" t="n">
-        <v>3219702.589593881</v>
+        <v>2222458.10719079</v>
       </c>
       <c r="F435" t="n">
-        <v>5630631.419884397</v>
+        <v>3533716.942280676</v>
       </c>
       <c r="G435" t="n">
-        <v>9119050.80480648</v>
+        <v>10061787.75620917</v>
       </c>
       <c r="H435" t="n">
-        <v>21367093.90523436</v>
+        <v>26865503.36995571</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>9936410.600940641</v>
+        <v>5902084.911293346</v>
       </c>
       <c r="C436" t="n">
-        <v>5936920.815053261</v>
+        <v>3369360.463500715</v>
       </c>
       <c r="D436" t="n">
-        <v>3978066.992174907</v>
+        <v>2608773.8913408</v>
       </c>
       <c r="E436" t="n">
-        <v>3217017.96592797</v>
+        <v>2220605.517462431</v>
       </c>
       <c r="F436" t="n">
-        <v>5629225.096010565</v>
+        <v>3532834.670436738</v>
       </c>
       <c r="G436" t="n">
-        <v>9118558.311067984</v>
+        <v>10061244.58957758</v>
       </c>
       <c r="H436" t="n">
-        <v>22339619.52929476</v>
+        <v>28093055.00169698</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>9829250.366679834</v>
+        <v>5838511.648582988</v>
       </c>
       <c r="C437" t="n">
-        <v>5908816.185494731</v>
+        <v>3353414.858225558</v>
       </c>
       <c r="D437" t="n">
-        <v>3969129.801464257</v>
+        <v>2602914.149900141</v>
       </c>
       <c r="E437" t="n">
-        <v>3214024.491884392</v>
+        <v>2218539.784534888</v>
       </c>
       <c r="F437" t="n">
-        <v>5627615.221759757</v>
+        <v>3531824.692183639</v>
       </c>
       <c r="G437" t="n">
-        <v>9117978.38618619</v>
+        <v>10060604.99153901</v>
       </c>
       <c r="H437" t="n">
-        <v>23316290.61959462</v>
+        <v>29326245.88201513</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>9719583.622900531</v>
+        <v>5773447.604282489</v>
       </c>
       <c r="C438" t="n">
-        <v>5878997.854643555</v>
+        <v>3336496.786158365</v>
       </c>
       <c r="D438" t="n">
-        <v>3959412.571800275</v>
+        <v>2596542.93285175</v>
       </c>
       <c r="E438" t="n">
-        <v>3210693.129352044</v>
+        <v>2216240.866992381</v>
       </c>
       <c r="F438" t="n">
-        <v>5625776.260713921</v>
+        <v>3530670.985022387</v>
       </c>
       <c r="G438" t="n">
-        <v>9117297.069236699</v>
+        <v>10059853.56317337</v>
       </c>
       <c r="H438" t="n">
-        <v>24297217.86715353</v>
+        <v>30565219.58770233</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>9607437.306686671</v>
+        <v>5706908.646089179</v>
       </c>
       <c r="C439" t="n">
-        <v>5847406.445070366</v>
+        <v>3318572.540368597</v>
       </c>
       <c r="D439" t="n">
-        <v>3948865.587597711</v>
+        <v>2589627.637851123</v>
       </c>
       <c r="E439" t="n">
-        <v>3206992.955593222</v>
+        <v>2213687.42249856</v>
       </c>
       <c r="F439" t="n">
-        <v>5623680.089863709</v>
+        <v>3529355.903373913</v>
       </c>
       <c r="G439" t="n">
-        <v>9116498.46281432</v>
+        <v>10058972.76947077</v>
       </c>
       <c r="H439" t="n">
-        <v>25282518.43854301</v>
+        <v>31810128.02994293</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>9492843.555974679</v>
+        <v>5638913.73525999</v>
       </c>
       <c r="C440" t="n">
-        <v>5813984.326088584</v>
+        <v>3299609.404373579</v>
       </c>
       <c r="D440" t="n">
-        <v>3937437.909523737</v>
+        <v>2582134.859709271</v>
       </c>
       <c r="E440" t="n">
-        <v>3202891.144387967</v>
+        <v>2210856.794756158</v>
       </c>
       <c r="F440" t="n">
-        <v>5621295.827761173</v>
+        <v>3527860.070723849</v>
       </c>
       <c r="G440" t="n">
-        <v>9115564.515690828</v>
+        <v>10057942.69956152</v>
       </c>
       <c r="H440" t="n">
-        <v>26272315.58697572</v>
+        <v>33061130.97589422</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>9375839.793915791</v>
+        <v>5569484.977292356</v>
       </c>
       <c r="C441" t="n">
-        <v>5778675.981253292</v>
+        <v>3279575.860720308</v>
       </c>
       <c r="D441" t="n">
-        <v>3925077.55111595</v>
+        <v>2574030.506189603</v>
       </c>
       <c r="E441" t="n">
-        <v>3198352.960940557</v>
+        <v>2207725.009964067</v>
       </c>
       <c r="F441" t="n">
-        <v>5618589.663943524</v>
+        <v>3526162.272561551</v>
       </c>
       <c r="G441" t="n">
-        <v>9114474.789491855</v>
+        <v>10056740.8093123</v>
       </c>
       <c r="H441" t="n">
-        <v>27266738.20867147</v>
+        <v>34318395.50066101</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>9256468.796009673</v>
+        <v>5498647.662358929</v>
       </c>
       <c r="C442" t="n">
-        <v>5741428.385266496</v>
+        <v>3258441.804913342</v>
       </c>
       <c r="D442" t="n">
-        <v>3911731.678068162</v>
+        <v>2565279.928671306</v>
       </c>
       <c r="E442" t="n">
-        <v>3193341.772129214</v>
+        <v>2204266.783863316</v>
       </c>
       <c r="F442" t="n">
-        <v>5615524.691772467</v>
+        <v>3524239.351458855</v>
       </c>
       <c r="G442" t="n">
-        <v>9113206.209568564</v>
+        <v>10055341.64648144</v>
       </c>
       <c r="H442" t="n">
-        <v>28265920.34193761</v>
+        <v>35582095.366338</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>9134778.739004539</v>
+        <v>5426430.294895631</v>
       </c>
       <c r="C443" t="n">
-        <v>5702191.387991041</v>
+        <v>3236178.763384918</v>
       </c>
       <c r="D443" t="n">
-        <v>3897346.830256198</v>
+        <v>2555848.067726979</v>
       </c>
       <c r="E443" t="n">
-        <v>3187819.073662595</v>
+        <v>2200455.540451397</v>
       </c>
       <c r="F443" t="n">
-        <v>5612060.747083863</v>
+        <v>3522066.105791202</v>
       </c>
       <c r="G443" t="n">
-        <v>9111732.800506772</v>
+        <v>10053716.55892103</v>
       </c>
       <c r="H443" t="n">
-        <v>29270000.60643347</v>
+        <v>36852410.32483363</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>9010823.230631426</v>
+        <v>5352864.611785525</v>
       </c>
       <c r="C444" t="n">
-        <v>5660918.103072029</v>
+        <v>3212760.114087902</v>
       </c>
       <c r="D444" t="n">
-        <v>3881869.166330776</v>
+        <v>2545699.613501499</v>
       </c>
       <c r="E444" t="n">
-        <v>3181744.535664375</v>
+        <v>2196263.44341526</v>
       </c>
       <c r="F444" t="n">
-        <v>5608154.255288819</v>
+        <v>3519615.193758313</v>
       </c>
       <c r="G444" t="n">
-        <v>9110025.40702039</v>
+        <v>10051833.38664877</v>
       </c>
       <c r="H444" t="n">
-        <v>30279121.58015265</v>
+        <v>38129525.34126741</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>8884661.31932251</v>
+        <v>5277985.588630054</v>
       </c>
       <c r="C445" t="n">
-        <v>5617565.298475656</v>
+        <v>3188161.308184898</v>
       </c>
       <c r="D445" t="n">
-        <v>3865244.730441336</v>
+        <v>2534799.180606548</v>
       </c>
       <c r="E445" t="n">
-        <v>3175076.068138271</v>
+        <v>2191661.441285713</v>
       </c>
       <c r="F445" t="n">
-        <v>5603758.089804284</v>
+        <v>3516857.044510438</v>
       </c>
       <c r="G445" t="n">
-        <v>9108051.401318001</v>
+        <v>10049656.13899014</v>
       </c>
       <c r="H445" t="n">
-        <v>31293429.11175024</v>
+        <v>39413629.73484964</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>8756357.483155785</v>
+        <v>5201831.433653866</v>
       </c>
       <c r="C446" t="n">
-        <v>5572093.786084227</v>
+        <v>3162360.091209569</v>
       </c>
       <c r="D446" t="n">
-        <v>3847419.740375872</v>
+        <v>2523111.497062296</v>
       </c>
       <c r="E446" t="n">
-        <v>3167769.907668443</v>
+        <v>2186619.327248822</v>
       </c>
       <c r="F446" t="n">
-        <v>5598821.444913531</v>
+        <v>3513759.77832566</v>
       </c>
       <c r="G446" t="n">
-        <v>9105774.378410341</v>
+        <v>10047144.65840901</v>
       </c>
       <c r="H446" t="n">
-        <v>32313071.56597312</v>
+        <v>40704916.23431713</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>8625981.597369405</v>
+        <v>5124443.568849985</v>
       </c>
       <c r="C447" t="n">
-        <v>5524468.807335687</v>
+        <v>3135336.721990833</v>
       </c>
       <c r="D447" t="n">
-        <v>3828340.896110103</v>
+        <v>2510601.606626519</v>
       </c>
       <c r="E447" t="n">
-        <v>3159780.726583177</v>
+        <v>2181105.814462215</v>
       </c>
       <c r="F447" t="n">
-        <v>5593289.726358158</v>
+        <v>3510289.137910198</v>
       </c>
       <c r="G447" t="n">
-        <v>9103153.84124092</v>
+        <v>10044254.27310241</v>
       </c>
       <c r="H447" t="n">
-        <v>33338199.00012471</v>
+        <v>42003579.94521649</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>8493608.879899669</v>
+        <v>5045866.598037513</v>
       </c>
       <c r="C448" t="n">
-        <v>5474660.411769636</v>
+        <v>3107074.187558692</v>
       </c>
       <c r="D448" t="n">
-        <v>3807955.707458122</v>
+        <v>2497235.083653804</v>
       </c>
       <c r="E448" t="n">
-        <v>3151061.765651918</v>
+        <v>2175088.627615308</v>
       </c>
       <c r="F448" t="n">
-        <v>5587104.463137457</v>
+        <v>3506408.433002976</v>
       </c>
       <c r="G448" t="n">
-        <v>9100144.877969425</v>
+        <v>10040935.44092868</v>
       </c>
       <c r="H448" t="n">
-        <v>34368962.26971375</v>
+        <v>43309817.22660225</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>8359319.814514743</v>
+        <v>4966148.261574746</v>
       </c>
       <c r="C449" t="n">
-        <v>5422643.825242015</v>
+        <v>3077558.412193828</v>
       </c>
       <c r="D449" t="n">
-        <v>3786212.839209591</v>
+        <v>2482978.259426174</v>
       </c>
       <c r="E449" t="n">
-        <v>3141564.991196848</v>
+        <v>2168534.611342154</v>
       </c>
       <c r="F449" t="n">
-        <v>5580203.24413111</v>
+        <v>3502078.500553733</v>
       </c>
       <c r="G449" t="n">
-        <v>9096697.834214248</v>
+        <v>10037133.38776397</v>
       </c>
       <c r="H449" t="n">
-        <v>35405512.06170798</v>
+        <v>44623824.47506075</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>8223200.051242239</v>
+        <v>4885339.377545449</v>
       </c>
       <c r="C450" t="n">
-        <v>5368399.804500341</v>
+        <v>3046778.458743019</v>
       </c>
       <c r="D450" t="n">
-        <v>3763062.471829763</v>
+        <v>2467798.458693885</v>
       </c>
       <c r="E450" t="n">
-        <v>3131241.27728032</v>
+        <v>2161409.855943835</v>
       </c>
       <c r="F450" t="n">
-        <v>5572519.683260649</v>
+        <v>3497257.682806531</v>
       </c>
       <c r="G450" t="n">
-        <v>9092757.983561397</v>
+        <v>10032787.74393506</v>
       </c>
       <c r="H450" t="n">
-        <v>36447997.85413553</v>
+        <v>45945796.81437789</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>8085340.28392117</v>
+        <v>4803493.769314964</v>
       </c>
       <c r="C451" t="n">
-        <v>5311914.974772895</v>
+        <v>3014726.720300556</v>
       </c>
       <c r="D451" t="n">
-        <v>3738456.675492457</v>
+        <v>2451664.24496435</v>
       </c>
       <c r="E451" t="n">
-        <v>3120040.613379186</v>
+        <v>2153679.840704645</v>
       </c>
       <c r="F451" t="n">
-        <v>5563983.416957063</v>
+        <v>3491901.825653089</v>
       </c>
       <c r="G451" t="n">
-        <v>9088265.200166151</v>
+        <v>10027832.18294882</v>
       </c>
       <c r="H451" t="n">
-        <v>37496566.80116616</v>
+        <v>47275926.68966278</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>7945836.104846989</v>
+        <v>4720668.179435193</v>
       </c>
       <c r="C452" t="n">
-        <v>5253182.147020548</v>
+        <v>2981399.100353035</v>
       </c>
       <c r="D452" t="n">
-        <v>3712349.794917261</v>
+        <v>2434545.672881153</v>
       </c>
       <c r="E452" t="n">
-        <v>3107912.337677807</v>
+        <v>2145309.594893537</v>
       </c>
       <c r="F452" t="n">
-        <v>5554520.137699633</v>
+        <v>3485964.299619151</v>
       </c>
       <c r="G452" t="n">
-        <v>9083153.637803271</v>
+        <v>10022194.0673233</v>
       </c>
       <c r="H452" t="n">
-        <v>38551362.54325211</v>
+        <v>48614402.36530687</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>87484.96213669385</v>
+        <v>87484.96213708968</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>176357.4824978974</v>
+        <v>176357.4824986737</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>266641.4920902759</v>
+        <v>266641.4920914182</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>358361.2362452108</v>
+        <v>358361.2362467034</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>451541.2677496701</v>
+        <v>451541.2677514968</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>546206.4390474781</v>
+        <v>546206.4390496244</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>642381.8934732181</v>
+        <v>642381.8934756664</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>740093.0554810853</v>
+        <v>740093.0554838179</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>839365.6198312927</v>
+        <v>839365.6198342924</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>940225.5396972353</v>
+        <v>940225.5397004886</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1042699.01365714</v>
+        <v>1042699.013660627</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1146812.471534641</v>
+        <v>1146812.471538343</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1252592.559053835</v>
+        <v>1252592.559057735</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1360066.121275429</v>
+        <v>1360066.121279506</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1469260.184781861</v>
+        <v>1469260.1847861</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1580201.938581023</v>
+        <v>1580201.938585403</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1692918.713699708</v>
+        <v>1692918.713704208</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1807437.961440051</v>
+        <v>1807437.961444651</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1923787.230274464</v>
+        <v>1923787.230279146</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2041994.141356819</v>
+        <v>2041994.141361562</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2162086.362630546</v>
+        <v>2162086.362635327</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2284091.581516996</v>
+        <v>2284091.581521796</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2408037.47617091</v>
+        <v>2408037.476175708</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2533951.685292949</v>
+        <v>2533951.68529772</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2661861.77649316</v>
+        <v>2661861.776497886</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2791795.213203164</v>
+        <v>2791795.213207821</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2923779.320138999</v>
+        <v>2923779.320143564</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>3057841.247321097</v>
+        <v>3057841.247325542</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3194007.932662598</v>
+        <v>3194007.932666904</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3332306.063142162</v>
+        <v>3332306.063146311</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3472762.034582637</v>
+        <v>3472762.034586597</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3615401.910062435</v>
+        <v>3615401.910066183</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3760251.37699214</v>
+        <v>3760251.376995654</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3907335.702894675</v>
+        <v>3907335.702897929</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>4056679.689933556</v>
+        <v>4056679.689936524</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>4208307.62823988</v>
+        <v>4208307.628242539</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>4362243.248095088</v>
+        <v>4362243.248097412</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>4518509.671033249</v>
+        <v>4518509.671035216</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>4677129.359933015</v>
+        <v>4677129.359934594</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>4838124.068176187</v>
+        <v>4838124.068177356</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>5001514.7879567</v>
+        <v>5001514.78795743</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>5167321.697830414</v>
+        <v>5167321.697830681</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>5335564.109603072</v>
+        <v>5335564.10960285</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>5506260.414660211</v>
+        <v>5506260.414659474</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>5679428.029849807</v>
+        <v>5679428.029848529</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>5855083.343034439</v>
+        <v>5855083.343032597</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>6033241.658436611</v>
+        <v>6033241.658434174</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>6213917.141906379</v>
+        <v>6213917.141903318</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>6397122.766246802</v>
+        <v>6397122.766243102</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>6582870.256737913</v>
+        <v>6582870.256733541</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>6771170.037005222</v>
+        <v>6771170.037000158</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>6962031.17538352</v>
+        <v>6962031.175377734</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>7155461.331931149</v>
+        <v>7155461.33192462</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>7351466.706253731</v>
+        <v>7351466.706246431</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>7550051.98629966</v>
+        <v>7550051.986291565</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>7548562.3910987</v>
+        <v>7548562.391091259</v>
       </c>
       <c r="C358" t="n">
-        <v>217813.8770895551</v>
+        <v>217813.8770879729</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>7546968.380587531</v>
+        <v>7546968.380580776</v>
       </c>
       <c r="C359" t="n">
-        <v>438517.8139004246</v>
+        <v>438517.8138972013</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>7545263.484353489</v>
+        <v>7545263.484347451</v>
       </c>
       <c r="C360" t="n">
-        <v>662118.6120755646</v>
+        <v>662118.6120706412</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>7543440.894199429</v>
+        <v>7543440.894194141</v>
       </c>
       <c r="C361" t="n">
-        <v>888621.6054852834</v>
+        <v>888621.6054786008</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>7541493.450937144</v>
+        <v>7541493.45093265</v>
       </c>
       <c r="C362" t="n">
-        <v>1118030.627307927</v>
+        <v>1118030.627299418</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>7539413.630972494</v>
+        <v>7539413.630968828</v>
       </c>
       <c r="C363" t="n">
-        <v>1350347.979463975</v>
+        <v>1350347.979453577</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>7537193.532704458</v>
+        <v>7537193.532701654</v>
       </c>
       <c r="C364" t="n">
-        <v>1585574.404560286</v>
+        <v>1585574.404547938</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>7534824.86276299</v>
+        <v>7534824.862761089</v>
       </c>
       <c r="C365" t="n">
-        <v>1823709.060495378</v>
+        <v>1823709.060481011</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>7532298.922113631</v>
+        <v>7532298.922112675</v>
       </c>
       <c r="C366" t="n">
-        <v>2064749.497870501</v>
+        <v>2064749.497854055</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>7529606.592059862</v>
+        <v>7529606.59205989</v>
       </c>
       <c r="C367" t="n">
-        <v>2308691.64034395</v>
+        <v>2308691.640325365</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>7526738.320177563</v>
+        <v>7526738.32017862</v>
       </c>
       <c r="C368" t="n">
-        <v>2555529.768056986</v>
+        <v>2555529.768036196</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>7523684.106219523</v>
+        <v>7523684.106221646</v>
       </c>
       <c r="C369" t="n">
-        <v>2805256.504250676</v>
+        <v>2805256.50422762</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>7520433.488031648</v>
+        <v>7520433.488034886</v>
       </c>
       <c r="C370" t="n">
-        <v>3057862.805181559</v>
+        <v>3057862.805156165</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>7516975.527526541</v>
+        <v>7516975.527530933</v>
       </c>
       <c r="C371" t="n">
-        <v>3313337.95343255</v>
+        <v>3313337.953404758</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>7513298.796764204</v>
+        <v>7513298.7967698</v>
       </c>
       <c r="C372" t="n">
-        <v>3571669.554702449</v>
+        <v>3571669.554672202</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>7509391.364194169</v>
+        <v>7509391.364201007</v>
       </c>
       <c r="C373" t="n">
-        <v>3571649.026382369</v>
+        <v>3571649.026352096</v>
       </c>
       <c r="D373" t="n">
-        <v>254282.8936032613</v>
+        <v>254282.893600825</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>7505240.781117756</v>
+        <v>7505240.78112589</v>
       </c>
       <c r="C374" t="n">
-        <v>3571625.272338468</v>
+        <v>3571625.272308166</v>
       </c>
       <c r="D374" t="n">
-        <v>511320.7689754397</v>
+        <v>511320.7689705178</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>7500834.068434158</v>
+        <v>7500834.068443631</v>
       </c>
       <c r="C375" t="n">
-        <v>3571597.821226335</v>
+        <v>3571597.821195999</v>
       </c>
       <c r="D375" t="n">
-        <v>771097.1371605024</v>
+        <v>771097.1371530404</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>7496157.703738878</v>
+        <v>7496157.703749736</v>
       </c>
       <c r="C376" t="n">
-        <v>3571566.138688336</v>
+        <v>3571566.138657962</v>
       </c>
       <c r="D376" t="n">
-        <v>1033593.960522678</v>
+        <v>1033593.960512612</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>7491197.608848369</v>
+        <v>7491197.608860659</v>
       </c>
       <c r="C377" t="n">
-        <v>3571529.619847271</v>
+        <v>3571529.619816855</v>
       </c>
       <c r="D377" t="n">
-        <v>1298791.674565283</v>
+        <v>1298791.674552568</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>7485939.137829951</v>
+        <v>7485939.137843721</v>
       </c>
       <c r="C378" t="n">
-        <v>3571487.581042101</v>
+        <v>3571487.581011636</v>
       </c>
       <c r="D378" t="n">
-        <v>1566669.214040321</v>
+        <v>1566669.214024896</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>7480367.065621696</v>
+        <v>7480367.065636996</v>
       </c>
       <c r="C379" t="n">
-        <v>3571439.250748468</v>
+        <v>3571439.250717947</v>
       </c>
       <c r="D379" t="n">
-        <v>1837204.043370882</v>
+        <v>1837204.043352708</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>7474465.577332519</v>
+        <v>7474465.577349395</v>
       </c>
       <c r="C380" t="n">
-        <v>3571383.759625073</v>
+        <v>3571383.75959449</v>
       </c>
       <c r="D380" t="n">
-        <v>2110372.191390562</v>
+        <v>2110372.191369592</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>7468218.258318499</v>
+        <v>7468218.258336993</v>
       </c>
       <c r="C381" t="n">
-        <v>3571320.129625682</v>
+        <v>3571320.129595028</v>
       </c>
       <c r="D381" t="n">
-        <v>2386148.290385447</v>
+        <v>2386148.290361628</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>7461608.085137278</v>
+        <v>7461608.085157447</v>
       </c>
       <c r="C382" t="n">
-        <v>3571247.262115638</v>
+        <v>3571247.262084905</v>
       </c>
       <c r="D382" t="n">
-        <v>2664505.619404615</v>
+        <v>2664505.61937791</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>7454617.417488216</v>
+        <v>7454617.417510103</v>
       </c>
       <c r="C383" t="n">
-        <v>3571163.924931436</v>
+        <v>3571163.924900613</v>
       </c>
       <c r="D383" t="n">
-        <v>2664500.628995072</v>
+        <v>2664500.628968358</v>
       </c>
       <c r="E383" t="n">
-        <v>215236.0716067965</v>
+        <v>215236.0716045607</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>7447227.991251844</v>
+        <v>7447227.991275491</v>
       </c>
       <c r="C384" t="n">
-        <v>3571068.738322136</v>
+        <v>3571068.738291211</v>
       </c>
       <c r="D384" t="n">
-        <v>2664494.679457799</v>
+        <v>2664494.679431072</v>
       </c>
       <c r="E384" t="n">
-        <v>432406.6950304759</v>
+        <v>432406.695025981</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>7439420.912747963</v>
+        <v>7439420.912773419</v>
       </c>
       <c r="C385" t="n">
-        <v>3570960.159712334</v>
+        <v>3570960.159681296</v>
       </c>
       <c r="D385" t="n">
-        <v>2664487.598316071</v>
+        <v>2664487.598289332</v>
       </c>
       <c r="E385" t="n">
-        <v>651488.6495220445</v>
+        <v>651488.6495152614</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>7431176.654337529</v>
+        <v>7431176.654364836</v>
       </c>
       <c r="C386" t="n">
-        <v>3570836.467228115</v>
+        <v>3570836.46719695</v>
       </c>
       <c r="D386" t="n">
-        <v>2664479.184441944</v>
+        <v>2664479.18441519</v>
       </c>
       <c r="E386" t="n">
-        <v>872457.8638064408</v>
+        <v>872457.8637973526</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>7422475.051498863</v>
+        <v>7422475.051528066</v>
       </c>
       <c r="C387" t="n">
-        <v>3570695.741930004</v>
+        <v>3570695.741898696</v>
       </c>
       <c r="D387" t="n">
-        <v>2664469.203744585</v>
+        <v>2664469.203717812</v>
       </c>
       <c r="E387" t="n">
-        <v>1095289.467967975</v>
+        <v>1095289.467956564</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>7413295.301514263</v>
+        <v>7413295.301545405</v>
       </c>
       <c r="C388" t="n">
-        <v>3570535.848700507</v>
+        <v>3570535.84866904</v>
       </c>
       <c r="D388" t="n">
-        <v>2664457.384290001</v>
+        <v>2664457.384263207</v>
       </c>
       <c r="E388" t="n">
-        <v>1319957.84853965</v>
+        <v>1319957.848525898</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>7403615.96390806</v>
+        <v>7403615.963941183</v>
       </c>
       <c r="C389" t="n">
-        <v>3570354.415738469</v>
+        <v>3570354.415706824</v>
       </c>
       <c r="D389" t="n">
-        <v>2664443.410790811</v>
+        <v>2664443.410763992</v>
       </c>
       <c r="E389" t="n">
-        <v>1546436.70669742</v>
+        <v>1546436.706681322</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>7393414.962781862</v>
+        <v>7393414.962817005</v>
       </c>
       <c r="C390" t="n">
-        <v>3570148.812618312</v>
+        <v>3570148.81258647</v>
       </c>
       <c r="D390" t="n">
-        <v>2664426.918400246</v>
+        <v>2664426.918373398</v>
       </c>
       <c r="E390" t="n">
-        <v>1774699.119445024</v>
+        <v>1774699.119426571</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>7382669.591197087</v>
+        <v>7382669.591234293</v>
       </c>
       <c r="C391" t="n">
-        <v>3569916.126879347</v>
+        <v>3569916.126847284</v>
       </c>
       <c r="D391" t="n">
-        <v>2664407.485740222</v>
+        <v>2664407.485713341</v>
       </c>
       <c r="E391" t="n">
-        <v>2004717.603659136</v>
+        <v>2004717.603638334</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>7371356.517758583</v>
+        <v>7371356.517797883</v>
       </c>
       <c r="C392" t="n">
-        <v>3569653.13911881</v>
+        <v>3569653.139086501</v>
       </c>
       <c r="D392" t="n">
-        <v>2664384.627089049</v>
+        <v>2664384.627062129</v>
       </c>
       <c r="E392" t="n">
-        <v>2236464.182848599</v>
+        <v>2236464.182825445</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>7359451.795556327</v>
+        <v>7359451.795597753</v>
       </c>
       <c r="C393" t="n">
-        <v>3569356.296572286</v>
+        <v>3569356.296539705</v>
       </c>
       <c r="D393" t="n">
-        <v>2664357.783650265</v>
+        <v>2664357.783623301</v>
       </c>
       <c r="E393" t="n">
-        <v>2236461.42213136</v>
+        <v>2236461.422108199</v>
       </c>
       <c r="F393" t="n">
-        <v>343367.0603108719</v>
+        <v>343367.0603074398</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>7346930.87362463</v>
+        <v>7346930.873668219</v>
       </c>
       <c r="C394" t="n">
-        <v>3569021.68517669</v>
+        <v>3569021.685143808</v>
       </c>
       <c r="D394" t="n">
-        <v>2664326.313820358</v>
+        <v>2664326.313793343</v>
       </c>
       <c r="E394" t="n">
-        <v>2236458.07845294</v>
+        <v>2236458.078429774</v>
       </c>
       <c r="F394" t="n">
-        <v>689192.6719843829</v>
+        <v>689192.671977534</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>7333768.611079982</v>
+        <v>7333768.611125763</v>
       </c>
       <c r="C395" t="n">
-        <v>3568645.000124143</v>
+        <v>3568645.000090929</v>
       </c>
       <c r="D395" t="n">
-        <v>2664289.482369741</v>
+        <v>2664289.482342668</v>
       </c>
       <c r="E395" t="n">
-        <v>2236454.036405439</v>
+        <v>2236454.036382265</v>
       </c>
       <c r="F395" t="n">
-        <v>1037434.304051508</v>
+        <v>1037434.304041272</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>7319939.294099354</v>
+        <v>7319939.294147352</v>
       </c>
       <c r="C396" t="n">
-        <v>3568221.514929956</v>
+        <v>3568221.514896373</v>
       </c>
       <c r="D396" t="n">
-        <v>2664246.448448559</v>
+        <v>2664246.448421417</v>
       </c>
       <c r="E396" t="n">
-        <v>2236449.159410922</v>
+        <v>2236449.159387738</v>
       </c>
       <c r="F396" t="n">
-        <v>1388049.158540297</v>
+        <v>1388049.158526717</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>7305416.655900618</v>
+        <v>7305416.65595086</v>
       </c>
       <c r="C397" t="n">
-        <v>3567746.049054559</v>
+        <v>3567746.04902057</v>
       </c>
       <c r="D397" t="n">
-        <v>2664196.252326742</v>
+        <v>2664196.252299523</v>
       </c>
       <c r="E397" t="n">
-        <v>2236443.286185531</v>
+        <v>2236443.286162337</v>
       </c>
       <c r="F397" t="n">
-        <v>1740994.289734916</v>
+        <v>1740994.28971804</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>7290173.899885382</v>
+        <v>7290173.899937887</v>
       </c>
       <c r="C398" t="n">
-        <v>3567212.934137631</v>
+        <v>3567212.934103196</v>
       </c>
       <c r="D398" t="n">
-        <v>2664137.800776419</v>
+        <v>2664137.800749112</v>
       </c>
       <c r="E398" t="n">
-        <v>2236436.226681171</v>
+        <v>2236436.226657964</v>
       </c>
       <c r="F398" t="n">
-        <v>2096226.726376683</v>
+        <v>2096226.726356574</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>7274183.726101948</v>
+        <v>7274183.726156741</v>
       </c>
       <c r="C399" t="n">
-        <v>3566615.978922866</v>
+        <v>3566615.97888794</v>
       </c>
       <c r="D399" t="n">
-        <v>2664069.85100444</v>
+        <v>2664069.850977033</v>
       </c>
       <c r="E399" t="n">
-        <v>2236427.757440219</v>
+        <v>2236427.757416996</v>
       </c>
       <c r="F399" t="n">
-        <v>2453703.596506114</v>
+        <v>2453703.596482844</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>7257418.361182331</v>
+        <v>7257418.361239429</v>
       </c>
       <c r="C400" t="n">
-        <v>3565948.43297385</v>
+        <v>3565948.432938386</v>
       </c>
       <c r="D400" t="n">
-        <v>2663990.993043599</v>
+        <v>2663990.993016077</v>
       </c>
       <c r="E400" t="n">
-        <v>2236417.616292973</v>
+        <v>2236417.616269733</v>
       </c>
       <c r="F400" t="n">
-        <v>2813382.254624502</v>
+        <v>2813382.25459815</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>7239849.591901822</v>
+        <v>7239849.591961229</v>
       </c>
       <c r="C401" t="n">
-        <v>3565202.949305261</v>
+        <v>3565202.949269206</v>
       </c>
       <c r="D401" t="n">
-        <v>2663899.630513311</v>
+        <v>2663899.630485658</v>
       </c>
       <c r="E401" t="n">
-        <v>2236405.496321656</v>
+        <v>2236405.496298395</v>
       </c>
       <c r="F401" t="n">
-        <v>3175220.410834108</v>
+        <v>3175220.410804769</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>7221448.802503045</v>
+        <v>7221448.802564779</v>
       </c>
       <c r="C402" t="n">
-        <v>3564371.546079027</v>
+        <v>3564371.546042327</v>
       </c>
       <c r="D402" t="n">
-        <v>2663793.959664203</v>
+        <v>2663793.959636402</v>
       </c>
       <c r="E402" t="n">
-        <v>2236391.039008895</v>
+        <v>2236391.038985609</v>
       </c>
       <c r="F402" t="n">
-        <v>3539176.261594107</v>
+        <v>3539176.261561893</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>7202187.01591776</v>
+        <v>7202187.015981819</v>
       </c>
       <c r="C403" t="n">
-        <v>3563445.567542176</v>
+        <v>3563445.567504771</v>
       </c>
       <c r="D403" t="n">
-        <v>2663671.946626517</v>
+        <v>2663671.946598548</v>
       </c>
       <c r="E403" t="n">
-        <v>2236373.826482696</v>
+        <v>2236373.826459381</v>
       </c>
       <c r="F403" t="n">
-        <v>3539173.163061634</v>
+        <v>3539173.163029415</v>
       </c>
       <c r="G403" t="n">
-        <v>983043.0323419488</v>
+        <v>983043.0323345503</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>7182034.939009785</v>
+        <v>7182034.939076177</v>
       </c>
       <c r="C404" t="n">
-        <v>3562415.644411538</v>
+        <v>3562415.644373363</v>
       </c>
       <c r="D404" t="n">
-        <v>2663531.302789604</v>
+        <v>2663531.302761445</v>
       </c>
       <c r="E404" t="n">
-        <v>2236353.372764231</v>
+        <v>2236353.372740883</v>
       </c>
       <c r="F404" t="n">
-        <v>3539169.359266323</v>
+        <v>3539169.359234097</v>
       </c>
       <c r="G404" t="n">
-        <v>1971556.143907389</v>
+        <v>1971556.143892977</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>7160963.011950422</v>
+        <v>7160963.012019147</v>
       </c>
       <c r="C405" t="n">
-        <v>3561271.653940326</v>
+        <v>3561271.653901315</v>
       </c>
       <c r="D405" t="n">
-        <v>2663369.458249302</v>
+        <v>2663369.458220929</v>
       </c>
       <c r="E405" t="n">
-        <v>2236329.113919287</v>
+        <v>2236329.113895899</v>
       </c>
       <c r="F405" t="n">
-        <v>3539164.699503484</v>
+        <v>3539164.699471253</v>
       </c>
       <c r="G405" t="n">
-        <v>2965433.522874566</v>
+        <v>2965433.522853525</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>7138941.46182402</v>
+        <v>7138941.461895068</v>
       </c>
       <c r="C406" t="n">
-        <v>3560002.679932477</v>
+        <v>3560002.679892558</v>
       </c>
       <c r="D406" t="n">
-        <v>2663183.533271862</v>
+        <v>2663183.533243248</v>
       </c>
       <c r="E406" t="n">
-        <v>2236300.397009211</v>
+        <v>2236300.396985778</v>
       </c>
       <c r="F406" t="n">
-        <v>3539159.003165025</v>
+        <v>3539159.003132783</v>
       </c>
       <c r="G406" t="n">
-        <v>3964572.170424365</v>
+        <v>3964572.170397145</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>7115940.360545752</v>
+        <v>7115940.360619117</v>
       </c>
       <c r="C407" t="n">
-        <v>3558596.973002368</v>
+        <v>3558596.972961462</v>
       </c>
       <c r="D407" t="n">
-        <v>2662970.307737468</v>
+        <v>2662970.307708584</v>
       </c>
       <c r="E407" t="n">
-        <v>2236266.467732786</v>
+        <v>2236266.467709301</v>
       </c>
       <c r="F407" t="n">
-        <v>3539152.054317846</v>
+        <v>3539152.054285594</v>
       </c>
       <c r="G407" t="n">
-        <v>4968872.271442465</v>
+        <v>4968872.271409581</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>7091929.687156013</v>
+        <v>7091929.687231683</v>
       </c>
       <c r="C408" t="n">
-        <v>3557041.911409832</v>
+        <v>3557041.911367856</v>
       </c>
       <c r="D408" t="n">
-        <v>2662726.188543485</v>
+        <v>2662726.188514297</v>
       </c>
       <c r="E408" t="n">
-        <v>2236226.456646786</v>
+        <v>2236226.45662324</v>
       </c>
       <c r="F408" t="n">
-        <v>3539143.595407195</v>
+        <v>3539143.595374929</v>
       </c>
       <c r="G408" t="n">
-        <v>5978237.564755181</v>
+        <v>5978237.564717142</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>7066879.394536328</v>
+        <v>7066879.394614278</v>
       </c>
       <c r="C409" t="n">
-        <v>3555323.962832914</v>
+        <v>3555323.962789784</v>
       </c>
       <c r="D409" t="n">
-        <v>2662447.174967552</v>
+        <v>2662447.174938024</v>
       </c>
       <c r="E409" t="n">
-        <v>2236179.36385038</v>
+        <v>2236179.363826763</v>
       </c>
       <c r="F409" t="n">
-        <v>3539133.319965187</v>
+        <v>3539133.319932904</v>
       </c>
       <c r="G409" t="n">
-        <v>6992575.711779851</v>
+        <v>6992575.711737238</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>7040759.48056999</v>
+        <v>7040759.480650209</v>
       </c>
       <c r="C410" t="n">
-        <v>3553428.647473168</v>
+        <v>3553428.647428791</v>
       </c>
       <c r="D410" t="n">
-        <v>2662128.822013587</v>
+        <v>2662128.821983679</v>
       </c>
       <c r="E410" t="n">
-        <v>2236124.042017078</v>
+        <v>2236124.041993381</v>
       </c>
       <c r="F410" t="n">
-        <v>3539120.864192434</v>
+        <v>3539120.864160133</v>
       </c>
       <c r="G410" t="n">
-        <v>8011798.662417581</v>
+        <v>8011798.662371023</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>7013540.063747292</v>
+        <v>7013540.063829743</v>
       </c>
       <c r="C411" t="n">
-        <v>3551340.502920121</v>
+        <v>3551340.502874402</v>
       </c>
       <c r="D411" t="n">
-        <v>2661766.20178987</v>
+        <v>2661766.201759538</v>
       </c>
       <c r="E411" t="n">
-        <v>2236059.17765802</v>
+        <v>2236059.17763423</v>
       </c>
       <c r="F411" t="n">
-        <v>3539105.797267825</v>
+        <v>3539105.797235502</v>
       </c>
       <c r="G411" t="n">
-        <v>9035823.01696839</v>
+        <v>9035823.016918551</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>6985191.46318938</v>
+        <v>6985191.463274034</v>
       </c>
       <c r="C412" t="n">
-        <v>3549043.051232362</v>
+        <v>3549043.051185196</v>
       </c>
       <c r="D412" t="n">
-        <v>2661353.862997588</v>
+        <v>2661353.862966785</v>
       </c>
       <c r="E412" t="n">
-        <v>2235983.270502195</v>
+        <v>2235983.270478298</v>
       </c>
       <c r="F412" t="n">
-        <v>3539087.610228261</v>
+        <v>3539087.610195912</v>
       </c>
       <c r="G412" t="n">
-        <v>10064570.38278847</v>
+        <v>10064570.3827361</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>6955684.28303768</v>
+        <v>6955684.28312451</v>
       </c>
       <c r="C413" t="n">
-        <v>3546518.768721947</v>
+        <v>3546518.76867323</v>
       </c>
       <c r="D413" t="n">
-        <v>2660885.788640729</v>
+        <v>2660885.788609402</v>
       </c>
       <c r="E413" t="n">
-        <v>2235894.610882992</v>
+        <v>2235894.610858973</v>
       </c>
       <c r="F413" t="n">
-        <v>3539065.703246673</v>
+        <v>3539065.703214292</v>
       </c>
       <c r="G413" t="n">
-        <v>10064563.63952078</v>
+        <v>10064563.6394684</v>
       </c>
       <c r="H413" t="n">
-        <v>1115583.232315219</v>
+        <v>1115583.232313361</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>6924989.501126272</v>
+        <v>6924989.501215233</v>
       </c>
       <c r="C414" t="n">
-        <v>3543749.0589562</v>
+        <v>3543749.05890582</v>
       </c>
       <c r="D414" t="n">
-        <v>2660355.352103796</v>
+        <v>2660355.35207189</v>
       </c>
       <c r="E414" t="n">
-        <v>2235791.255026677</v>
+        <v>2235791.255002518</v>
       </c>
       <c r="F414" t="n">
-        <v>3539039.371123132</v>
+        <v>3539039.371090715</v>
       </c>
       <c r="G414" t="n">
-        <v>10064555.27135498</v>
+        <v>10064555.27130259</v>
       </c>
       <c r="H414" t="n">
-        <v>2236115.282289556</v>
+        <v>2236115.282286725</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>6893078.561823693</v>
+        <v>6893078.561914743</v>
       </c>
       <c r="C415" t="n">
-        <v>3540714.22951557</v>
+        <v>3540714.229463412</v>
       </c>
       <c r="D415" t="n">
-        <v>2659755.271782589</v>
+        <v>2659755.271750041</v>
       </c>
       <c r="E415" t="n">
-        <v>2235670.998147116</v>
+        <v>2235670.998122799</v>
       </c>
       <c r="F415" t="n">
-        <v>3539007.786790616</v>
+        <v>3539007.786758155</v>
       </c>
       <c r="G415" t="n">
-        <v>10064544.91035139</v>
+        <v>10064544.91029899</v>
       </c>
       <c r="H415" t="n">
-        <v>3361530.367441739</v>
+        <v>3361530.367438872</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>6859923.472898049</v>
+        <v>6859923.472991144</v>
       </c>
       <c r="C416" t="n">
-        <v>3537393.47306783</v>
+        <v>3537393.47301377</v>
       </c>
       <c r="D416" t="n">
-        <v>2659077.564494933</v>
+        <v>2659077.564461676</v>
       </c>
       <c r="E416" t="n">
-        <v>2235531.345262801</v>
+        <v>2235531.345238303</v>
       </c>
       <c r="F416" t="n">
-        <v>3538969.982624175</v>
+        <v>3538969.982591663</v>
       </c>
       <c r="G416" t="n">
-        <v>10064532.11109157</v>
+        <v>10064532.11103916</v>
       </c>
       <c r="H416" t="n">
-        <v>4491769.647506078</v>
+        <v>4491769.647504201</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>6825496.906225108</v>
+        <v>6825496.906320192</v>
       </c>
       <c r="C417" t="n">
-        <v>3533764.853336622</v>
+        <v>3533764.853280535</v>
       </c>
       <c r="D417" t="n">
-        <v>2658313.497942676</v>
+        <v>2658313.497908639</v>
       </c>
       <c r="E417" t="n">
-        <v>2235369.47966712</v>
+        <v>2235369.479642417</v>
       </c>
       <c r="F417" t="n">
-        <v>3538924.829330449</v>
+        <v>3538924.829297878</v>
       </c>
       <c r="G417" t="n">
-        <v>10064516.33573532</v>
+        <v>10064516.33568288</v>
       </c>
       <c r="H417" t="n">
-        <v>5626781.574045433</v>
+        <v>5626781.574045679</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>6789772.302123636</v>
+        <v>6789772.302220658</v>
       </c>
       <c r="C418" t="n">
-        <v>3529805.296555817</v>
+        <v>3529805.296497574</v>
       </c>
       <c r="D418" t="n">
-        <v>2657453.542543101</v>
+        <v>2657453.542508205</v>
       </c>
       <c r="E418" t="n">
-        <v>2235182.22900129</v>
+        <v>2235182.228976354</v>
       </c>
       <c r="F418" t="n">
-        <v>3538871.012183801</v>
+        <v>3538871.01215116</v>
       </c>
       <c r="G418" t="n">
-        <v>10064496.93650092</v>
+        <v>10064496.93644847</v>
       </c>
       <c r="H418" t="n">
-        <v>6766522.22733097</v>
+        <v>6766522.22733447</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>6752723.977065842</v>
+        <v>6752723.977164737</v>
       </c>
       <c r="C419" t="n">
-        <v>3525490.589009534</v>
+        <v>3525490.588949002</v>
       </c>
       <c r="D419" t="n">
-        <v>2656487.322996824</v>
+        <v>2656487.322960987</v>
       </c>
       <c r="E419" t="n">
-        <v>2234966.028901556</v>
+        <v>2234966.028876359</v>
       </c>
       <c r="F419" t="n">
-        <v>3538807.004366495</v>
+        <v>3538807.004333772</v>
       </c>
       <c r="G419" t="n">
-        <v>10064473.13518887</v>
+        <v>10064473.13513639</v>
       </c>
       <c r="H419" t="n">
-        <v>7910955.6389424</v>
+        <v>7910955.638950374</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>6714327.23447327</v>
+        <v>6714327.234573977</v>
       </c>
       <c r="C420" t="n">
-        <v>3520795.381260563</v>
+        <v>3520795.3811976</v>
       </c>
       <c r="D420" t="n">
-        <v>2655403.570009762</v>
+        <v>2655403.569972895</v>
       </c>
       <c r="E420" t="n">
-        <v>2234716.884218536</v>
+        <v>2234716.884193044</v>
       </c>
       <c r="F420" t="n">
-        <v>3538731.037163719</v>
+        <v>3538731.037130903</v>
       </c>
       <c r="G420" t="n">
-        <v>10064443.99932528</v>
+        <v>10064443.99927277</v>
       </c>
       <c r="H420" t="n">
-        <v>9060054.098479781</v>
+        <v>9060054.098493535</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>6674558.478270702</v>
+        <v>6674558.478373155</v>
       </c>
       <c r="C421" t="n">
-        <v>3515693.199666535</v>
+        <v>3515693.199601003</v>
       </c>
       <c r="D421" t="n">
-        <v>2654190.072638351</v>
+        <v>2654190.072600357</v>
       </c>
       <c r="E421" t="n">
-        <v>2234430.327837069</v>
+        <v>2234430.327811244</v>
       </c>
       <c r="F421" t="n">
-        <v>3538641.066760412</v>
+        <v>3538641.066727487</v>
       </c>
       <c r="G421" t="n">
-        <v>10064408.41445609</v>
+        <v>10064408.41440354</v>
       </c>
       <c r="H421" t="n">
-        <v>10213798.4427124</v>
+        <v>10213798.44273326</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>6633395.328832173</v>
+        <v>6633395.328936301</v>
       </c>
       <c r="C422" t="n">
-        <v>3510156.465773227</v>
+        <v>3510156.465704981</v>
       </c>
       <c r="D422" t="n">
-        <v>2652833.63177918</v>
+        <v>2652833.631739959</v>
       </c>
       <c r="E422" t="n">
-        <v>2234101.377159787</v>
+        <v>2234101.37713359</v>
       </c>
       <c r="F422" t="n">
-        <v>3538534.737386437</v>
+        <v>3538534.737353385</v>
       </c>
       <c r="G422" t="n">
-        <v>10064365.05207499</v>
+        <v>10064365.0520224</v>
       </c>
       <c r="H422" t="n">
-        <v>11372178.32541815</v>
+        <v>11372178.32544751</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>6590816.740915027</v>
+        <v>6590816.741020756</v>
       </c>
       <c r="C423" t="n">
-        <v>3504156.52415692</v>
+        <v>3504156.524085811</v>
       </c>
       <c r="D423" t="n">
-        <v>2651320.01537598</v>
+        <v>2651320.015335422</v>
       </c>
       <c r="E423" t="n">
-        <v>2233724.48835704</v>
+        <v>2233724.488330425</v>
       </c>
       <c r="F423" t="n">
-        <v>3538409.340560356</v>
+        <v>3538409.340527158</v>
       </c>
       <c r="G423" t="n">
-        <v>10064312.33261842</v>
+        <v>10064312.33256577</v>
       </c>
       <c r="H423" t="n">
-        <v>12535192.46609405</v>
+        <v>12535192.46613343</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>6546803.123139959</v>
+        <v>6546803.123247211</v>
       </c>
       <c r="C424" t="n">
-        <v>3497663.679262773</v>
+        <v>3497663.679188654</v>
       </c>
       <c r="D424" t="n">
-        <v>2649633.915967451</v>
+        <v>2649633.915925445</v>
       </c>
       <c r="E424" t="n">
-        <v>2233293.508529651</v>
+        <v>2233293.508502569</v>
       </c>
       <c r="F424" t="n">
-        <v>3538261.770190511</v>
+        <v>3538261.770157145</v>
       </c>
       <c r="G424" t="n">
-        <v>10064248.38291068</v>
+        <v>10064248.38285797</v>
       </c>
       <c r="H424" t="n">
-        <v>13702848.87563551</v>
+        <v>13702848.87568645</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>6501336.458537692</v>
+        <v>6501336.458646385</v>
       </c>
       <c r="C425" t="n">
-        <v>3490647.241752907</v>
+        <v>3490647.241675626</v>
       </c>
       <c r="D425" t="n">
-        <v>2647758.911248131</v>
+        <v>2647758.911204552</v>
       </c>
       <c r="E425" t="n">
-        <v>2232801.625979384</v>
+        <v>2232801.625951783</v>
       </c>
       <c r="F425" t="n">
-        <v>3538088.473306081</v>
+        <v>3538088.473272522</v>
       </c>
       <c r="G425" t="n">
-        <v>10064170.98739172</v>
+        <v>10064170.98733894</v>
       </c>
       <c r="H425" t="n">
-        <v>14875165.05700133</v>
+        <v>14875165.05706544</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>6454400.42564667</v>
+        <v>6454400.425756726</v>
       </c>
       <c r="C426" t="n">
-        <v>3483075.584836172</v>
+        <v>3483075.584755579</v>
       </c>
       <c r="D426" t="n">
-        <v>2645677.428360084</v>
+        <v>2645677.428314806</v>
       </c>
       <c r="E426" t="n">
-        <v>2232241.318834688</v>
+        <v>2232241.318806509</v>
       </c>
       <c r="F426" t="n">
-        <v>3537885.396211067</v>
+        <v>3537885.396177285</v>
       </c>
       <c r="G426" t="n">
-        <v>10064077.53240994</v>
+        <v>10064077.53235707</v>
       </c>
       <c r="H426" t="n">
-        <v>16052168.17878902</v>
+        <v>16052168.17886797</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>6405980.51961145</v>
+        <v>6405980.519722776</v>
       </c>
       <c r="C427" t="n">
-        <v>3474916.211001176</v>
+        <v>3474916.210917118</v>
       </c>
       <c r="D427" t="n">
-        <v>2643370.712674979</v>
+        <v>2643370.712627868</v>
       </c>
       <c r="E427" t="n">
-        <v>2231604.302336028</v>
+        <v>2231604.302307208</v>
       </c>
       <c r="F427" t="n">
-        <v>3537647.925881415</v>
+        <v>3537647.925847379</v>
       </c>
       <c r="G427" t="n">
-        <v>10063964.94281515</v>
+        <v>10063964.94276217</v>
       </c>
       <c r="H427" t="n">
-        <v>17233895.2195548</v>
+        <v>17233895.21965034</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>6356064.172698361</v>
+        <v>6356064.172810873</v>
       </c>
       <c r="C428" t="n">
-        <v>3466135.829514744</v>
+        <v>3466135.82942707</v>
       </c>
       <c r="D428" t="n">
-        <v>2640818.801862657</v>
+        <v>2640818.801813574</v>
       </c>
       <c r="E428" t="n">
-        <v>2230881.475145672</v>
+        <v>2230881.475116142</v>
       </c>
       <c r="F428" t="n">
-        <v>3537370.826460552</v>
+        <v>3537370.826426228</v>
       </c>
       <c r="G428" t="n">
-        <v>10063829.6100421</v>
+        <v>10063829.60998899</v>
       </c>
       <c r="H428" t="n">
-        <v>18420393.08061531</v>
+        <v>18420393.08072926</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>6304640.873614492</v>
+        <v>6304640.873728103</v>
       </c>
       <c r="C429" t="n">
-        <v>3456700.444979771</v>
+        <v>3456700.444888333</v>
       </c>
       <c r="D429" t="n">
-        <v>2638000.506072756</v>
+        <v>2638000.506021554</v>
       </c>
       <c r="E429" t="n">
-        <v>2230062.865110443</v>
+        <v>2230062.865080129</v>
       </c>
       <c r="F429" t="n">
-        <v>3537048.17075213</v>
+        <v>3537048.170717477</v>
       </c>
       <c r="G429" t="n">
-        <v>10063667.31083608</v>
+        <v>10063667.31078283</v>
       </c>
       <c r="H429" t="n">
-        <v>19611718.66496716</v>
+        <v>19611718.66510136</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>6251702.284987735</v>
+        <v>6251702.285102349</v>
       </c>
       <c r="C430" t="n">
-        <v>3446575.457169242</v>
+        <v>3446575.45707389</v>
       </c>
       <c r="D430" t="n">
-        <v>2634893.395079016</v>
+        <v>2634893.395025543</v>
       </c>
       <c r="E430" t="n">
-        <v>2229137.574972361</v>
+        <v>2229137.574941182</v>
       </c>
       <c r="F430" t="n">
-        <v>3536673.266661464</v>
+        <v>3536673.266626437</v>
       </c>
       <c r="G430" t="n">
-        <v>10063473.11573954</v>
+        <v>10063473.11568612</v>
       </c>
       <c r="H430" t="n">
-        <v>20807938.91985972</v>
+        <v>20807938.92001613</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>6197242.358340885</v>
+        <v>6197242.358456409</v>
       </c>
       <c r="C431" t="n">
-        <v>3435725.772267425</v>
+        <v>3435725.772168014</v>
       </c>
       <c r="D431" t="n">
-        <v>2631473.793250423</v>
+        <v>2631473.793194524</v>
       </c>
       <c r="E431" t="n">
-        <v>2228093.728590259</v>
+        <v>2228093.72855813</v>
       </c>
       <c r="F431" t="n">
-        <v>3536238.578599586</v>
+        <v>3536238.578564135</v>
       </c>
       <c r="G431" t="n">
-        <v>10063241.28643543</v>
+        <v>10063241.28638182</v>
       </c>
       <c r="H431" t="n">
-        <v>22009130.84045129</v>
+        <v>22009130.84063186</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>6141257.445871085</v>
+        <v>6141257.445987426</v>
       </c>
       <c r="C432" t="n">
-        <v>3424115.925555146</v>
+        <v>3424115.925451539</v>
       </c>
       <c r="D432" t="n">
-        <v>2627716.783218302</v>
+        <v>2627716.783159812</v>
       </c>
       <c r="E432" t="n">
-        <v>2226918.418304668</v>
+        <v>2226918.418271497</v>
       </c>
       <c r="F432" t="n">
-        <v>3535735.643936426</v>
+        <v>3535735.643900496</v>
       </c>
       <c r="G432" t="n">
-        <v>10062965.16103109</v>
+        <v>10062965.16097725</v>
       </c>
       <c r="H432" t="n">
-        <v>23215381.43187403</v>
+        <v>23215381.43208076</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>6083746.40832833</v>
+        <v>6083746.40844539</v>
       </c>
       <c r="C433" t="n">
-        <v>3411710.215474149</v>
+        <v>3411710.215366207</v>
       </c>
       <c r="D433" t="n">
-        <v>2623596.219102541</v>
+        <v>2623596.219041296</v>
       </c>
       <c r="E433" t="n">
-        <v>2225597.654147365</v>
+        <v>2225597.654113054</v>
       </c>
       <c r="F433" t="n">
-        <v>3535154.984672857</v>
+        <v>3535154.984636386</v>
       </c>
       <c r="G433" t="n">
-        <v>10062637.02636797</v>
+        <v>10062637.02631386</v>
       </c>
       <c r="H433" t="n">
-        <v>24426787.62693025</v>
+        <v>24426787.62716525</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>6024710.718273309</v>
+        <v>6024710.718390992</v>
       </c>
       <c r="C434" t="n">
-        <v>3398472.848896341</v>
+        <v>3398472.848783936</v>
       </c>
       <c r="D434" t="n">
-        <v>2619084.75014255</v>
+        <v>2619084.750078378</v>
       </c>
       <c r="E434" t="n">
-        <v>2224116.315664903</v>
+        <v>2224116.315629348</v>
       </c>
       <c r="F434" t="n">
-        <v>3534486.014595221</v>
+        <v>3534486.014558145</v>
       </c>
       <c r="G434" t="n">
-        <v>10062247.97646105</v>
+        <v>10062247.97640662</v>
       </c>
       <c r="H434" t="n">
-        <v>25643456.15653884</v>
+        <v>25643456.15680427</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>5964154.557986097</v>
+        <v>5964154.558104306</v>
       </c>
       <c r="C435" t="n">
-        <v>3384368.097308357</v>
+        <v>3384368.097191365</v>
       </c>
       <c r="D435" t="n">
-        <v>2614153.855548043</v>
+        <v>2614153.855480772</v>
       </c>
       <c r="E435" t="n">
-        <v>2222458.10719079</v>
+        <v>2222458.10715388</v>
       </c>
       <c r="F435" t="n">
-        <v>3533716.942280676</v>
+        <v>3533716.942242919</v>
       </c>
       <c r="G435" t="n">
-        <v>10061787.75620917</v>
+        <v>10061787.75615438</v>
       </c>
       <c r="H435" t="n">
-        <v>26865503.36995571</v>
+        <v>26865503.37025371</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>5902084.911293346</v>
+        <v>5902084.911411984</v>
       </c>
       <c r="C436" t="n">
-        <v>3369360.463500715</v>
+        <v>3369360.463379023</v>
       </c>
       <c r="D436" t="n">
-        <v>2608773.8913408</v>
+        <v>2608773.891270251</v>
       </c>
       <c r="E436" t="n">
-        <v>2220605.517462431</v>
+        <v>2220605.517424049</v>
       </c>
       <c r="F436" t="n">
-        <v>3532834.670436738</v>
+        <v>3532834.67039822</v>
       </c>
       <c r="G436" t="n">
-        <v>10061244.58957758</v>
+        <v>10061244.58952237</v>
       </c>
       <c r="H436" t="n">
-        <v>28093055.00169698</v>
+        <v>28093055.00202972</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>5838511.648582988</v>
+        <v>5838511.648701958</v>
       </c>
       <c r="C437" t="n">
-        <v>3353414.858225558</v>
+        <v>3353414.858099061</v>
       </c>
       <c r="D437" t="n">
-        <v>2602914.149900141</v>
+        <v>2602914.149826137</v>
       </c>
       <c r="E437" t="n">
-        <v>2218539.784534888</v>
+        <v>2218539.78449491</v>
       </c>
       <c r="F437" t="n">
-        <v>3531824.692183639</v>
+        <v>3531824.692144271</v>
       </c>
       <c r="G437" t="n">
-        <v>10060604.99153901</v>
+        <v>10060604.99148332</v>
       </c>
       <c r="H437" t="n">
-        <v>29326245.88201513</v>
+        <v>29326245.88238489</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>5773447.604282489</v>
+        <v>5773447.604401692</v>
       </c>
       <c r="C438" t="n">
-        <v>3336496.786158365</v>
+        <v>3336496.786026965</v>
       </c>
       <c r="D438" t="n">
-        <v>2596542.93285175</v>
+        <v>2596542.932774114</v>
       </c>
       <c r="E438" t="n">
-        <v>2216240.866992381</v>
+        <v>2216240.866950679</v>
       </c>
       <c r="F438" t="n">
-        <v>3530670.985022387</v>
+        <v>3530670.984982072</v>
       </c>
       <c r="G438" t="n">
-        <v>10059853.56317337</v>
+        <v>10059853.56311714</v>
       </c>
       <c r="H438" t="n">
-        <v>30565219.58770233</v>
+        <v>30565219.5881113</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>5706908.646089179</v>
+        <v>5706908.646208519</v>
       </c>
       <c r="C439" t="n">
-        <v>3318572.540368597</v>
+        <v>3318572.540232211</v>
       </c>
       <c r="D439" t="n">
-        <v>2589627.637851123</v>
+        <v>2589627.637769676</v>
       </c>
       <c r="E439" t="n">
-        <v>2213687.42249856</v>
+        <v>2213687.422454997</v>
       </c>
       <c r="F439" t="n">
-        <v>3529355.903373913</v>
+        <v>3529355.903332548</v>
       </c>
       <c r="G439" t="n">
-        <v>10058972.76947077</v>
+        <v>10058972.7694139</v>
       </c>
       <c r="H439" t="n">
-        <v>31810128.02994293</v>
+        <v>31810128.03039342</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>5638913.73525999</v>
+        <v>5638913.735379374</v>
       </c>
       <c r="C440" t="n">
-        <v>3299609.404373579</v>
+        <v>3299609.404232135</v>
       </c>
       <c r="D440" t="n">
-        <v>2582134.859709271</v>
+        <v>2582134.859623835</v>
       </c>
       <c r="E440" t="n">
-        <v>2210856.794756158</v>
+        <v>2210856.794710596</v>
       </c>
       <c r="F440" t="n">
-        <v>3527860.070723849</v>
+        <v>3527860.07068132</v>
       </c>
       <c r="G440" t="n">
-        <v>10057942.69956152</v>
+        <v>10057942.69950393</v>
       </c>
       <c r="H440" t="n">
-        <v>33061130.97589422</v>
+        <v>33061130.97638848</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>5569484.977292356</v>
+        <v>5569484.977411688</v>
       </c>
       <c r="C441" t="n">
-        <v>3279575.860720308</v>
+        <v>3279575.860573747</v>
       </c>
       <c r="D441" t="n">
-        <v>2574030.506189603</v>
+        <v>2574030.506100004</v>
       </c>
       <c r="E441" t="n">
-        <v>2207725.009964067</v>
+        <v>2207725.009916358</v>
       </c>
       <c r="F441" t="n">
-        <v>3526162.272561551</v>
+        <v>3526162.272517736</v>
       </c>
       <c r="G441" t="n">
-        <v>10056740.8093123</v>
+        <v>10056740.80925389</v>
       </c>
       <c r="H441" t="n">
-        <v>34318395.50066101</v>
+        <v>34318395.50120135</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>5498647.662358929</v>
+        <v>5498647.662478119</v>
       </c>
       <c r="C442" t="n">
-        <v>3258441.804913342</v>
+        <v>3258441.804761619</v>
       </c>
       <c r="D442" t="n">
-        <v>2565279.928671306</v>
+        <v>2565279.928577371</v>
       </c>
       <c r="E442" t="n">
-        <v>2204266.783863316</v>
+        <v>2204266.783813308</v>
       </c>
       <c r="F442" t="n">
-        <v>3524239.351458855</v>
+        <v>3524239.351413622</v>
       </c>
       <c r="G442" t="n">
-        <v>10055341.64648144</v>
+        <v>10055341.6464221</v>
       </c>
       <c r="H442" t="n">
-        <v>35582095.366338</v>
+        <v>35582095.36692668</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>5426430.294895631</v>
+        <v>5426430.295014585</v>
       </c>
       <c r="C443" t="n">
-        <v>3236178.763384918</v>
+        <v>3236178.763228004</v>
       </c>
       <c r="D443" t="n">
-        <v>2555848.067726979</v>
+        <v>2555848.067628542</v>
       </c>
       <c r="E443" t="n">
-        <v>2200455.540451397</v>
+        <v>2200455.540398937</v>
       </c>
       <c r="F443" t="n">
-        <v>3522066.105791202</v>
+        <v>3522066.105744412</v>
       </c>
       <c r="G443" t="n">
-        <v>10053716.55892103</v>
+        <v>10053716.55886063</v>
       </c>
       <c r="H443" t="n">
-        <v>36852410.32483363</v>
+        <v>36852410.32547288</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>5352864.611785525</v>
+        <v>5352864.611904159</v>
       </c>
       <c r="C444" t="n">
-        <v>3212760.114087902</v>
+        <v>3212760.113925784</v>
       </c>
       <c r="D444" t="n">
-        <v>2545699.613501499</v>
+        <v>2545699.613398402</v>
       </c>
       <c r="E444" t="n">
-        <v>2196263.44341526</v>
+        <v>2196263.443360189</v>
       </c>
       <c r="F444" t="n">
-        <v>3519615.193758313</v>
+        <v>3519615.193709816</v>
       </c>
       <c r="G444" t="n">
-        <v>10051833.38664877</v>
+        <v>10051833.38658718</v>
       </c>
       <c r="H444" t="n">
-        <v>38129525.34126741</v>
+        <v>38129525.34195951</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>5277985.588630054</v>
+        <v>5277985.588748277</v>
       </c>
       <c r="C445" t="n">
-        <v>3188161.308184898</v>
+        <v>3188161.308017579</v>
       </c>
       <c r="D445" t="n">
-        <v>2534799.180606548</v>
+        <v>2534799.180498638</v>
       </c>
       <c r="E445" t="n">
-        <v>2191661.441285713</v>
+        <v>2191661.441227869</v>
       </c>
       <c r="F445" t="n">
-        <v>3516857.044510438</v>
+        <v>3516857.044460073</v>
       </c>
       <c r="G445" t="n">
-        <v>10049656.13899014</v>
+        <v>10049656.1389272</v>
       </c>
       <c r="H445" t="n">
-        <v>39413629.73484964</v>
+        <v>39413629.73559675</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>5201831.433653866</v>
+        <v>5201831.433771596</v>
       </c>
       <c r="C446" t="n">
-        <v>3162360.091209569</v>
+        <v>3162360.091037071</v>
       </c>
       <c r="D446" t="n">
-        <v>2523111.497062296</v>
+        <v>2523111.49694943</v>
       </c>
       <c r="E446" t="n">
-        <v>2186619.327248822</v>
+        <v>2186619.327188042</v>
       </c>
       <c r="F446" t="n">
-        <v>3513759.77832566</v>
+        <v>3513759.778273258</v>
       </c>
       <c r="G446" t="n">
-        <v>10047144.65840901</v>
+        <v>10047144.65834455</v>
       </c>
       <c r="H446" t="n">
-        <v>40704916.23431713</v>
+        <v>40704916.23512144</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>5124443.568849985</v>
+        <v>5124443.568967139</v>
       </c>
       <c r="C447" t="n">
-        <v>3135336.721990833</v>
+        <v>3135336.721813194</v>
       </c>
       <c r="D447" t="n">
-        <v>2510601.606626519</v>
+        <v>2510601.606508563</v>
       </c>
       <c r="E447" t="n">
-        <v>2181105.814462215</v>
+        <v>2181105.814398333</v>
       </c>
       <c r="F447" t="n">
-        <v>3510289.137910198</v>
+        <v>3510289.137855581</v>
       </c>
       <c r="G447" t="n">
-        <v>10044254.27310241</v>
+        <v>10044254.27303625</v>
       </c>
       <c r="H447" t="n">
-        <v>42003579.94521649</v>
+        <v>42003579.94608004</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>5045866.598037513</v>
+        <v>5045866.598154013</v>
       </c>
       <c r="C448" t="n">
-        <v>3107074.187558692</v>
+        <v>3107074.187375972</v>
       </c>
       <c r="D448" t="n">
-        <v>2497235.083653804</v>
+        <v>2497235.083530638</v>
       </c>
       <c r="E448" t="n">
-        <v>2175088.627615308</v>
+        <v>2175088.62754816</v>
       </c>
       <c r="F448" t="n">
-        <v>3506408.433002976</v>
+        <v>3506408.432945955</v>
       </c>
       <c r="G448" t="n">
-        <v>10040935.44092868</v>
+        <v>10040935.44086062</v>
       </c>
       <c r="H448" t="n">
-        <v>43309817.22660225</v>
+        <v>43309817.22752709</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>4966148.261574746</v>
+        <v>4966148.261690516</v>
       </c>
       <c r="C449" t="n">
-        <v>3077558.412193828</v>
+        <v>3077558.412006104</v>
       </c>
       <c r="D449" t="n">
-        <v>2482978.259426174</v>
+        <v>2482978.259297689</v>
       </c>
       <c r="E449" t="n">
-        <v>2168534.611342154</v>
+        <v>2168534.611271573</v>
       </c>
       <c r="F449" t="n">
-        <v>3502078.500553733</v>
+        <v>3502078.500494113</v>
       </c>
       <c r="G449" t="n">
-        <v>10037133.38776397</v>
+        <v>10037133.38769379</v>
       </c>
       <c r="H449" t="n">
-        <v>44623824.47506075</v>
+        <v>44623824.47604885</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>4885339.377545449</v>
+        <v>4885339.377660415</v>
       </c>
       <c r="C450" t="n">
-        <v>3046778.458743019</v>
+        <v>3046778.458550389</v>
       </c>
       <c r="D450" t="n">
-        <v>2467798.458693885</v>
+        <v>2467798.458559989</v>
       </c>
       <c r="E450" t="n">
-        <v>2161409.855943835</v>
+        <v>2161409.855869661</v>
       </c>
       <c r="F450" t="n">
-        <v>3497257.682806531</v>
+        <v>3497257.682744106</v>
       </c>
       <c r="G450" t="n">
-        <v>10032787.74393506</v>
+        <v>10032787.74386252</v>
       </c>
       <c r="H450" t="n">
-        <v>45945796.81437789</v>
+        <v>45945796.81543107</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>4803493.769314964</v>
+        <v>4803493.769429059</v>
       </c>
       <c r="C451" t="n">
-        <v>3014726.720300556</v>
+        <v>3014726.720103138</v>
       </c>
       <c r="D451" t="n">
-        <v>2451664.24496435</v>
+        <v>2451664.244824968</v>
       </c>
       <c r="E451" t="n">
-        <v>2153679.840704645</v>
+        <v>2153679.840626718</v>
       </c>
       <c r="F451" t="n">
-        <v>3491901.825653089</v>
+        <v>3491901.825587645</v>
       </c>
       <c r="G451" t="n">
-        <v>10027832.18294882</v>
+        <v>10027832.18287367</v>
       </c>
       <c r="H451" t="n">
-        <v>47275926.68966278</v>
+        <v>47275926.69078281</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>4720668.179435193</v>
+        <v>4720668.179548347</v>
       </c>
       <c r="C452" t="n">
-        <v>2981399.100353035</v>
+        <v>2981399.100150967</v>
       </c>
       <c r="D452" t="n">
-        <v>2434545.672881153</v>
+        <v>2434545.672736226</v>
       </c>
       <c r="E452" t="n">
-        <v>2145309.594893537</v>
+        <v>2145309.5948117</v>
       </c>
       <c r="F452" t="n">
-        <v>3485964.299619151</v>
+        <v>3485964.299550469</v>
       </c>
       <c r="G452" t="n">
-        <v>10022194.0673233</v>
+        <v>10022194.06724526</v>
       </c>
       <c r="H452" t="n">
-        <v>48614402.36530687</v>
+        <v>48614402.36649545</v>
       </c>
     </row>
   </sheetData>
